--- a/quantum_articles.xlsx
+++ b/quantum_articles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C143"/>
+  <dimension ref="A1:C317"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-06-29 14:34:05.123870</t>
+          <t>2024-06-29 15:39:41.612688</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -470,119 +470,119 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Cryptographers Are Discovering New Rules for Quantum Encryption</t>
+          <t>The Interplay of AI, Cybersecurity &amp; Quantum Computing</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024-06-30 14:34:05.118778</t>
+          <t>2024-06-29 15:39:41.619481</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiXGh0dHBzOi8vd3d3LndpcmVkLmNvbS9zdG9yeS9jcnlwdG9ncmFwaGVycy1hcmUtZGlzY292ZXJpbmctbmV3LXJ1bGVzLWZvci1xdWFudHVtLWVuY3J5cHRpb24v0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiXWh0dHBzOi8vdGhlcXVhbnR1bWluc2lkZXIuY29tLzIwMjQvMDYvMjkvdGhlLWludGVycGxheS1vZi1haS1jeWJlcnNlY3VyaXR5LXF1YW50dW0tY29tcHV0aW5nL9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>The first exponential quantum advantage for a natural streaming problem</t>
+          <t>Tiny 'quantum memory' drum stores data sent via laser as ultrasonic vibrations</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024-07-01 14:36:30.585622</t>
+          <t>2024-06-30 15:39:41.652544</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiUmh0dHBzOi8vcGh5cy5vcmcvbmV3cy8yMDI0LTA3LWV4cG9uZW50aWFsLXF1YW50dW0tYWR2YW50YWdlLW5hdHVyYWwtc3RyZWFtaW5nLmh0bWzSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMihAFodHRwczovL3d3dy5sYXNlcmZvY3Vzd29ybGQuY29tL29wdGljcy9hcnRpY2xlLzU1MDU1ODM3L3RpbnktcXVhbnR1bS1tZW1vcnktZHJ1bS1zdG9yZXMtZGF0YS1zZW50LXZpYS1sYXNlci1hcy11bHRyYXNvbmljLXZpYnJhdGlvbnPSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A new method to control quantum bound states in superconducting device</t>
+          <t>VCs ‘all have this FOMO now’, says founder of AI drone startup Quantum Systems and weapons startup Stark</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024-07-01 14:36:30.588372</t>
+          <t>2024-07-01 13:10:37.426358</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiTmh0dHBzOi8vcGh5cy5vcmcvbmV3cy8yMDI0LTA3LW1ldGhvZC1xdWFudHVtLWJvdW5kLXN0YXRlcy1zdXBlcmNvbmR1Y3RpbmcuaHRtbNIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiRmh0dHBzOi8vc2lmdGVkLmV1L2FydGljbGVzL3ZjLWRlZmVuY2UtdGVjaC1oeXBlLWRyb25lcy1xdWFudHVtLXN5c3RlbXPSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Quantum Computing for Pharma with Johnson &amp; Johnson</t>
+          <t>Exploring Quantum Mpemba Effects</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2024-07-01 14:36:30.588372</t>
+          <t>2024-07-01 13:10:37.429449</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiW2h0dHBzOi8vdGhlcXVhbnR1bWluc2lkZXIuY29tLzIwMjQvMDcvMDEvcXVhbnR1bS1jb21wdXRpbmctZm9yLXBoYXJtYS13aXRoLWpvaG5zb24tam9obnNvbi_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiKGh0dHBzOi8vcGh5c2ljcy5hcHMub3JnL2FydGljbGVzL3YxNy8xMDXSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Inforegio - EU supports quantum computing in Hamburg</t>
+          <t>Complete quantum toolbox for an acoustic resonator</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2024-07-01 14:36:30.588372</t>
+          <t>2024-07-01 13:10:37.434564</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMibmh0dHBzOi8vZWMuZXVyb3BhLmV1L3JlZ2lvbmFsX3BvbGljeS93aGF0cy1uZXcvbmV3c3Jvb20vMDctMDEtMjAyNC1ldS1zdXBwb3J0cy1xdWFudHVtLWNvbXB1dGluZy1pbi1oYW1idXJnX2Vu0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiMmh0dHBzOi8vd3d3Lm5hdHVyZS5jb20vYXJ0aWNsZXMvczQxNTY3LTAyNC0wMjU0NC030gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Bridging the Gap: Shai Phillips on the Quantum Technology Executive Search Landscape</t>
+          <t>Quantum Computing Can Learn Sustainability Lessons from AI</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2024-07-01 14:36:30.588372</t>
+          <t>2024-07-01 13:10:37.434564</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMifWh0dHBzOi8vdGhlcXVhbnR1bWluc2lkZXIuY29tLzIwMjQvMDcvMDEvYnJpZGdpbmctdGhlLWdhcC1zaGFpLXBoaWxsaXBzLW9uLXRoZS1xdWFudHVtLXRlY2hub2xvZ3ktZXhlY3V0aXZlLXNlYXJjaC1sYW5kc2NhcGUv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiYGh0dHBzOi8vd3d3LmlvdHdvcmxkdG9kYXkuY29tL3F1YW50dW0vcXVhbnR1bS1jb21wdXRpbmctY2FuLWxlYXJuLXN1c3RhaW5hYmlsaXR5LWxlc3NvbnMtZnJvbS1hadIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Physics - Exploring Quantum Mpemba Effects</t>
+          <t>Sandia Highlights Quantum Computers’ Superior Memory Efficiency in Math Problems</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2024-07-01 14:36:30.588372</t>
+          <t>2024-07-01 13:10:37.434564</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiKGh0dHBzOi8vcGh5c2ljcy5hcHMub3JnL2FydGljbGVzL3YxNy8xMDXSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMidWh0dHBzOi8vd3d3LmhwY3dpcmUuY29tL29mZi10aGUtd2lyZS9zYW5kaWEtaGlnaGxpZ2h0cy1xdWFudHVtLWNvbXB1dGVycy1zdXBlcmlvci1tZW1vcnktZWZmaWNpZW5jeS1pbi1tYXRoLXByb2JsZW1zL9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2024-07-01 14:36:30.588372</t>
+          <t>2024-07-01 13:11:25.836023</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -606,272 +606,272 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>VCs 'all have this FOMO now', says founder of AI drone startup Quantum Systems and weapons startup Stark</t>
+          <t>The first exponential quantum advantage for a natural streaming problem</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2024-07-01 14:36:30.588372</t>
+          <t>2024-07-01 13:11:25.842145</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiRmh0dHBzOi8vc2lmdGVkLmV1L2FydGljbGVzL3ZjLWRlZmVuY2UtdGVjaC1oeXBlLWRyb25lcy1xdWFudHVtLXN5c3RlbXPSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiUmh0dHBzOi8vcGh5cy5vcmcvbmV3cy8yMDI0LTA3LWV4cG9uZW50aWFsLXF1YW50dW0tYWR2YW50YWdlLW5hdHVyYWwtc3RyZWFtaW5nLmh0bWzSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>How to get the errors out of quantum computing – Physics World</t>
+          <t>VCs 'all have this FOMO now', says founder of AI drone startup Quantum Systems and weapons startup Stark</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2024-07-02 14:36:30.578506</t>
+          <t>2024-07-01 13:11:25.842145</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiSmh0dHBzOi8vcGh5c2ljc3dvcmxkLmNvbS9hL2hvdy10by1nZXQtdGhlLWVycm9ycy1vdXQtb2YtcXVhbnR1bS1jb21wdXRpbmcv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiRmh0dHBzOi8vc2lmdGVkLmV1L2FydGljbGVzL3ZjLWRlZmVuY2UtdGVjaC1oeXBlLWRyb25lcy1xdWFudHVtLXN5c3RlbXPSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Opinion: As artificial intelligence rises, data-centre costs spiral. Quantum is the solution</t>
+          <t>Physics - Exploring Quantum Mpemba Effects</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-07-02 14:36:30.578506</t>
+          <t>2024-07-01 13:11:25.852337</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMigQFodHRwczovL3d3dy50aGVnbG9iZWFuZG1haWwuY29tL2J1c2luZXNzL2NvbW1lbnRhcnkvYXJ0aWNsZS1hcy1hcnRpZmljaWFsLWludGVsbGlnZW5jZS1yaXNlcy1kYXRhLWNlbnRyZS1jb3N0cy1zcGlyYWwtcXVhbnR1bS1pcy_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiKGh0dHBzOi8vcGh5c2ljcy5hcHMub3JnL2FydGljbGVzL3YxNy8xMDXSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Neutrons on classically inexplicable paths: Quantum theory prevails in Leggett-Garg inequality test</t>
+          <t>Inforegio - EU supports quantum computing in Hamburg</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2024-07-02 14:36:30.578506</t>
+          <t>2024-07-01 13:11:25.852337</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiUmh0dHBzOi8vcGh5cy5vcmcvbmV3cy8yMDI0LTA3LW5ldXRyb25zLWNsYXNzaWNhbGx5LWluZXhwbGljYWJsZS1wYXRocy1xdWFudHVtLmh0bWzSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMibmh0dHBzOi8vZWMuZXVyb3BhLmV1L3JlZ2lvbmFsX3BvbGljeS93aGF0cy1uZXcvbmV3c3Jvb20vMDctMDEtMjAyNC1ldS1zdXBwb3J0cy1xdWFudHVtLWNvbXB1dGluZy1pbi1oYW1idXJnX2Vu0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Panama to review all information to make an informed First Quantum decision - MINING.COM</t>
+          <t>Bridging the Gap: Shai Phillips on the Quantum Technology Executive Search Landscape</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2024-07-02 14:36:30.578506</t>
+          <t>2024-07-01 13:11:25.867213</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiZ2h0dHBzOi8vd3d3Lm1pbmluZy5jb20vd2ViL3BhbmFtYS10by1yZXZpZXctYWxsLWluZm9ybWF0aW9uLXRvLW1ha2UtYW4taW5mb3JtZWQtZmlyc3QtcXVhbnR1bS1kZWNpc2lvbi_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMifWh0dHBzOi8vdGhlcXVhbnR1bWluc2lkZXIuY29tLzIwMjQvMDcvMDEvYnJpZGdpbmctdGhlLWdhcC1zaGFpLXBoaWxsaXBzLW9uLXRoZS1xdWFudHVtLXRlY2hub2xvZ3ktZXhlY3V0aXZlLXNlYXJjaC1sYW5kc2NhcGUv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>First Quantum shares jump 6% on plans for environmental audit of Cobre Panama mine</t>
+          <t>A new method to control quantum bound states in superconducting device</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2024-07-02 14:36:30.578506</t>
+          <t>2024-07-01 13:11:25.872125</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMid2h0dHBzOi8vd3d3LnRoZWdsb2JlYW5kbWFpbC5jb20vYnVzaW5lc3MvYXJ0aWNsZS1maXJzdC1xdWFudHVtLXNoYXJlcy1qdW1wLTYtb24tcGxhbnMtZm9yLWVudmlyb25tZW50YWwtYXVkaXQtb2YtY29icmUv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiTmh0dHBzOi8vcGh5cy5vcmcvbmV3cy8yMDI0LTA3LW1ldGhvZC1xdWFudHVtLWJvdW5kLXN0YXRlcy1zdXBlcmNvbmR1Y3RpbmcuaHRtbNIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>First Quantum stock jumps on Panama plans for mine audit - MINING.COM</t>
+          <t>Symbolic Model Checking Approach to Verify Quantum Circuits Could Lead to Error-free Quantum Computing</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2024-07-02 14:36:30.578506</t>
+          <t>2024-07-01 13:11:25.872125</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiYmh0dHBzOi8vd3d3Lm1pbmluZy5jb20vd2ViL2ZpcnN0LXF1YW50dW0tc3RvY2stanVtcHMtb24tcGFuYW1hLXBsYW5zLWZvci1taW5lLWVudmlyb25tZW50YWwtYXVkaXQv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMikAFodHRwczovL3RoZXF1YW50dW1pbnNpZGVyLmNvbS8yMDI0LzA3LzAxL3N5bWJvbGljLW1vZGVsLWNoZWNraW5nLWFwcHJvYWNoLXRvLXZlcmlmeS1xdWFudHVtLWNpcmN1aXRzLWNvdWxkLWxlYWQtdG8tZXJyb3ItZnJlZS1xdWFudHVtLWNvbXB1dGluZy_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>First Quantum Minerals jumps 5% on Panama plans for mine environmental audit</t>
+          <t>Coherent phenomena and dynamics of lead halide perovskite nanocrystals for quantum information technologies</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2024-07-02 14:36:30.578506</t>
+          <t>2024-07-01 13:11:25.872125</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMifGh0dHBzOi8vd3d3LnJldXRlcnMuY29tL21hcmtldHMvY29tbW9kaXRpZXMvZmlyc3QtcXVhbnR1bS1taW5lcmFscy1qdW1wcy02LXBhbmFtYS1wbGFucy1taW5lLWVudmlyb25tZW50YWwtYXVkaXQtMjAyNC0wNy0wMi_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiMmh0dHBzOi8vd3d3Lm5hdHVyZS5jb20vYXJ0aWNsZXMvczQxNTYzLTAyNC0wMTkyMi160gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Novel method enhances size-controlled production of luminescent quantum dots</t>
+          <t>Empowering deep neural quantum states through efficient optimization</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2024-07-02 14:36:30.584279</t>
+          <t>2024-07-01 13:11:25.872125</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiTWh0dHBzOi8vcGh5cy5vcmcvbmV3cy8yMDI0LTA3LW1ldGhvZC1zaXplLXByb2R1Y3Rpb24tbHVtaW5lc2NlbnQtcXVhbnR1bS5odG1s0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiMmh0dHBzOi8vd3d3Lm5hdHVyZS5jb20vYXJ0aWNsZXMvczQxNTY3LTAyNC0wMjU2Ni0x0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Quantum sensors: How does the flow profile affect flow measurements?</t>
+          <t>Technique Could Lead to Mass Production of Quantum Dot Lasers For Optical Communications</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2024-07-02 14:36:30.584279</t>
+          <t>2024-07-01 13:11:25.892293</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiQWh0dHBzOi8vcGh5cy5vcmcvbmV3cy8yMDI0LTA3LXF1YW50dW0tc2Vuc29ycy1wcm9maWxlLWFmZmVjdC5odG1s0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiggFodHRwczovL3RoZXF1YW50dW1pbnNpZGVyLmNvbS8yMDI0LzA3LzAxL3RlY2huaXF1ZS1jb3VsZC1sZWFkLXRvLW1hc3MtcHJvZHVjdGlvbi1vZi1xdWFudHVtLWRvdC1sYXNlcnMtZm9yLW9wdGljYWwtY29tbXVuaWNhdGlvbnMv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Unravelling quantum dynamics using flow equations</t>
+          <t>Sandia Highlights Quantum Computers' Superior Memory Efficiency in Math Problems</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2024-07-02 14:36:30.585015</t>
+          <t>2024-07-01 14:51:21.940741</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiMmh0dHBzOi8vd3d3Lm5hdHVyZS5jb20vYXJ0aWNsZXMvczQxNTY3LTAyNC0wMjU0OS0y0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMidWh0dHBzOi8vd3d3LmhwY3dpcmUuY29tL29mZi10aGUtd2lyZS9zYW5kaWEtaGlnaGxpZ2h0cy1xdWFudHVtLWNvbXB1dGVycy1zdXBlcmlvci1tZW1vcnktZWZmaWNpZW5jeS1pbi1tYXRoLXByb2JsZW1zL9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Elevate Quantum Comments on Quantum Innovation Hub Funding Boost</t>
+          <t>Chiral Quantum Dynamics Without Encircling Exceptional Points</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2024-07-02 14:36:30.585015</t>
+          <t>2024-07-01 14:51:21.940741</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiamh0dHBzOi8vdGhlcXVhbnR1bWluc2lkZXIuY29tLzIwMjQvMDcvMDIvZWxldmF0ZS1xdWFudHVtLWNvbW1lbnRzLW9uLXF1YW50dW0taW5ub3ZhdGlvbi1odWItZnVuZGluZy1ib29zdC_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiMWh0dHBzOi8vd3d3LmF6b3F1YW50dW0uY29tL05ld3MuYXNweD9uZXdzSUQ9MTAzNTLSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Denmark chairs the inaugural meeting of NATO's Transatlantic Quantum Community</t>
+          <t>LightSolver Selected by Airbus and BMW Group as a Finalist in Quantum Computing Challenge</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2024-07-02 14:36:30.585622</t>
+          <t>2024-07-01 14:51:21.941966</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiRGh0dHBzOi8vd3d3Lm5hdG8uaW50L2Nwcy91ay9uYXRvaHEvbmV3c18yMjcyNDEuaHRtP3NlbGVjdGVkTG9jYWxlPWVu0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMif2h0dHBzOi8vd3d3LmhwY3dpcmUuY29tL29mZi10aGUtd2lyZS9saWdodHNvbHZlci1zZWxlY3RlZC1ieS1haXJidXMtYW5kLWJtdy1ncm91cC1hcy1hLWZpbmFsaXN0LWluLXF1YW50dW0tY29tcHV0aW5nLWNoYWxsZW5nZS_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Quantum Computing To Supercharge The Capabilities Of ChatGPT</t>
+          <t>Quantum Computing for Pharma with Johnson &amp; Johnson</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2024-07-02 14:36:30.585622</t>
+          <t>2024-07-01 15:39:41.612688</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiZmh0dHBzOi8vdGhlcXVhbnR1bWluc2lkZXIuY29tLzIwMjQvMDcvMDIvcXVhbnR1bS1jb21wdXRpbmctdG8tc3VwZXJjaGFyZ2UtdGhlLWNhcGFiaWxpdGllcy1vZi1jaGF0Z3B0L9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiW2h0dHBzOi8vdGhlcXVhbnR1bWluc2lkZXIuY29tLzIwMjQvMDcvMDEvcXVhbnR1bS1jb21wdXRpbmctZm9yLXBoYXJtYS13aXRoLWpvaG5zb24tam9obnNvbi_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Rymax One to make Hamburg leading quantum computing centre</t>
+          <t>Quantum Blockchain CEO Amends REPO Terms - TipRanks.com</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2024-07-02 14:36:30.585622</t>
+          <t>2024-07-01 15:39:41.647561</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiX2h0dHBzOi8vaGFtYnVyZy1idXNpbmVzcy5jb20vZW4vbmV3cy9yeW1heC1vbmUtdG8tbWFrZS1oYW1idXJnLWxlYWRpbmctcXVhbnR1bS1jb21wdXRpbmctY2VudHJl0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiXGh0dHBzOi8vd3d3LnRpcHJhbmtzLmNvbS9uZXdzL2NvbXBhbnktYW5ub3VuY2VtZW50cy9xdWFudHVtLWJsb2NrY2hhaW4tY2VvLWFtZW5kcy1yZXBvLXRlcm1z0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Scientists crack new method for high-capacity, secure quantum communication</t>
+          <t>Universal Quantum CEO Sebastian Weidt Discusses the Future &amp; Challenges of Quantum Computing</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2024-07-02 14:36:30.585622</t>
+          <t>2024-07-02 12:46:44.561340</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiSmh0dHBzOi8vcGh5cy5vcmcvbmV3cy8yMDI0LTA3LXNjaWVudGlzdHMtbWV0aG9kLWhpZ2gtY2FwYWNpdHktcXVhbnR1bS5odG1s0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMihAFodHRwczovL3RoZXF1YW50dW1pbnNpZGVyLmNvbS8yMDI0LzA3LzAyL3VuaXZlcnNhbC1xdWFudHVtLWNlby1zZWJhc3RpYW4td2VpZHQtZGlzY3Vzc2VzLXRoZS1mdXR1cmUtY2hhbGxlbmdlcy1vZi1xdWFudHVtLWNvbXB1dGluZy_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2024-07-02 14:36:30.588372</t>
+          <t>2024-07-02 12:46:44.563893</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -895,1615 +895,1615 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Approximate encoding of quantum states using shallow circuits | npj Quantum Information</t>
+          <t>Quantum computing: a potential energy-efficient solution for genAI?</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2024-07-02 14:36:30.588372</t>
+          <t>2024-07-02 12:46:44.563893</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiMmh0dHBzOi8vd3d3Lm5hdHVyZS5jb20vYXJ0aWNsZXMvczQxNTM0LTAyNC0wMDg1OC0x0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiaGh0dHBzOi8vd3d3LmRpZ2l0aW1lcy5jb20vbmV3cy9hMjAyNDA3MDJQRDIxNC9xdWFudHVtLWNvbXB1dGluZy10ZWNobm9sb2d5LXF1YW50dW0tZGF0YS1kYXRhLWNlbnRlci5odG1s0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>$504 Million Tech Hub Funding Includes $41 Million For Elevate Quantum</t>
+          <t>Post-Quantum chosen for NIST's NCCoE quantum migration project</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2024-07-02 14:36:30.588372</t>
+          <t>2024-07-02 12:46:44.565845</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMibmh0dHBzOi8vdGhlcXVhbnR1bWluc2lkZXIuY29tLzIwMjQvMDcvMDIvNTA0LW1pbGxpb24tdGVjaC1odWItZnVuZGluZy1pbmNsdWRlcy00MS1taWxsaW9uLWZvci1lbGV2YXRlLXF1YW50dW0v0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiXmh0dHBzOi8vaW5kdXN0cmlhbGN5YmVyLmNvL25ld3MvcG9zdC1xdWFudHVtLWNob3Nlbi1mb3ItbmlzdHMtbmNjb2UtcXVhbnR1bS1taWdyYXRpb24tcHJvamVjdC_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CU Boulder, Elevate Quantum partners ready for $127M regional quantum boost</t>
+          <t>Elevate Quantum Consortium Wins $127.5 Million in Federal and State Government Funding</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2024-07-02 14:36:30.588372</t>
+          <t>2024-07-02 12:46:44.565845</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMib2h0dHBzOi8vd3d3LmNvbG9yYWRvLmVkdS90b2RheS8yMDI0LzA3LzAyL2N1LWJvdWxkZXItZWxldmF0ZS1xdWFudHVtLXBhcnRuZXJzLXJlYWR5LTEyN20tcmVnaW9uYWwtcXVhbnR1bS1ib29zdNIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMieWh0dHBzOi8vcXVhbnR1bWNvbXB1dGluZ3JlcG9ydC5jb20vZWxldmF0ZS1xdWFudHVtLWNvbnNvcnRpdW0td2lucy0xMjctNS1taWxsaW9uLWluLWZlZGVyYWwtYW5kLXN0YXRlLWdvdmVybm1lbnQtZnVuZGluZy_SAX1odHRwczovL3F1YW50dW1jb21wdXRpbmdyZXBvcnQuY29tL2VsZXZhdGUtcXVhbnR1bS1jb25zb3J0aXVtLXdpbnMtMTI3LTUtbWlsbGlvbi1pbi1mZWRlcmFsLWFuZC1zdGF0ZS1nb3Zlcm5tZW50LWZ1bmRpbmcvYW1wLw?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>IonQ Plots Path to Commercial (Quantum) Advantage</t>
+          <t>Yes, the Most Massive Particle Shows Some 'Spooky Action At a Distance'</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2024-07-02 14:36:30.588372</t>
+          <t>2024-07-02 12:46:44.566847</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiU2h0dHBzOi8vd3d3LmhwY3dpcmUuY29tLzIwMjQvMDcvMDIvaW9ucS1wbG90cy1wYXRoLXRvLWNvbW1lcmNpYWwtcXVhbnR1bS1hZHZhbnRhZ2Uv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiUmh0dHBzOi8vd3d3LnBvcHVsYXJtZWNoYW5pY3MuY29tL3NjaWVuY2UvYTYxNDQ2NTA2L3RvcC1xdWFyay1xdWFudHVtLWVudGFuZ2xlbWVudC_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Cancellation Carnage! Which Recently Cancelled Show Will You Miss the Most? Vote Now in Our Poll!</t>
+          <t>Adapting Quantum Methods for Modern Drug Discovery</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2024-07-02 14:36:30.588372</t>
+          <t>2024-07-02 12:46:44.566847</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiVWh0dHBzOi8vY2EubmV3cy55YWhvby5jb20vY2FuY2VsbGF0aW9uLWNhcm5hZ2UtcmVjZW50bHktY2FuY2VsbGVkLXNob3ctMTMwMDAwOTI5Lmh0bWzSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiMWh0dHBzOi8vd3d3LmF6b3F1YW50dW0uY29tL05ld3MuYXNweD9uZXdzSUQ9MTAzNTTSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Tiny chip could enable super-secure quantum Wi-Fi</t>
+          <t>Post-Quantum Selected for NIST's National Cybersecurity Center of Excellence Quantum Migration Project</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2024-07-02 14:36:30.588372</t>
+          <t>2024-07-02 12:46:44.566847</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiX2h0dHBzOi8vd3d3Lm5ld3NjaWVudGlzdC5jb20vYXJ0aWNsZS8yNDM3OTc1LXRpbnktY2hpcC1jb3VsZC1lbmFibGUtc3VwZXItc2VjdXJlLXF1YW50dW0td2ktZmkv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMipwFodHRwczovL3d3dy5idXNpbmVzc3dpcmUuY29tL25ld3MvaG9tZS8yMDI0MDcwMjM4MTk4NC9lbi9Qb3N0LVF1YW50dW0tU2VsZWN0ZWQtZm9yLU5JU1QlRTIlODAlOTlzLU5hdGlvbmFsLUN5YmVyc2VjdXJpdHktQ2VudGVyLW9mLUV4Y2VsbGVuY2UtUXVhbnR1bS1NaWdyYXRpb24tUHJvamVjdNIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Tiny Quantum Ghosts Might Be Creating Brand-New Elements</t>
+          <t>New method cracked for high-capacity, secure quantum communication</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2024-07-02 14:36:30.588372</t>
+          <t>2024-07-02 12:46:44.567978</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiW2h0dHBzOi8vd3d3LnBvcHVsYXJtZWNoYW5pY3MuY29tL3NwYWNlL2RlZXAtc3BhY2UvYTYxNDMxMjE3L2ktcHJvY2Vzcy1xdWFudHVtLWVudGFuZ2xlbWVudC_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMibGh0dHBzOi8vdGVjaC5laW5uZXdzLmNvbS9wcl9uZXdzLzcyNDU4MDYwNi9uZXctbWV0aG9kLWNyYWNrZWQtZm9yLWhpZ2gtY2FwYWNpdHktc2VjdXJlLXF1YW50dW0tY29tbXVuaWNhdGlvbtIBcGh0dHBzOi8vdGVjaC5laW5uZXdzLmNvbS9hbXAvcHJfbmV3cy83MjQ1ODA2MDYvbmV3LW1ldGhvZC1jcmFja2VkLWZvci1oaWdoLWNhcGFjaXR5LXNlY3VyZS1xdWFudHVtLWNvbW11bmljYXRpb24?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>First Quantum Minerals Ltd. stock rises Tuesday, outperforms market</t>
+          <t>How utilities can keep quantum threats from crashing the grid</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2024-07-02 14:36:30.588372</t>
+          <t>2024-07-02 12:46:44.569099</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiiQFodHRwczovL3d3dy5tYXJrZXR3YXRjaC5jb20vYW1wL2RhdGEtbmV3cy9maXJzdC1xdWFudHVtLW1pbmVyYWxzLWx0ZC1zdG9jay1yaXNlcy10dWVzZGF5LW91dHBlcmZvcm1zLW1hcmtldC1iM2JiMzkwOS1lNmQ3N2Q1YzYzMGQ_dGVzbGE9edIBiQFodHRwczovL3d3dy5tYXJrZXR3YXRjaC5jb20vYW1wL2RhdGEtbmV3cy9maXJzdC1xdWFudHVtLW1pbmVyYWxzLWx0ZC1zdG9jay1yaXNlcy10dWVzZGF5LW91dHBlcmZvcm1zLW1hcmtldC1iM2JiMzkwOS1lNmQ3N2Q1YzYzMGQ_dGVzbGE9eQ?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiemh0dHBzOi8vd3d3LnNtYXJ0LWVuZXJneS5jb20vaW5kdXN0cnktc2VjdG9ycy9jeWJlcnNlY3VyaXR5L2hvdy11dGlsaXRpZXMtY2FuLWtlZXAtcXVhbnR1bS10aHJlYXRzLWZyb20tY3Jhc2hpbmctdGhlLWdyaWQv0gF-aHR0cHM6Ly93d3cuc21hcnQtZW5lcmd5LmNvbS9pbmR1c3RyeS1zZWN0b3JzL2N5YmVyc2VjdXJpdHkvaG93LXV0aWxpdGllcy1jYW4ta2VlcC1xdWFudHVtLXRocmVhdHMtZnJvbS1jcmFzaGluZy10aGUtZ3JpZC9hbXAv?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Quantum computing: a potential energy-efficient solution for genAI?</t>
+          <t>First Quantum Minerals jumps 6% on Panama plans for mine environmental audit</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2024-07-02 14:36:30.588372</t>
+          <t>2024-07-02 12:46:44.569099</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiaGh0dHBzOi8vd3d3LmRpZ2l0aW1lcy5jb20vbmV3cy9hMjAyNDA3MDJQRDIxNC9xdWFudHVtLWNvbXB1dGluZy10ZWNobm9sb2d5LXF1YW50dW0tZGF0YS1kYXRhLWNlbnRlci5odG1s0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiggFodHRwczovL3d3dy5tc24uY29tL2VuLWNhL21vbmV5L3RvcHN0b3JpZXMvZmlyc3QtcXVhbnR1bS1taW5lcmFscy1qdW1wcy02LW9uLXBhbmFtYS1wbGFucy1mb3ItbWluZS1lbnZpcm9ubWVudGFsLWF1ZGl0L2FyLUJCMXBpTXIy0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Universal Quantum CEO Sebastian Weidt Discusses the Future &amp; Challenges of Quantum Computing</t>
+          <t>Wideband coherent microwave conversion via magnon nonlinearity in a hybrid quantum system | npj Spintronics</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2024-07-02 14:36:30.588372</t>
+          <t>2024-07-02 12:46:44.570088</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMihAFodHRwczovL3RoZXF1YW50dW1pbnNpZGVyLmNvbS8yMDI0LzA3LzAyL3VuaXZlcnNhbC1xdWFudHVtLWNlby1zZWJhc3RpYW4td2VpZHQtZGlzY3Vzc2VzLXRoZS1mdXR1cmUtY2hhbGxlbmdlcy1vZi1xdWFudHVtLWNvbXB1dGluZy_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiMmh0dHBzOi8vd3d3Lm5hdHVyZS5jb20vYXJ0aWNsZXMvczQ0MzA2LTAyNC0wMDAzNS0y0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>An alternative way to manipulate quantum states</t>
+          <t>How to get the errors out of quantum computing</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2024-07-02 14:36:30.588372</t>
+          <t>2024-07-02 13:10:37.424740</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiMGh0dHBzOi8vd3d3LmV1cmVrYWxlcnQub3JnL25ld3MtcmVsZWFzZXMvMTA1MDI0OdIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiSmh0dHBzOi8vcGh5c2ljc3dvcmxkLmNvbS9hL2hvdy10by1nZXQtdGhlLWVycm9ycy1vdXQtb2YtcXVhbnR1bS1jb21wdXRpbmcv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Elevate Quantum Consortium Wins $127.5 Million in Federal and State Government Funding</t>
+          <t>First Quantum stock jumps on Panama plans for mine audit</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2024-07-02 14:36:30.588372</t>
+          <t>2024-07-02 13:10:37.424740</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMieWh0dHBzOi8vcXVhbnR1bWNvbXB1dGluZ3JlcG9ydC5jb20vZWxldmF0ZS1xdWFudHVtLWNvbnNvcnRpdW0td2lucy0xMjctNS1taWxsaW9uLWluLWZlZGVyYWwtYW5kLXN0YXRlLWdvdmVybm1lbnQtZnVuZGluZy_SAX1odHRwczovL3F1YW50dW1jb21wdXRpbmdyZXBvcnQuY29tL2VsZXZhdGUtcXVhbnR1bS1jb25zb3J0aXVtLXdpbnMtMTI3LTUtbWlsbGlvbi1pbi1mZWRlcmFsLWFuZC1zdGF0ZS1nb3Zlcm5tZW50LWZ1bmRpbmcvYW1wLw?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiYmh0dHBzOi8vd3d3Lm1pbmluZy5jb20vd2ViL2ZpcnN0LXF1YW50dW0tc3RvY2stanVtcHMtb24tcGFuYW1hLXBsYW5zLWZvci1taW5lLWVudmlyb25tZW50YWwtYXVkaXQv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Quantum sensing: quantum technology you've never heard of</t>
+          <t>Panama to review all information to make an informed First Quantum decision</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2024-07-02 14:36:30.588372</t>
+          <t>2024-07-02 13:10:37.426358</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiVmh0dHBzOi8vY29zbW9zbWFnYXppbmUuY29tL3NjaWVuY2UvcGh5c2ljcy9xdWFudHVtLXNlbnNpbmctdGhlLW5ldy1xdWFudHVtLXRlY2hub2xvZ3kv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiZ2h0dHBzOi8vd3d3Lm1pbmluZy5jb20vd2ViL3BhbmFtYS10by1yZXZpZXctYWxsLWluZm9ybWF0aW9uLXRvLW1ha2UtYW4taW5mb3JtZWQtZmlyc3QtcXVhbnR1bS1kZWNpc2lvbi_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>New method developed to control quantum bound states in superconducting device</t>
+          <t>News: Denmark chairs the inaugural meeting of NATO’s Transatlantic Quantum Community, 02-Jul.-2024</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2024-07-02 14:36:30.588372</t>
+          <t>2024-07-02 13:10:37.426358</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiMGh0dHBzOi8vd3d3LmV1cmVrYWxlcnQub3JnL25ld3MtcmVsZWFzZXMvMTA0OTk5NtIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiMmh0dHBzOi8vd3d3Lm5hdG8uaW50L2Nwcy9lbi9uYXRvaHEvbmV3c18yMjcyNDEuaHRt0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>First Quantum Minerals jumps 6% on Panama plans for mine environmental audit</t>
+          <t>Quantum sensing: the quantum technology you’ve never heard of</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2024-07-02 14:36:30.588372</t>
+          <t>2024-07-02 13:10:37.429449</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiggFodHRwczovL3d3dy5tc24uY29tL2VuLWNhL21vbmV5L3RvcHN0b3JpZXMvZmlyc3QtcXVhbnR1bS1taW5lcmFscy1qdW1wcy02LW9uLXBhbmFtYS1wbGFucy1mb3ItbWluZS1lbnZpcm9ubWVudGFsLWF1ZGl0L2FyLUJCMXBpdktp0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiVmh0dHBzOi8vY29zbW9zbWFnYXppbmUuY29tL3NjaWVuY2UvcGh5c2ljcy9xdWFudHVtLXNlbnNpbmctdGhlLW5ldy1xdWFudHVtLXRlY2hub2xvZ3kv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Wasiq Bokhari Joins Pasqal to Revolutionize Quantum Computing with Neutral Atom Technology &amp; Unmatched Team ...</t>
+          <t>Approximate encoding of quantum states using shallow circuits</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2024-07-02 14:36:30.588372</t>
+          <t>2024-07-02 13:10:37.429449</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMioQFodHRwczovL3RoZXF1YW50dW1pbnNpZGVyLmNvbS8yMDI0LzA3LzAyL3dhc2lxLWJva2hhcmktam9pbnMtcGFzcWFsLXRvLXJldm9sdXRpb25pemUtcXVhbnR1bS1jb21wdXRpbmctd2l0aC1uZXV0cmFsLWF0b20tdGVjaG5vbG9neS11bm1hdGNoZWQtdGVhbS1jb2xsYWJvcmF0aW9uL9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiMmh0dHBzOi8vd3d3Lm5hdHVyZS5jb20vYXJ0aWNsZXMvczQxNTM0LTAyNC0wMDg1OC0x0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Best- and Worst-Performing Stocks of Q2 2024</t>
+          <t>Justin Callahan and Trevor Davis win Quantum Snipe National Championship 2024 at Jubilee Yacht Club</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2024-07-02 14:36:30.588372</t>
+          <t>2024-07-02 13:10:37.434564</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiW2h0dHBzOi8vd3d3Lm1vcm5pbmdzdGFyLmNhL2NhL25ld3MvMjUwODc2L2Jlc3QtLWFuZC13b3JzdC1wZXJmb3JtaW5nLXN0b2Nrcy1vZi1xMi0yMDI0LmFzcHjSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiT2h0dHBzOi8vd3d3LnNhaWwtd29ybGQuY29tL25ld3MvMjc2NjAyL1F1YW50dW0tU25pcGUtTmF0aW9uYWwtQ2hhbXBpb25zaGlwLTIwMjTSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Google's claim of quantum supremacy has been completely smashed</t>
+          <t>An alternative way to manipulate quantum states</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2024-07-03 14:36:30.578506</t>
+          <t>2024-07-02 13:10:37.434564</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMibGh0dHBzOi8vd3d3Lm5ld3NjaWVudGlzdC5jb20vYXJ0aWNsZS8yNDM3ODg2LWdvb2dsZXMtY2xhaW0tb2YtcXVhbnR1bS1zdXByZW1hY3ktaGFzLWJlZW4tY29tcGxldGVseS1zbWFzaGVkL9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiMGh0dHBzOi8vd3d3LmV1cmVrYWxlcnQub3JnL25ld3MtcmVsZWFzZXMvMTA1MDI0OdIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Multiple nations enact mysterious export controls on quantum computers</t>
+          <t>Advanced Quantum State Control in Bilayer Graphene for Quantum Computing</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2024-07-03 14:36:30.578506</t>
+          <t>2024-07-02 13:10:37.434564</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMidGh0dHBzOi8vd3d3Lm5ld3NjaWVudGlzdC5jb20vYXJ0aWNsZS8yNDM2MDIzLW11bHRpcGxlLW5hdGlvbnMtZW5hY3QtbXlzdGVyaW91cy1leHBvcnQtY29udHJvbHMtb24tcXVhbnR1bS1jb21wdXRlcnMv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiMWh0dHBzOi8vd3d3LmF6b3F1YW50dW0uY29tL05ld3MuYXNweD9uZXdzSUQ9MTAzNTPSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Quantum eMotion Corp. Unveils Innovative Hardware Wallet Technology for the Cryptocurrency Industry</t>
+          <t>Post-Quantum chosen for NIST’s NCCoE quantum migration project</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2024-07-03 14:36:30.578506</t>
+          <t>2024-07-02 13:10:37.434564</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMijwFodHRwczovL3d3dy5uZXdzZmlsZWNvcnAuY29tL3JlbGVhc2UvMjE1MzA5L1F1YW50dW0tZU1vdGlvbi1Db3JwLi1VbnZlaWxzLUlubm92YXRpdmUtSGFyZHdhcmUtV2FsbGV0LVRlY2hub2xvZ3ktZm9yLXRoZS1DcnlwdG9jdXJyZW5jeS1JbmR1c3RyedIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiXmh0dHBzOi8vaW5kdXN0cmlhbGN5YmVyLmNvL25ld3MvcG9zdC1xdWFudHVtLWNob3Nlbi1mb3ItbmlzdHMtbmNjb2UtcXVhbnR1bS1taWdyYXRpb24tcHJvamVjdC_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Scientists achieve first intercity quantum key distribution with deterministic single-photon source</t>
+          <t>Strain-graded quantum dots with spectrally pure, stable and polarized emission</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2024-07-03 14:36:30.578506</t>
+          <t>2024-07-02 13:10:37.434564</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiUWh0dHBzOi8vcGh5cy5vcmcvbmV3cy8yMDI0LTA3LXNjaWVudGlzdHMtaW50ZXJjaXR5LXF1YW50dW0ta2V5LWRldGVybWluaXN0aWMuaHRtbNIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiMmh0dHBzOi8vd3d3Lm5hdHVyZS5jb20vYXJ0aWNsZXMvczQxNDY3LTAyNC00OTc5MS160gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>First Quantum shares gain after Panama orders copper mine audit</t>
+          <t>First Quantum Minerals Ltd. stock rises Tuesday, outperforms market</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2024-07-03 14:36:30.578506</t>
+          <t>2024-07-02 13:10:37.434564</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMibmh0dHBzOi8vd3d3Lm5vcnRoZXJubWluZXIuY29tL25ld3MvZmlyc3QtcXVhbnR1bS1zaGFyZXMtZ2Fpbi1hZnRlci1wYW5hbWEtb3JkZXJzLWNvcHBlci1taW5lLWF1ZGl0LzEwMDM4NjkxNTIv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiiQFodHRwczovL3d3dy5tYXJrZXR3YXRjaC5jb20vYW1wL2RhdGEtbmV3cy9maXJzdC1xdWFudHVtLW1pbmVyYWxzLWx0ZC1zdG9jay1yaXNlcy10dWVzZGF5LW91dHBlcmZvcm1zLW1hcmtldC1iM2JiMzkwOS1lNmQ3N2Q1YzYzMGQ_dGVzbGE9edIBiQFodHRwczovL3d3dy5tYXJrZXR3YXRjaC5jb20vYW1wL2RhdGEtbmV3cy9maXJzdC1xdWFudHVtLW1pbmVyYWxzLWx0ZC1zdG9jay1yaXNlcy10dWVzZGF5LW91dHBlcmZvcm1zLW1hcmtldC1iM2JiMzkwOS1lNmQ3N2Q1YzYzMGQ_dGVzbGE9eQ?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Bargain vs. Blue-Chip: Pizza Ninjas &amp; Quantum Cats Show Resilience as Ordinals Market Dips</t>
+          <t>Signal, detection and estimation using a hybrid quantum circuit</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2024-07-03 14:36:30.578506</t>
+          <t>2024-07-02 13:10:37.434564</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiWGh0dHBzOi8vbmZ0bm93LmNvbS9jb2xsZWN0aWJsZXMvYmFyZ2Fpbi12cy1ibHVlLWNoaXAtcXVhbnR1bS1jYXRzLXBpenphLW5pbmphcy1vcmRpbmFscy_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiMmh0dHBzOi8vd3d3Lm5hdHVyZS5jb20vYXJ0aWNsZXMvczQxNTk4LTAyNC02NTUyMC000gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Quantum Ecosystem Builders Distriq and Québec Quantique Among New Québec-based Organizations to Join the QIC ...</t>
+          <t>New method developed to control quantum bound states in superconducting device</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2024-07-03 14:36:30.585622</t>
+          <t>2024-07-02 13:10:37.434564</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiqwFodHRwczovL3d3dy5uZXdzd2lyZS5jYS9uZXdzLXJlbGVhc2VzL3F1YW50dW0tZWNvc3lzdGVtLWJ1aWxkZXJzLWRpc3RyaXEtYW5kLXF1ZWJlYy1xdWFudGlxdWUtYW1vbmctbmV3LXF1ZWJlYy1iYXNlZC1vcmdhbml6YXRpb25zLXRvLWpvaW4tdGhlLXFpYy1jb21tdW5pdHktODg5MDg4MDU1Lmh0bWzSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiMGh0dHBzOi8vd3d3LmV1cmVrYWxlcnQub3JnL25ld3MtcmVsZWFzZXMvMTA0OTk5NtIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>New open-source software for quantum cryptography is greater than the sum of its parts</t>
+          <t>Yes, the Most Massive Particle Shows Some ‘Spooky Action At a Distance’</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2024-07-03 14:36:30.585622</t>
+          <t>2024-07-02 13:10:37.439828</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiVWh0dHBzOi8vdGVjaHhwbG9yZS5jb20vbmV3cy8yMDI0LTA3LXNvdXJjZS1zb2Z0d2FyZS1xdWFudHVtLWNyeXB0b2dyYXBoeS1ncmVhdGVyLmh0bWzSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiUmh0dHBzOi8vd3d3LnBvcHVsYXJtZWNoYW5pY3MuY29tL3NjaWVuY2UvYTYxNDQ2NTA2L3RvcC1xdWFyay1xdWFudHVtLWVudGFuZ2xlbWVudC_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>DistriQ and Québec Quantique join the QIC community</t>
+          <t>Post-Quantum Selected for NIST’s National Cybersecurity Center of Excellence Quantum Migration Project</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2024-07-03 14:36:30.585622</t>
+          <t>2024-07-02 13:10:37.439828</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMib2h0dHBzOi8vd3d3LmNhbmFkaWFubWFudWZhY3R1cmluZy5jb20vbWFudWZhY3R1cmluZy9kaXN0cmlxLWFuZC1xdWViZWMtcXVhbnRpcXVlLWpvaW4tdGhlLXFpYy1jb21tdW5pdHktMzAwODYzL9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMipwFodHRwczovL3d3dy5idXNpbmVzc3dpcmUuY29tL25ld3MvaG9tZS8yMDI0MDcwMjM4MTk4NC9lbi9Qb3N0LVF1YW50dW0tU2VsZWN0ZWQtZm9yLU5JU1QlRTIlODAlOTlzLU5hdGlvbmFsLUN5YmVyc2VjdXJpdHktQ2VudGVyLW9mLUV4Y2VsbGVuY2UtUXVhbnR1bS1NaWdyYXRpb24tUHJvamVjdNIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>The Future of Quantum Computing with Neutral-Atom Arrays</t>
+          <t>First Quantum stock jumps on Panama plans for mine audit - MINING.COM</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2024-07-03 14:36:30.585622</t>
+          <t>2024-07-02 13:11:25.836023</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiYmh0dHBzOi8vdGhlcXVhbnR1bWluc2lkZXIuY29tLzIwMjQvMDcvMDMvdGhlLWZ1dHVyZS1vZi1xdWFudHVtLWNvbXB1dGluZy13aXRoLW5ldXRyYWwtYXRvbS1hcnJheXMv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiYmh0dHBzOi8vd3d3Lm1pbmluZy5jb20vd2ViL2ZpcnN0LXF1YW50dW0tc3RvY2stanVtcHMtb24tcGFuYW1hLXBsYW5zLWZvci1taW5lLWVudmlyb25tZW50YWwtYXVkaXQv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Quantum Wi-Fi Future: Quantum Tech Could Power Super-Secure Wireless Communication</t>
+          <t>First Quantum Minerals jumps 5% on Panama plans for mine environmental audit</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2024-07-03 14:36:30.585622</t>
+          <t>2024-07-02 13:11:25.836023</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMie2h0dHBzOi8vdGhlcXVhbnR1bWluc2lkZXIuY29tLzIwMjQvMDcvMDMvcXVhbnR1bS13aS1maS1mdXR1cmUtcXVhbnR1bS10ZWNoLWNvdWxkLXBvd2VyLXN1cGVyLXNlY3VyZS13aXJlbGVzcy1jb21tdW5pY2F0aW9uL9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMifGh0dHBzOi8vd3d3LnJldXRlcnMuY29tL21hcmtldHMvY29tbW9kaXRpZXMvZmlyc3QtcXVhbnR1bS1taW5lcmFscy1qdW1wcy02LXBhbmFtYS1wbGFucy1taW5lLWVudmlyb25tZW50YWwtYXVkaXQtMjAyNC0wNy0wMi_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>First Quantum Minerals Ltd. stock rises Wednesday, outperforms market</t>
+          <t>Unravelling quantum dynamics using flow equations</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2024-07-03 14:36:30.588372</t>
+          <t>2024-07-02 13:11:25.836023</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiiwFodHRwczovL3d3dy5tYXJrZXR3YXRjaC5jb20vYW1wL2RhdGEtbmV3cy9maXJzdC1xdWFudHVtLW1pbmVyYWxzLWx0ZC1zdG9jay1yaXNlcy13ZWRuZXNkYXktb3V0cGVyZm9ybXMtbWFya2V0LWM0YmMwOTlmLTQwOTFmOGQ0ZjRkZj90ZXNsYT150gGLAWh0dHBzOi8vd3d3Lm1hcmtldHdhdGNoLmNvbS9hbXAvZGF0YS1uZXdzL2ZpcnN0LXF1YW50dW0tbWluZXJhbHMtbHRkLXN0b2NrLXJpc2VzLXdlZG5lc2RheS1vdXRwZXJmb3Jtcy1tYXJrZXQtYzRiYzA5OWYtNDA5MWY4ZDRmNGRmP3Rlc2xhPXk?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiMmh0dHBzOi8vd3d3Lm5hdHVyZS5jb20vYXJ0aWNsZXMvczQxNTY3LTAyNC0wMjU0OS0y0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Scientists Measure Earth's Rotation With Quantum Precision</t>
+          <t>First Quantum shares jump 6% on plans for environmental audit of Cobre Panama mine</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2024-07-03 14:36:30.588372</t>
+          <t>2024-07-02 13:11:25.836023</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiZ2h0dHBzOi8vd3d3LnBvcHVsYXJtZWNoYW5pY3MuY29tL3NjaWVuY2UvYTYxNDczMTMyL3NjaWVudGlzdHMtbWVhc3VyZS1lYXJ0aC1yb3RhdGlvbi1xdWFudHVtLXByZWNpc2lvbi_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMid2h0dHBzOi8vd3d3LnRoZWdsb2JlYW5kbWFpbC5jb20vYnVzaW5lc3MvYXJ0aWNsZS1maXJzdC1xdWFudHVtLXNoYXJlcy1qdW1wLTYtb24tcGxhbnMtZm9yLWVudmlyb25tZW50YWwtYXVkaXQtb2YtY29icmUv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Genetic algorithm enables precise design of phononic crystals</t>
+          <t>How to get the errors out of quantum computing – Physics World</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2024-07-03 14:36:30.588372</t>
+          <t>2024-07-02 13:11:25.836023</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiTWh0dHBzOi8vcGh5cy5vcmcvbmV3cy8yMDI0LTA3LWdlbmV0aWMtYWxnb3JpdGhtLWVuYWJsZXMtcHJlY2lzZS1waG9ub25pYy5odG1s0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiSmh0dHBzOi8vcGh5c2ljc3dvcmxkLmNvbS9hL2hvdy10by1nZXQtdGhlLWVycm9ycy1vdXQtb2YtcXVhbnR1bS1jb21wdXRpbmcv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Register to host an event at Qiskit Fall Fest 2024!</t>
+          <t>Scientists crack new method for high-capacity, secure quantum communication</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2024-07-03 14:36:30.588372</t>
+          <t>2024-07-02 13:11:25.842145</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiNmh0dHBzOi8vd3d3LmlibS5jb20vcXVhbnR1bS9ibG9nL3Fpc2tpdC1mYWxsLWZlc3QtMjAyNNIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiSmh0dHBzOi8vcGh5cy5vcmcvbmV3cy8yMDI0LTA3LXNjaWVudGlzdHMtbWV0aG9kLWhpZ2gtY2FwYWNpdHktcXVhbnR1bS5odG1s0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Kvantify secures €10M Seed funding for quantum computing powered drug discovery</t>
+          <t>Panama to review all information to make an informed First Quantum decision - MINING.COM</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2024-07-03 14:36:30.588372</t>
+          <t>2024-07-02 13:11:25.842145</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiamh0dHBzOi8vdGVjaC5ldS8yMDI0LzA3LzAzL2t2YW50aWZ5LXNlY3VyZXMtMTBtLXNlZWQtZnVuZGluZy1mb3ItcXVhbnR1bS1jb21wdXRpbmctcG93ZXJlZC1kcnVnLWRpc2NvdmVyeS_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiZ2h0dHBzOi8vd3d3Lm1pbmluZy5jb20vd2ViL3BhbmFtYS10by1yZXZpZXctYWxsLWluZm9ybWF0aW9uLXRvLW1ha2UtYW4taW5mb3JtZWQtZmlyc3QtcXVhbnR1bS1kZWNpc2lvbi_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Copenhagen-based Kvantify secures €10 million to unlock quantum computing for the life science sector</t>
+          <t>Opinion: As artificial intelligence rises, data-centre costs spiral. Quantum is the solution</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2024-07-03 14:36:30.588372</t>
+          <t>2024-07-02 13:11:25.842145</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiigFodHRwczovL3d3dy5ldS1zdGFydHVwcy5jb20vMjAyNC8wNy9jb3BlbmhhZ2VuLWJhc2VkLWt2YW50aWZ5LXNlY3VyZXMtZTEwLW1pbGxpb24tdG8tdW5sb2NrLXF1YW50dW0tY29tcHV0aW5nLWZvci10aGUtbGlmZS1zY2llbmNlLXNlY3Rvci_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMigQFodHRwczovL3d3dy50aGVnbG9iZWFuZG1haWwuY29tL2J1c2luZXNzL2NvbW1lbnRhcnkvYXJ0aWNsZS1hcy1hcnRpZmljaWFsLWludGVsbGlnZW5jZS1yaXNlcy1kYXRhLWNlbnRyZS1jb3N0cy1zcGlyYWwtcXVhbnR1bS1pcy_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Fujitsu and ANU to bring world-class quantum computing to Australia</t>
+          <t>Novel method enhances size-controlled production of luminescent quantum dots</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2024-07-03 14:36:30.588372</t>
+          <t>2024-07-02 13:11:25.842145</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiVGh0dHBzOi8vd3d3LmZ1aml0c3UuY29tL2dsb2JhbC9hYm91dC9yZXNvdXJjZXMvbmV3cy9wcmVzcy1yZWxlYXNlcy8yMDI0LzA3MDQtMDEuaHRtbNIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiTWh0dHBzOi8vcGh5cy5vcmcvbmV3cy8yMDI0LTA3LW1ldGhvZC1zaXplLXByb2R1Y3Rpb24tbHVtaW5lc2NlbnQtcXVhbnR1bS5odG1s0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Colorado Rep. Yadira Caraveo visits CU Boulder to talk quantum</t>
+          <t>Quantum sensors: How does the flow profile affect flow measurements?</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2024-07-03 14:36:30.588372</t>
+          <t>2024-07-02 13:11:25.842145</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiZGh0dHBzOi8vd3d3LmNvbG9yYWRvLmVkdS90b2RheS8yMDI0LzA3LzAzL2NvbG9yYWRvLXJlcC15YWRpcmEtY2FyYXZlby12aXNpdHMtY3UtYm91bGRlci10YWxrLXF1YW50dW3SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiQWh0dHBzOi8vcGh5cy5vcmcvbmV3cy8yMDI0LTA3LXF1YW50dW0tc2Vuc29ycy1wcm9maWxlLWFmZmVjdC5odG1s0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Colorado scores win in race to become global hub for quantum technology</t>
+          <t>Elevate Quantum Comments on Quantum Innovation Hub Funding Boost</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2024-07-03 14:36:30.588372</t>
+          <t>2024-07-02 13:11:25.852337</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiZGh0dHBzOi8vd3d3LmNic25ld3MuY29tL2NvbG9yYWRvL25ld3MvcXVhbnR1bS10ZWNobm9sb2d5LWNvbG9yYWRvLXNjb3Jlcy13aW4tcmFjZS1iZWNvbWUtZ2xvYmFsLWh1Yi_SAWhodHRwczovL3d3dy5jYnNuZXdzLmNvbS9hbXAvY29sb3JhZG8vbmV3cy9xdWFudHVtLXRlY2hub2xvZ3ktY29sb3JhZG8tc2NvcmVzLXdpbi1yYWNlLWJlY29tZS1nbG9iYWwtaHViLw?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiamh0dHBzOi8vdGhlcXVhbnR1bWluc2lkZXIuY29tLzIwMjQvMDcvMDIvZWxldmF0ZS1xdWFudHVtLWNvbW1lbnRzLW9uLXF1YW50dW0taW5ub3ZhdGlvbi1odWItZnVuZGluZy1ib29zdC_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Manipulating the quantum dance of spinning electrons</t>
+          <t>Rymax One to make Hamburg leading quantum computing centre</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2024-07-03 14:36:30.588372</t>
+          <t>2024-07-02 13:11:25.868319</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiTGh0dHBzOi8vd3d3LmVhcnRoLmNvbS9uZXdzL21hbmlwdWxhdGluZy1xdWFudHVtLWRhbmNlLW9mLXNwaW5uaW5nLWVsZWN0cm9ucy_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiX2h0dHBzOi8vaGFtYnVyZy1idXNpbmVzcy5jb20vZW4vbmV3cy9yeW1heC1vbmUtdG8tbWFrZS1oYW1idXJnLWxlYWRpbmctcXVhbnR1bS1jb21wdXRpbmctY2VudHJl0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Davidson Unveils Quantum Leap in Defense Technology at D-Wave 'Qubits' Conference</t>
+          <t>Denmark chairs the inaugural meeting of NATO's Transatlantic Quantum Community</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2024-07-03 14:36:30.588372</t>
+          <t>2024-07-02 13:11:25.872125</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMieWh0dHBzOi8vdGhlcXVhbnR1bWluc2lkZXIuY29tLzIwMjQvMDcvMDMvZGF2aWRzb24tdW52ZWlscy1xdWFudHVtLWxlYXAtaW4tZGVmZW5zZS10ZWNobm9sb2d5LWF0LWQtd2F2ZS1xdWJpdHMtY29uZmVyZW5jZS_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiRGh0dHBzOi8vd3d3Lm5hdG8uaW50L2Nwcy91ay9uYXRvaHEvbmV3c18yMjcyNDEuaHRtP3NlbGVjdGVkTG9jYWxlPWVu0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Generative AI: Preparing For The Quantum Revolution In Life Sciences</t>
+          <t>Tiny chip could enable super-secure quantum Wi-Fi</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2024-07-03 14:36:30.588372</t>
+          <t>2024-07-02 13:11:25.872125</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMijAFodHRwczovL3d3dy5jb250cmFjdHBoYXJtYS5jb20vY29udGVudHMvdmlld19leHBlcnRzLW9waW5pb24vMjAyNC0wMy0wNy9nZW5lcmF0aXZlLWFpLXByZXBhcmluZy1mb3ItdGhlLXF1YW50dW0tcmV2b2x1dGlvbi1pbi1saWZlLXNjaWVuY2VzL9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiX2h0dHBzOi8vd3d3Lm5ld3NjaWVudGlzdC5jb20vYXJ0aWNsZS8yNDM3OTc1LXRpbnktY2hpcC1jb3VsZC1lbmFibGUtc3VwZXItc2VjdXJlLXF1YW50dW0td2ktZmkv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Xanadu Forges Strategic Alliances with NanoQT and QsSunaSys to Propel Quantum Computing Advancements in Japan</t>
+          <t>Tiny Quantum Ghosts Might Be Creating Brand-New Elements</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2024-07-03 14:36:30.588372</t>
+          <t>2024-07-02 13:11:25.883980</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMikQFodHRwczovL3F1YW50dW1jb21wdXRpbmdyZXBvcnQuY29tL3hhbmFkdS1mb3JnZXMtc3RyYXRlZ2ljLWFsbGlhbmNlcy13aXRoLW5hbm9xdC1hbmQtcXNzdW5hc3lzLXRvLXByb3BlbC1xdWFudHVtLWNvbXB1dGluZy1hZHZhbmNlbWVudHMtaW4tamFwYW4v0gGVAWh0dHBzOi8vcXVhbnR1bWNvbXB1dGluZ3JlcG9ydC5jb20veGFuYWR1LWZvcmdlcy1zdHJhdGVnaWMtYWxsaWFuY2VzLXdpdGgtbmFub3F0LWFuZC1xc3N1bmFzeXMtdG8tcHJvcGVsLXF1YW50dW0tY29tcHV0aW5nLWFkdmFuY2VtZW50cy1pbi1qYXBhbi9hbXAv?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiW2h0dHBzOi8vd3d3LnBvcHVsYXJtZWNoYW5pY3MuY29tL3NwYWNlL2RlZXAtc3BhY2UvYTYxNDMxMjE3L2ktcHJvY2Vzcy1xdWFudHVtLWVudGFuZ2xlbWVudC_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>What is a quantum dot?</t>
+          <t>$504 Million Tech Hub Funding Includes $41 Million For Elevate Quantum</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2024-07-04 14:33:48.779059</t>
+          <t>2024-07-02 13:11:25.883980</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMikgFodHRwczovL3d3dy5tc24uY29tL2VuLXVzL25ld3MvdGVjaG5vbG9neS93aGF0LWlzLWEtcXVhbnR1bS1kb3QvYXItQUExaE5rTkU_aXRlbT1mbGlnaHRzcHJnLXRpcHN1YnNjLXYxYT9zZWFzb244OWMyNmQxY2UxOTY0OWFiOGM2YjFlYTY5MDRkZTQxOXRoddIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMibmh0dHBzOi8vdGhlcXVhbnR1bWluc2lkZXIuY29tLzIwMjQvMDcvMDIvNTA0LW1pbGxpb24tdGVjaC1odWItZnVuZGluZy1pbmNsdWRlcy00MS1taWxsaW9uLWZvci1lbGV2YXRlLXF1YW50dW0v0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Is quantum computing the next technological frontier?</t>
+          <t>Approximate encoding of quantum states using shallow circuits | npj Quantum Information</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2024-07-04 14:33:48.779059</t>
+          <t>2024-07-02 13:11:25.883980</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMimQFodHRwczovL3d3dy5tc24uY29tL2VuLXVzL25ld3MvdGVjaG5vbG9neS9pcy1xdWFudHVtLWNvbXB1dGluZy10aGUtbmV4dC10ZWNobm9sb2dpY2FsLWZyb250aWVyL2FyLUJCMW5sRFBtP2l0ZW09ZmxpZ2h0cyUzQXByZy10aXBzdWJzYy12MWEmb2NpZD13aW5kaXJlY3TSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiMmh0dHBzOi8vd3d3Lm5hdHVyZS5jb20vYXJ0aWNsZXMvczQxNTM0LTAyNC0wMDg1OC0x0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Colorado Leaders Embrace the 'Quantum Revolution'</t>
+          <t>IonQ Plots Path to Commercial (Quantum) Advantage</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2024-07-04 14:33:48.779059</t>
+          <t>2024-07-02 13:11:25.883980</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiV2h0dHBzOi8vcGFnb3NhZGFpbHlwb3N0LmNvbS8yMDI0LzA3LzA0L2NvbG9yYWRvLWxlYWRlcnMtZW1icmFjZS10aGUtcXVhbnR1bS1yZXZvbHV0aW9uL9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiU2h0dHBzOi8vd3d3LmhwY3dpcmUuY29tLzIwMjQvMDcvMDIvaW9ucS1wbG90cy1wYXRoLXRvLWNvbW1lcmNpYWwtcXVhbnR1bS1hZHZhbnRhZ2Uv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Post-Quantum Cryptography: Migrating to Quantum Resistant Cryptography - Security News</t>
+          <t>CU Boulder, Elevate Quantum partners ready for $127M regional quantum boost</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2024-07-04 14:33:48.779059</t>
+          <t>2024-07-02 13:11:25.897411</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiiwFodHRwczovL3d3dy50cmVuZG1pY3JvLmNvbS92aW5mby9hdS9zZWN1cml0eS9uZXdzL3NlY3VyaXR5LXRlY2hub2xvZ3kvcG9zdC1xdWFudHVtLWNyeXB0b2dyYXBoeS1taWdyYXRpbmctdG8tcXVhbnR1bS1yZXNpc3RhbnQtY3J5cHRvZ3JhcGh50gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMib2h0dHBzOi8vd3d3LmNvbG9yYWRvLmVkdS90b2RheS8yMDI0LzA3LzAyL2N1LWJvdWxkZXItZWxldmF0ZS1xdWFudHVtLXBhcnRuZXJzLXJlYWR5LTEyN20tcmVnaW9uYWwtcXVhbnR1bS1ib29zdNIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>3 Quantum Computing Stocks With Strong Buy Ratings: Summer 2024</t>
+          <t>Quantum sensing: quantum technology you've never heard of</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2024-07-04 14:33:48.779059</t>
+          <t>2024-07-02 13:11:25.897411</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiYWh0dHBzOi8vaW52ZXN0b3JwbGFjZS5jb20vMjAyNC8wNy8zLXF1YW50dW0tY29tcHV0aW5nLXN0b2Nrcy13aXRoLXN0cm9uZy1idXktcmF0aW5ncy1zdW1tZXItMjAyNC_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiVmh0dHBzOi8vY29zbW9zbWFnYXppbmUuY29tL3NjaWVuY2UvcGh5c2ljcy9xdWFudHVtLXNlbnNpbmctdGhlLW5ldy1xdWFudHVtLXRlY2hub2xvZ3kv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>UK builds world's coldest quantum detectors to unveil dark matter mysteries</t>
+          <t>Cancellation Carnage! Which Recently Cancelled Show Will You Miss the Most? Vote Now in Our Poll!</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2024-07-04 14:33:48.779059</t>
+          <t>2024-07-02 14:51:21.932815</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMigQFodHRwczovL3d3dy5tc24uY29tL2VuLXVzL25ld3MvdGVjaG5vbG9neS91ay1idWlsZHMtd29ybGQtcy1jb2xkZXN0LXF1YW50dW0tZGV0ZWN0b3JzLXRvLXVudmVpbC1kYXJrLW1hdHRlci1teXN0ZXJpZXMvYXItQkIxcG5PWFPSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiVWh0dHBzOi8vY2EubmV3cy55YWhvby5jb20vY2FuY2VsbGF0aW9uLWNhcm5hZ2UtcmVjZW50bHktY2FuY2VsbGVkLXNob3ctMTMwMDAwOTI5Lmh0bWzSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>How Quantum Generative Adversarial Networks are Beneficial for Generative Chemistry</t>
+          <t>D-Wave (NYSE: QBTS) Bags ‘GameChanger’ Nomination, Could Win Tech Impact Award</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2024-07-04 14:33:48.779059</t>
+          <t>2024-07-02 14:51:21.935433</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMimAFodHRwczovL3d3dy5tc24uY29tL2VuLXVzL2hlYWx0aC9vdGhlci9ob3ctcXVhbnR1bS1nZW5lcmF0aXZlLWFkdmVyc2FyaWFsLW5ldHdvcmtzLWFyZS1iZW5lZmljaWFsLWZvci1nZW5lcmF0aXZlLWNoZW1pc3RyeS9hci1CQjFocUtSbz9vY2lkPUJpbmdOZXdzVmVycNIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMioAFodHRwczovL3d3dy50aGVnbG9iZWFuZG1haWwuY29tL2ludmVzdGluZy9tYXJrZXRzL3N0b2Nrcy9RQlRTLU4vcHJlc3NyZWxlYXNlcy8yNzE2OTQ3MC9kLXdhdmUtbnlzZS1xYnRzLWJhZ3MtZ2FtZWNoYW5nZXItbm9taW5hdGlvbi1jb3VsZC13aW4tdGVjaC1pbXBhY3QtYXdhcmQv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Scientists show that there is indeed an 'entropy' of quantum entanglement</t>
+          <t>Quantum Snipe National Championship 2024 • Live Sail Die</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2024-07-04 14:33:48.779059</t>
+          <t>2024-07-02 14:51:21.940741</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMisAFodHRwczovL3d3dy5tc24uY29tL2VuLXVzL25ld3MvdGVjaG5vbG9neS9zY2llbnRpc3RzLXNob3ctdGhhdC10aGVyZS1pcy1pbmRlZWQtYW4tZW50cm9weS1vZi1xdWFudHVtLWVudGFuZ2xlbWVudC9hci1BQTFuWjFyaz9pdGVtPWZsaWdodHNwcmctdGlwc3Vic2MtdjFhP3V0bV9zb3VyY2U9bWlsZWkubmV3c9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiRWh0dHBzOi8vd3d3LmxpdmVzYWlsZGllLmNvbS9xdWFudHVtLXNuaXBlLW5hdGlvbmFsLWNoYW1waW9uc2hpcC0yMDI0L9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>World's coldest quantum detectors to search for most sensitive dark matter</t>
+          <t>Wasiq Bokhari Joins Pasqal to Revolutionize Quantum Computing with Neutral Atom Technology &amp; Unmatched Team ...</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2024-07-04 14:33:48.779059</t>
+          <t>2024-07-02 15:37:32.419468</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiZ2h0dHBzOi8vd3d3LnRlY2hleHBsb3Jpc3QuY29tL3dvcmxkcy1jb2xkZXN0LXF1YW50dW0tZGV0ZWN0b3JzLXNlYXJjaC1tb3N0LXNlbnNpdGl2ZS1kYXJrLW1hdHRlci84NTg2MS_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMioQFodHRwczovL3RoZXF1YW50dW1pbnNpZGVyLmNvbS8yMDI0LzA3LzAyL3dhc2lxLWJva2hhcmktam9pbnMtcGFzcWFsLXRvLXJldm9sdXRpb25pemUtcXVhbnR1bS1jb21wdXRpbmctd2l0aC1uZXV0cmFsLWF0b20tdGVjaG5vbG9neS11bm1hdGNoZWQtdGVhbS1jb2xsYWJvcmF0aW9uL9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>UK universities developing quantum technologies to solve dark matter mystery</t>
+          <t>Quantum Computing To Supercharge The Capabilities Of ChatGPT</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2024-07-04 14:33:48.779059</t>
+          <t>2024-07-02 15:39:41.612688</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMib2h0dHBzOi8vd3d3Lmlubm92YXRpb25uZXdzbmV0d29yay5jb20vdWstdW5pdmVyc2l0aWVzLWRldmVsb3AtcXVhbnR1bS10ZWNobm9sb2dpZXMtdG8tZGV0ZWN0LWRhcmstbWF0dGVyLzQ4OTQ2L9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiZmh0dHBzOi8vdGhlcXVhbnR1bWluc2lkZXIuY29tLzIwMjQvMDcvMDIvcXVhbnR1bS1jb21wdXRpbmctdG8tc3VwZXJjaGFyZ2UtdGhlLWNhcGFiaWxpdGllcy1vZi1jaGF0Z3B0L9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Quantum entanglement measures Earth's spin with never-before-seen accuracy</t>
+          <t>Best- and Worst-Performing Stocks of Q2 2024</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2024-07-04 14:33:48.779059</t>
+          <t>2024-07-02 15:39:41.642016</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMixwFodHRwczovL3d3dy5tc24uY29tL2VuLXVzL25ld3MvdGVjaG5vbG9neS9xdWFudHVtLWVudGFuZ2xlbWVudC1tZWFzdXJlcy1lYXJ0aC1zLXNwaW4td2l0aC1uZXZlci1iZWZvcmUtc2Vlbi1hY2N1cmFjeS9hci1CQjFvZjZWZj9pdGVtPWZsaWdodHNwcmctdGlwc3Vic2MtdjFhP3NlYXNvbjg5YzI2ZDFjZTE5NjQ5YWI4YzZiMWVhNjkwNGRlNDE5VGh10gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiW2h0dHBzOi8vd3d3Lm1vcm5pbmdzdGFyLmNhL2NhL25ld3MvMjUwODc2L2Jlc3QtLWFuZC13b3JzdC1wZXJmb3JtaW5nLXN0b2Nrcy1vZi1xMi0yMDI0LmFzcHjSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Post- Quantum Cryptography Industry Research Study |AMD evolutionQ, ARM, Blackberry OnBoard Security</t>
+          <t>Scientists Measure Earth's Rotation With Quantum Precision</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2024-07-04 14:33:48.779059</t>
+          <t>2024-07-03 12:46:44.567978</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMikAFodHRwczovL3d3dy5wb3J0c21vdXRoLWRhaWx5dGltZXMuY29tL2NhbGVuZGFyL3Bvc3QtcXVhbnR1bS1jcnlwdG9ncmFwaHktaW5kdXN0cnktcmVzZWFyY2gtc3R1ZHktYW1kLWV2b2x1dGlvbnEtYXJtLWJsYWNrYmVycnktb25ib2FyZC1zZWN1cml0eS_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiZ2h0dHBzOi8vd3d3LnBvcHVsYXJtZWNoYW5pY3MuY29tL3NjaWVuY2UvYTYxNDczMTMyL3NjaWVudGlzdHMtbWVhc3VyZS1lYXJ0aC1yb3RhdGlvbi1xdWFudHVtLXByZWNpc2lvbi_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>TII to convene the world’s leading quantum researchers at the TII Quantum Technology Symposium</t>
+          <t>'Artificial Atoms' Power First Intercity Quantum Communication Link</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2024-07-04 14:33:48.784190</t>
+          <t>2024-07-03 12:46:44.569099</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMipAFodHRwczovL3d3dy56YXd5YS5jb20vZW4vcHJlc3MtcmVsZWFzZS9ldmVudHMtYW5kLWNvbmZlcmVuY2VzL3RpaS10by1jb252ZW5lLXRoZS13b3JsZHMtbGVhZGluZy1xdWFudHVtLXJlc2VhcmNoZXJzLWF0LXRoZS10aWktcXVhbnR1bS10ZWNobm9sb2d5LXN5bXBvc2l1bS1pdmg3bWp1ddIBqgFodHRwczovL3d3dy56YXd5YS5jb20vZW4vcHJlc3MtcmVsZWFzZS9ldmVudHMtYW5kLWNvbmZlcmVuY2VzL3RpaS10by1jb252ZW5lLXRoZS13b3JsZHMtbGVhZGluZy1xdWFudHVtLXJlc2VhcmNoZXJzLWF0LXRoZS10aWktcXVhbnR1bS10ZWNobm9sb2d5LXN5bXBvc2l1bS1pdmg3bWp1dT9hbXA9MQ?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiYWh0dHBzOi8vc2NpZW5jZWJsb2cuY29tLzU0NTc0NS9hcnRpZmljaWFsLWF0b21zLXBvd2VyLWZpcnN0LWludGVyY2l0eS1xdWFudHVtLWNvbW11bmljYXRpb24tbGluay_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Biological Stimulation Feedback Instrument for Pelvic Floor Treatment Market Analysis, Research Study With Thought ...</t>
+          <t>Quantum Ecosystem Builders Distriq and Québec Quantique Among New Québec-based Organizations to Join the QIC Community</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2024-07-04 14:33:48.784190</t>
+          <t>2024-07-03 13:10:37.426358</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMizQFodHRwczovL3d3dy50aGVpbmRpYW5tb3ZpZWNoYW5uZWwuY29tL21lZGlhL2Jpb2xvZ2ljYWwtc3RpbXVsYXRpb24tZmVlZGJhY2staW5zdHJ1bWVudC1mb3ItcGVsdmljLWZsb29yLXRyZWF0bWVudC1tYXJrZXQtYW5hbHlzaXMtcmVzZWFyY2gtc3R1ZHktd2l0aC10aG91Z2h0LXRlY2hub2xvZ3ktbGFib3JpZS1xdWFudHVtLXdvcmxkLXZpc2lvbi8yNjc1Mzgv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiqwFodHRwczovL3d3dy5uZXdzd2lyZS5jYS9uZXdzLXJlbGVhc2VzL3F1YW50dW0tZWNvc3lzdGVtLWJ1aWxkZXJzLWRpc3RyaXEtYW5kLXF1ZWJlYy1xdWFudGlxdWUtYW1vbmctbmV3LXF1ZWJlYy1iYXNlZC1vcmdhbml6YXRpb25zLXRvLWpvaW4tdGhlLXFpYy1jb21tdW5pdHktODg5MDg4MDU1Lmh0bWzSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Revolutionary Quantum Computing Breakthrough Promises to Redefine Tech Industry – XDigitalNews</t>
+          <t>First Quantum Minerals Ltd (FM-T) Quote - Press Release</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2024-07-04 14:33:48.784190</t>
+          <t>2024-07-03 13:10:37.426358</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiaWh0dHBzOi8veGRpZ2l0YWxuZXdzLmNvbS9yZXZvbHV0aW9uYXJ5LXF1YW50dW0tY29tcHV0aW5nLWJyZWFrdGhyb3VnaC1wcm9taXNlcy10by1yZWRlZmluZS10ZWNoLWluZHVzdHJ5L9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiiwFodHRwczovL3d3dy50aGVnbG9iZWFuZG1haWwuY29tL2ludmVzdGluZy9tYXJrZXRzL3N0b2Nrcy9GTS1UL3ByZXNzcmVsZWFzZXMvMjcyMDQwMTEvZmlyc3QtcXVhbnR1bS1taW5lcmFscy1zdG9jay1hbmFseXNpcy1vbi1jb2JyZS11cGRhdGUv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>quantum roulette: O site de apostas que vai te conquistar!</t>
+          <t>Davidson Unveils Quantum Leap in Defense Technology at D-Wave ‘Qubits’ Conference</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2024-07-04 14:33:48.784190</t>
+          <t>2024-07-03 13:10:37.429449</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiZ2h0dHBzOi8vZWplZi50am1nLmp1cy5ici8_ZG93bmxvYWQ9MjAyNDA3MDVyZXN1bHRhZG8lMjBkbyUyMGpvZ28lMjBkbyUyMGJpY2hvJTIwcGFyYSUyMHRvZGElMjBiYWhpYS5odG3SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMieWh0dHBzOi8vdGhlcXVhbnR1bWluc2lkZXIuY29tLzIwMjQvMDcvMDMvZGF2aWRzb24tdW52ZWlscy1xdWFudHVtLWxlYXAtaW4tZGVmZW5zZS10ZWNobm9sb2d5LWF0LWQtd2F2ZS1xdWJpdHMtY29uZmVyZW5jZS_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Quantum Cryptography and Encryption Market Emerging Trends | participants KETS Quantum Security, PQShield ...</t>
+          <t>Kvantify secures €10M Seed funding for quantum computing powered drug discovery</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2024-07-04 14:33:48.784190</t>
+          <t>2024-07-03 13:10:37.434564</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMikgFodHRwczovL2Vjb25vbWljYS5tYS93b3JsZHdpZGUvcXVhbnR1bS1jcnlwdG9ncmFwaHktYW5kLWVuY3J5cHRpb24tbWFya2V0LWVtZXJnaW5nLXRyZW5kcy1wYXJ0aWNpcGFudHMta2V0cy1xdWFudHVtLXNlY3VyaXR5LXBxc2hpZWxkLXFyeXB0LzQ0ODQxL9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiamh0dHBzOi8vdGVjaC5ldS8yMDI0LzA3LzAzL2t2YW50aWZ5LXNlY3VyZXMtMTBtLXNlZWQtZnVuZGluZy1mb3ItcXVhbnR1bS1jb21wdXRpbmctcG93ZXJlZC1kcnVnLWRpc2NvdmVyeS_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Quantum Block Share Chat. Chat About QBT Shares - Stock Quote, Charts, Trade History, Share Chat, Financial Terms ...</t>
+          <t>Manipulating the quantum dance of spinning electrons</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2024-07-04 14:33:48.784190</t>
+          <t>2024-07-03 13:10:37.434564</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMidGh0dHBzOi8vd3d3LmxzZS5jby51ay9TaGFyZUNoYXQuaHRtbD9TaGFyZVRpY2tlcj1RQlQmc2hhcmU9UXVhbnR1bS1CbG9jayZ0aHJlYWQ9OTcxODQ2MTAtOTZCNC00NTZDLUJBMEUtMzhCNTEyQzhCRkQ50gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiTGh0dHBzOi8vd3d3LmVhcnRoLmNvbS9uZXdzL21hbmlwdWxhdGluZy1xdWFudHVtLWRhbmNlLW9mLXNwaW5uaW5nLWVsZWN0cm9ucy_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Scientists have created a five-lane quantum superhighway for electrons</t>
+          <t>Google's claim of quantum supremacy has been completely smashed</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2024-07-04 14:33:48.784190</t>
+          <t>2024-07-03 13:17:59.592145</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiZGh0dHBzOi8vbmV3c3lvdS5pbmZvL2VuLzIwMjQvMDcvdmNoZW5pLXN0dm9yaWxpLXB5YXRpc211Z292dS1rdmFudG92dS1zdXBlcm1hZ2lzdHJhbC1kbHlhLWVsZWt0cm9uaXbSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMibGh0dHBzOi8vd3d3Lm5ld3NjaWVudGlzdC5jb20vYXJ0aWNsZS8yNDM3ODg2LWdvb2dsZXMtY2xhaW0tb2YtcXVhbnR1bS1zdXByZW1hY3ktaGFzLWJlZW4tY29tcGxldGVseS1zbWFzaGVkL9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Portable Biological Feedback Instrument for Pelvic Floor Treatment Market See Huge Growth for New Normal | Thought ...</t>
+          <t>First Quantum Minerals: Stock Analysis on Cobre Update</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2024-07-04 14:33:48.784190</t>
+          <t>2024-07-03 13:17:59.597156</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMizAFodHRwczovL3d3dy50aGVpbmRpYW5tb3ZpZWNoYW5uZWwuY29tL21lZGlhL3BvcnRhYmxlLWJpb2xvZ2ljYWwtZmVlZGJhY2staW5zdHJ1bWVudC1mb3ItcGVsdmljLWZsb29yLXRyZWF0bWVudC1tYXJrZXQtc2VlLWh1Z2UtZ3Jvd3RoLWZvci1uZXctbm9ybWFsLXRob3VnaHQtdGVjaG5vbG9neS1sYWJvcmllLXF1YW50dW0td29ybGQtdmlzaW9uLzI2NzUzOS_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiiwFodHRwczovL3d3dy50aGVnbG9iZWFuZG1haWwuY29tL2ludmVzdGluZy9tYXJrZXRzL3N0b2Nrcy9GTS1UL3ByZXNzcmVsZWFzZXMvMjcyMDQwMTEvZmlyc3QtcXVhbnR1bS1taW5lcmFscy1zdG9jay1hbmFseXNpcy1vbi1jb2JyZS11cGRhdGUv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Time Crystals Could Be the Circuit Boards of Future Quantum Computers</t>
+          <t>Multiple nations enact mysterious export controls on quantum computers</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2024-07-04 14:33:48.784190</t>
+          <t>2024-07-03 13:17:59.597156</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMibWh0dHBzOi8vd3d3LmNvYXN0dG9jb2FzdGFtLmNvbS9hcnRpY2xlL3RpbWUtY3J5c3RhbHMtY291bGQtYmUtdGhlLWNpcmN1aXQtYm9hcmRzLW9mLWZ1dHVyZS1xdWFudHVtLWNvbXB1dGVycy_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMidGh0dHBzOi8vd3d3Lm5ld3NjaWVudGlzdC5jb20vYXJ0aWNsZS8yNDM2MDIzLW11bHRpcGxlLW5hdGlvbnMtZW5hY3QtbXlzdGVyaW91cy1leHBvcnQtY29udHJvbHMtb24tcXVhbnR1bS1jb21wdXRlcnMv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Asia Biofuels &amp; Feedstocks: Indo UCO firms as bids rise, palm oil weighs on China</t>
+          <t>Quantum Ecosystem Builders Distriq and Québec Quantique Among New Québec-based Organizations to Join the QIC ...</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2024-07-04 14:33:48.784190</t>
+          <t>2024-07-03 13:17:59.602395</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMigQFodHRwczovL3d3dy5xY2ludGVsLmNvbS9iaW9mdWVscy9hcnRpY2xlL2FzaWEtYmlvZnVlbHMtZmVlZHN0b2Nrcy1pbmRvLXVjby1maXJtcy1hcy1iaWRzLXJpc2UtcGFsbS1vaWwtd2VpZ2hzLW9uLWNoaW5hLTI2NTUxLmh0bWzSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiqwFodHRwczovL3d3dy5uZXdzd2lyZS5jYS9uZXdzLXJlbGVhc2VzL3F1YW50dW0tZWNvc3lzdGVtLWJ1aWxkZXJzLWRpc3RyaXEtYW5kLXF1ZWJlYy1xdWFudGlxdWUtYW1vbmctbmV3LXF1ZWJlYy1iYXNlZC1vcmdhbml6YXRpb25zLXRvLWpvaW4tdGhlLXFpYy1jb21tdW5pdHktODg5MDg4MDU1Lmh0bWzSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>The Future of AI Scaling: Quantum Computing and Deductive Reasoning</t>
+          <t>Bargain vs. Blue-Chip: Pizza Ninjas &amp; Quantum Cats Show Resilience as Ordinals Market Dips</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2024-07-04 14:33:48.784190</t>
+          <t>2024-07-03 13:17:59.602395</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMia2h0dHBzOi8vd3d3Lmdsb2JhbHZpbGxhZ2VzcGFjZS5jb20vdGVjaC90aGUtZnV0dXJlLW9mLWFpLXNjYWxpbmctcXVhbnR1bS1jb21wdXRpbmctYW5kLWRlZHVjdGl2ZS1yZWFzb25pbmcv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiWGh0dHBzOi8vbmZ0bm93LmNvbS9jb2xsZWN0aWJsZXMvYmFyZ2Fpbi12cy1ibHVlLWNoaXAtcXVhbnR1bS1jYXRzLXBpenphLW5pbmphcy1vcmRpbmFscy_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Quantum Computing and Cryptography Industry Research Study |IBM Corporation, LLC, Intel Corporation</t>
+          <t>Scientists achieve first intercity quantum key distribution with deterministic single-photon source</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2024-07-04 14:33:48.784190</t>
+          <t>2024-07-03 13:17:59.612138</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMikAFodHRwczovL3d3dy5wb3J0c21vdXRoLWRhaWx5dGltZXMuY29tL2NhbGVuZGFyL3F1YW50dW0tY29tcHV0aW5nLWFuZC1jcnlwdG9ncmFwaHktaW5kdXN0cnktcmVzZWFyY2gtc3R1ZHktaWJtLWNvcnBvcmF0aW9uLWxsYy1pbnRlbC1jb3Jwb3JhdGlvbi_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiUWh0dHBzOi8vcGh5cy5vcmcvbmV3cy8yMDI0LTA3LXNjaWVudGlzdHMtaW50ZXJjaXR5LXF1YW50dW0ta2V5LWRldGVybWluaXN0aWMuaHRtbNIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>James Bond: Gemma Arterton wants a 'young actor of colour' as the next 007</t>
+          <t>New open-source software for quantum cryptography is greater than the sum of its parts</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2024-07-04 14:33:48.784190</t>
+          <t>2024-07-03 13:17:59.615154</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiW2h0dHBzOi8vdWsubW92aWVzLnlhaG9vLmNvbS9qYW1lcy1ib25kLWdlbW1hLWFydGVydG9uLXlvdW5nLWFjdG9yLWNvbG91ci0wMDctMTY0NTEzODcxLmh0bWzSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiVWh0dHBzOi8vdGVjaHhwbG9yZS5jb20vbmV3cy8yMDI0LTA3LXNvdXJjZS1zb2Z0d2FyZS1xdWFudHVtLWNyeXB0b2dyYXBoeS1ncmVhdGVyLmh0bWzSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>'It's ultimately about predicting everything'—theory could be a map in the hunt for quantum materials</t>
+          <t>Quantum Wi-Fi Future: Quantum Tech Could Power Super-Secure Wireless Communication</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2024-07-04 14:33:48.784190</t>
+          <t>2024-07-03 13:17:59.622300</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMi4AFodHRwczovL3d3dy5tc24uY29tL2VuLXVzL25ld3MvdGVjaG5vbG9neS9pdC1zLXVsdGltYXRlbHktYWJvdXQtcHJlZGljdGluZy1ldmVyeXRoaW5nLXRoZW9yeS1jb3VsZC1iZS1hLW1hcC1pbi10aGUtaHVudC1mb3ItcXVhbnR1bS1tYXRlcmlhbHMvYXItQkIxbDRQbGQ_aXRlbT1mbGlnaHRzcHJnLXRpcHN1YnNjLXYxYT9zZWFzb244OWMyNmQxY2UxOTY0OWFiOGM2YjFlYTY5MDRkZTQxOVRoddIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMie2h0dHBzOi8vdGhlcXVhbnR1bWluc2lkZXIuY29tLzIwMjQvMDcvMDMvcXVhbnR1bS13aS1maS1mdXR1cmUtcXVhbnR1bS10ZWNoLWNvdWxkLXBvd2VyLXN1cGVyLXNlY3VyZS13aXJlbGVzcy1jb21tdW5pY2F0aW9uL9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Quantum Corp's results are impressive – US Post News</t>
+          <t>The Future of Quantum Computing with Neutral-Atom Arrays</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2024-07-04 14:33:48.784190</t>
+          <t>2024-07-03 13:17:59.622300</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiS2h0dHBzOi8vd3d3LnVzcG9zdG5ld3MuY29tLzIwMjQvMDcvMDQvcXVhbnR1bS1jb3Jwcy1yZXN1bHRzLWFyZS1pbXByZXNzaXZlL9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiYmh0dHBzOi8vdGhlcXVhbnR1bWluc2lkZXIuY29tLzIwMjQvMDcvMDMvdGhlLWZ1dHVyZS1vZi1xdWFudHVtLWNvbXB1dGluZy13aXRoLW5ldXRyYWwtYXRvbS1hcnJheXMv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>What is Arqit Quantum Inc (ARQQ) Stock Return on Shareholders' Capital? – Sete News</t>
+          <t>DistriQ and Québec Quantique join the QIC community</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2024-07-04 14:33:48.784190</t>
+          <t>2024-07-03 13:17:59.628457</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiaGh0dHBzOi8vd3d3LnNldGVuZXdzLmNvbS8yMDI0LzA3LzA0L3doYXQtaXMtYXJxaXQtcXVhbnR1bS1pbmMtYXJxcS1zdG9jay1yZXR1cm4tb24tc2hhcmVob2xkZXJzLWNhcGl0YWwv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMib2h0dHBzOi8vd3d3LmNhbmFkaWFubWFudWZhY3R1cmluZy5jb20vbWFudWZhY3R1cmluZy9kaXN0cmlxLWFuZC1xdWViZWMtcXVhbnRpcXVlLWpvaW4tdGhlLXFpYy1jb21tdW5pdHktMzAwODYzL9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Financial Snapshot: Analyzing Arqit Quantum Inc (ARQQ)'s Key Ratio Metrics – DWinneX</t>
+          <t>Davidson Unveils Quantum Leap in Defense Technology at D-Wave 'Qubits' Conference</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2024-07-04 14:33:48.784190</t>
+          <t>2024-07-03 13:17:59.632718</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiW2h0dHBzOi8vZHdpbm5leC5jb20vZmluYW5jaWFsLXNuYXBzaG90LWFuYWx5emluZy1hcnFpdC1xdWFudHVtLWluYy1hcnFxcy1rZXktcmF0aW8tbWV0cmljcy_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMieWh0dHBzOi8vdGhlcXVhbnR1bWluc2lkZXIuY29tLzIwMjQvMDcvMDMvZGF2aWRzb24tdW52ZWlscy1xdWFudHVtLWxlYXAtaW4tZGVmZW5zZS10ZWNobm9sb2d5LWF0LWQtd2F2ZS1xdWJpdHMtY29uZmVyZW5jZS_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Investor's Toolkit: Key Ratios for Assessing Quantum Corp (QMCO)'s Performance – DWinneX</t>
+          <t>Quantum eMotion Corp. Unveils Innovative Hardware Wallet Technology for the Cryptocurrency Industry</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2024-07-04 14:33:48.784190</t>
+          <t>2024-07-03 13:17:59.632718</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiXmh0dHBzOi8vZHdpbm5leC5jb20vaW52ZXN0b3JzLXRvb2xraXQta2V5LXJhdGlvcy1mb3ItYXNzZXNzaW5nLXF1YW50dW0tY29ycC1xbWNvcy1wZXJmb3JtYW5jZS_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiVWh0dHBzOi8vZmluYW5jZS55YWhvby5jb20vbmV3cy9xdWFudHVtLWVtb3Rpb24tY29ycC11bnZlaWxzLWlubm92YXRpdmUtMTMwMDAwMzc4Lmh0bWzSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Global Quantum Dots Market Consumer Protection: Ensuring Quality and Safety – KnowCasino</t>
+          <t>Copenhagen-based Kvantify secures €10 million to unlock quantum computing for the life science sector</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2024-07-04 14:33:48.784190</t>
+          <t>2024-07-03 13:17:59.637278</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMifmh0dHBzOi8vd3d3Lmtub3djYXNpbm8uY28ubnovdGVjaG5vbG9neS1uZXdzL2dsb2JhbC1xdWFudHVtLWRvdHMtbWFya2V0LWNvbnN1bWVyLXByb3RlY3Rpb24tZW5zdXJpbmctcXVhbGl0eS1hbmQtc2FmZXR5LzQzMjU4L9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiigFodHRwczovL3d3dy5ldS1zdGFydHVwcy5jb20vMjAyNC8wNy9jb3BlbmhhZ2VuLWJhc2VkLWt2YW50aWZ5LXNlY3VyZXMtZTEwLW1pbGxpb24tdG8tdW5sb2NrLXF1YW50dW0tY29tcHV0aW5nLWZvci10aGUtbGlmZS1zY2llbmNlLXNlY3Rvci_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>MIT's Diamond Qubits Redefine Future of Quantum Computing</t>
+          <t>First Quantum Minerals Ltd. stock rises Wednesday, outperforms market</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2024-07-04 14:33:48.784190</t>
+          <t>2024-07-03 13:17:59.637278</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiXWh0dHBzOi8vYW5hLmlyL2VuL25ld3MvNjM4NS9taXQlRTIlODAlOTlzLWRpYW1vbmQtcXViaXRzLXJlZGVmaW5lLWZ1dHVyZS1vZi1xdWFudHVtLWNvbXB1dGluZ9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiiwFodHRwczovL3d3dy5tYXJrZXR3YXRjaC5jb20vYW1wL2RhdGEtbmV3cy9maXJzdC1xdWFudHVtLW1pbmVyYWxzLWx0ZC1zdG9jay1yaXNlcy13ZWRuZXNkYXktb3V0cGVyZm9ybXMtbWFya2V0LWM0YmMwOTlmLTQwOTFmOGQ0ZjRkZj90ZXNsYT150gGLAWh0dHBzOi8vd3d3Lm1hcmtldHdhdGNoLmNvbS9hbXAvZGF0YS1uZXdzL2ZpcnN0LXF1YW50dW0tbWluZXJhbHMtbHRkLXN0b2NrLXJpc2VzLXdlZG5lc2RheS1vdXRwZXJmb3Jtcy1tYXJrZXQtYzRiYzA5OWYtNDA5MWY4ZDRmNGRmP3Rlc2xhPXk?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Scientists Tap Into 2 New Quantum Techniques To Capture Darkish Issue Suspects</t>
+          <t>Xanadu Forges Strategic Alliances with NanoQT and QsSunaSys to Propel Quantum Computing Advancements in Japan</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2024-07-04 14:33:48.787794</t>
+          <t>2024-07-03 13:17:59.642534</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMicGh0dHBzOi8vZW4ubmV3czRzb2NpYWwuY29tL3NwYWNlL3NjaWVudGlzdHMtdGFwLWludG8tMi1uZXctcXVhbnR1bS10ZWNobmlxdWVzLXRvLWNhcHR1cmUtZGFya2lzaC1pc3N1ZS1zdXNwZWN0cy_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMikQFodHRwczovL3F1YW50dW1jb21wdXRpbmdyZXBvcnQuY29tL3hhbmFkdS1mb3JnZXMtc3RyYXRlZ2ljLWFsbGlhbmNlcy13aXRoLW5hbm9xdC1hbmQtcXNzdW5hc3lzLXRvLXByb3BlbC1xdWFudHVtLWNvbXB1dGluZy1hZHZhbmNlbWVudHMtaW4tamFwYW4v0gGVAWh0dHBzOi8vcXVhbnR1bWNvbXB1dGluZ3JlcG9ydC5jb20veGFuYWR1LWZvcmdlcy1zdHJhdGVnaWMtYWxsaWFuY2VzLXdpdGgtbmFub3F0LWFuZC1xc3N1bmFzeXMtdG8tcHJvcGVsLXF1YW50dW0tY29tcHV0aW5nLWFkdmFuY2VtZW50cy1pbi1qYXBhbi9hbXAv?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Searching for dark matter with the coldest quantum detectors in the world</t>
+          <t>Fujitsu and ANU to bring world-class quantum computing to Australia</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2024-07-04 14:36:30.578506</t>
+          <t>2024-07-03 13:17:59.642534</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiR2h0dHBzOi8vcGh5cy5vcmcvbmV3cy8yMDI0LTA3LWRhcmstY29sZGVzdC1xdWFudHVtLWRldGVjdG9ycy13b3JsZC5odG1s0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiVGh0dHBzOi8vd3d3LmZ1aml0c3UuY29tL2dsb2JhbC9hYm91dC9yZXNvdXJjZXMvbmV3cy9wcmVzcy1yZWxlYXNlcy8yMDI0LzA3MDQtMDEuaHRtbNIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Quantum computers may work better when they ignore causality</t>
+          <t>Generative AI: Preparing For The Quantum Revolution In Life Sciences</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2024-07-04 14:36:30.578506</t>
+          <t>2024-07-03 13:17:59.651243</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiamh0dHBzOi8vd3d3Lm5ld3NjaWVudGlzdC5jb20vYXJ0aWNsZS8yNDM4MTUyLXF1YW50dW0tY29tcHV0ZXJzLW1heS13b3JrLWJldHRlci13aGVuLXRoZXktaWdub3JlLWNhdXNhbGl0eS_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMijAFodHRwczovL3d3dy5jb250cmFjdHBoYXJtYS5jb20vY29udGVudHMvdmlld19leHBlcnRzLW9waW5pb24vMjAyNC0wMy0wNy9nZW5lcmF0aXZlLWFpLXByZXBhcmluZy1mb3ItdGhlLXF1YW50dW0tcmV2b2x1dGlvbi1pbi1saWZlLXNjaWVuY2VzL9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Scientists tap into 2 new quantum methods to catch dark matter suspects</t>
+          <t>Colorado Rep. Yadira Caraveo visits CU Boulder to talk quantum</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2024-07-04 14:36:30.578506</t>
+          <t>2024-07-03 13:17:59.652245</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiQ2h0dHBzOi8vd3d3LnNwYWNlLmNvbS9kYXJrLW1hdHRlci1leHBlcmltZW50cy1heGlvbnMtcXVlc3QtZG1jLXFzaHPSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiZGh0dHBzOi8vd3d3LmNvbG9yYWRvLmVkdS90b2RheS8yMDI0LzA3LzAzL2NvbG9yYWRvLXJlcC15YWRpcmEtY2FyYXZlby12aXNpdHMtY3UtYm91bGRlci10YWxrLXF1YW50dW3SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Quantum Computing is Becoming More Accessible as Costs Drop &amp; Cloud Access Expands — Dr. Mark Jackson</t>
+          <t>Register to host an event at Qiskit Fall Fest 2024!</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2024-07-04 14:36:30.585622</t>
+          <t>2024-07-03 13:17:59.652913</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiigFodHRwczovL3RoZXF1YW50dW1pbnNpZGVyLmNvbS8yMDI0LzA3LzA0L3F1YW50dW0tY29tcHV0aW5nLWlzLWJlY29taW5nLW1vcmUtYWNjZXNzaWJsZS1hcy1jb3N0cy1kcm9wLWNsb3VkLWFjY2Vzcy1leHBhbmRzLWRyLW1hcmstamFja3Nvbi_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiNmh0dHBzOi8vd3d3LmlibS5jb20vcXVhbnR1bS9ibG9nL3Fpc2tpdC1mYWxsLWZlc3QtMjAyNNIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Sensor and quantum hubs win US government grants</t>
+          <t>Genetic algorithm enables precise design of phononic crystals</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2024-07-04 14:36:30.585622</t>
+          <t>2024-07-03 13:17:59.654961</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiHmh0dHBzOi8vb3B0aWNzLm9yZy9uZXdzLzE1LzcvOdIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiTWh0dHBzOi8vcGh5cy5vcmcvbmV3cy8yMDI0LTA3LWdlbmV0aWMtYWxnb3JpdGhtLWVuYWJsZXMtcHJlY2lzZS1waG9ub25pYy5odG1s0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Quantum-inspired modeling of distributed intelligence systems with artificial intelligent agents self-organization ...</t>
+          <t>Denmark Chairs Inaugural Meeting of NATO's Transatlantic Quantum Community</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2024-07-04 14:36:30.585622</t>
+          <t>2024-07-03 14:51:21.935433</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiMmh0dHBzOi8vd3d3Lm5hdHVyZS5jb20vYXJ0aWNsZXMvczQxNTk4LTAyNC02NTY4NC160gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMic2h0dHBzOi8vdGhlcXVhbnR1bWluc2lkZXIuY29tLzIwMjQvMDcvMDMvZGVubWFyay1jaGFpcnMtaW5hdWd1cmFsLW1lZXRpbmctb2YtbmF0b3MtdHJhbnNhdGxhbnRpYy1xdWFudHVtLWNvbW11bml0eS_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Quantum Threat Prompts Rethink of Enterprise Cryptography Management</t>
+          <t>First Quantum shares gain after Panama orders copper mine audit</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2024-07-04 14:36:30.585622</t>
+          <t>2024-07-03 15:39:41.599189</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMibmh0dHBzOi8vdGhlcXVhbnR1bWluc2lkZXIuY29tLzIwMjQvMDcvMDQvcXVhbnR1bS10aHJlYXQtcHJvbXB0cy1yZXRoaW5rLW9mLWVudGVycHJpc2UtY3J5cHRvZ3JhcGh5LW1hbmFnZW1lbnQv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMibmh0dHBzOi8vd3d3Lm5vcnRoZXJubWluZXIuY29tL25ld3MvZmlyc3QtcXVhbnR1bS1zaGFyZXMtZ2Fpbi1hZnRlci1wYW5hbWEtb3JkZXJzLWNvcHBlci1taW5lLWF1ZGl0LzEwMDM4NjkxNTIv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>The quantum physics behind fireworks displays</t>
+          <t>Gemma Arterton speaks out on 'Quantum of Solace' role: 'As I got older I realized there was so much wrong with Bond ...</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2024-07-04 14:36:30.585622</t>
+          <t>2024-07-04 00:07:15.725688</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiQmh0dHBzOi8vYmlndGhpbmsuY29tL3N0YXJ0cy13aXRoLWEtYmFuZy9xdWFudHVtLXBoeXNpY3MtZmlyZXdvcmtzL9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMibWh0dHBzOi8vY2EubW92aWVzLnlhaG9vLmNvbS9ib25kLWdpcmwtZ2VtbWEtYXJ0ZXJ0b24tY3JpdGljaXplZC1wbGF5aW5nLXN0cmF3YmVycnktZmllbGRzLTIzMjY0Njg4NC5odG1sLzEwMDDSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Emergence of quantum Griffiths singularity in disordered TiN thin films | Communications Physics</t>
+          <t>The Novo Nordisk Foundation Believes Quantum Computing Poised to Revolutionize Healthcare &amp; Drug Discovery</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2024-07-04 14:36:30.588372</t>
+          <t>2024-07-04 00:07:15.725688</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiMmh0dHBzOi8vd3d3Lm5hdHVyZS5jb20vYXJ0aWNsZXMvczQyMDA1LTAyNC0wMTcwOS0z0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMikgFodHRwczovL3RoZXF1YW50dW1pbnNpZGVyLmNvbS8yMDI0LzA3LzA0L3RoZS1ub3ZvLW5vcmRpc2stZm91bmRhdGlvbi1iZWxpZXZlcy1xdWFudHVtLWNvbXB1dGluZy1wb2lzZWQtdG8tcmV2b2x1dGlvbml6ZS1oZWFsdGhjYXJlLWRydWctZGlzY292ZXJ5L9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>The Novo Nordisk Foundation Believes Quantum Computing Poised to Revolutionize Healthcare &amp; Drug Discovery</t>
+          <t>Novel Method Enhances Size-controlled Production of Luminescent Quantum Dots</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2024-07-04 14:36:30.588372</t>
+          <t>2024-07-04 00:07:15.757127</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMikgFodHRwczovL3RoZXF1YW50dW1pbnNpZGVyLmNvbS8yMDI0LzA3LzA0L3RoZS1ub3ZvLW5vcmRpc2stZm91bmRhdGlvbi1iZWxpZXZlcy1xdWFudHVtLWNvbXB1dGluZy1wb2lzZWQtdG8tcmV2b2x1dGlvbml6ZS1oZWFsdGhjYXJlLWRydWctZGlzY292ZXJ5L9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMibGh0dHBzOi8vc3RhdG5hbm8uY29tL25ld3MvNzM4NzYvTm92ZWwtTWV0aG9kLUVuaGFuY2VzLVNpemUtY29udHJvbGxlZC1Qcm9kdWN0aW9uLW9mLUx1bWluZXNjZW50LVF1YW50dW0tRG90c9IBcGh0dHBzOi8vc3RhdG5hbm8uY29tL2FtcC9uZXdzLzczODc2L05vdmVsLU1ldGhvZC1FbmhhbmNlcy1TaXplLWNvbnRyb2xsZWQtUHJvZHVjdGlvbi1vZi1MdW1pbmVzY2VudC1RdWFudHVtLURvdHM?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Supremacy Surprise: Speedy Supercomputer Surpasses Sycamore</t>
+          <t>(PDF) Quantum Machine Learning Technique for Automatic Retrosynthetic Reaction Pathway Search Method</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2024-07-04 14:36:30.588372</t>
+          <t>2024-07-04 00:07:15.757127</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiZGh0dHBzOi8vdGhlcXVhbnR1bWluc2lkZXIuY29tLzIwMjQvMDcvMDQvc3VwcmVtYWN5LXN1cnByaXNlLXNwZWVkeS1zdXBlcmNvbXB1dGVyLXN1cnBhc3Nlcy1zeWNhbW9yZS_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMikQFodHRwczovL3d3dy5yZXNlYXJjaGdhdGUubmV0L3B1YmxpY2F0aW9uLzM4MTkyNDM4Ml9RdWFudHVtX01hY2hpbmVfTGVhcm5pbmdfVGVjaG5pcXVlX2Zvcl9BdXRvbWF0aWNfUmV0cm9zeW50aGV0aWNfUmVhY3Rpb25fUGF0aHdheV9TZWFyY2hfTWV0aG9k0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Author Correction: Planarized THz quantum cascade lasers for broadband coherent photonics | Light: Science ...</t>
+          <t>3 Quantum Computing Stocks With Strong Buy Ratings: Summer 2024</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2024-07-04 14:36:30.588372</t>
+          <t>2024-07-04 00:07:15.757127</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiMmh0dHBzOi8vd3d3Lm5hdHVyZS5jb20vYXJ0aWNsZXMvczQxMzc3LTAyNC0wMTQ2Ny010gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiYWh0dHBzOi8vaW52ZXN0b3JwbGFjZS5jb20vMjAyNC8wNy8zLXF1YW50dW0tY29tcHV0aW5nLXN0b2Nrcy13aXRoLXN0cm9uZy1idXktcmF0aW5ncy1zdW1tZXItMjAyNC_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>First Quantum Minerals (TSE:FM) Given New C$20.00 Price Target at JPMorgan Chase &amp; Co.</t>
+          <t>UK builds world's coldest quantum detectors to hunt dark matter</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2024-07-04 14:36:30.588372</t>
+          <t>2024-07-04 00:07:15.757127</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMifGh0dHBzOi8vd3d3LmRlZmVuc2V3b3JsZC5uZXQvMjAyNC8wNy8wNC9maXJzdC1xdWFudHVtLW1pbmVyYWxzLXRzZWZtLWdpdmVuLW5ldy1jMjAtMDAtcHJpY2UtdGFyZ2V0LWF0LWpwbW9yZ2FuLWNoYXNlLWNvLmh0bWzSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiTWh0dHBzOi8vaW50ZXJlc3RpbmdlbmdpbmVlcmluZy5jb20vc2NpZW5jZS93b3JsZHMtY29sZGVzdC1xdWFudHVtLWRldGVjdG9yLXVr0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Danish startup secures €10M seed to advance quantum computing in life sciences</t>
+          <t>First Quantum Minerals (TSE:FM) Given New C$20.00 Price Target at JPMorgan Chase &amp; Co.</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2024-07-04 14:36:30.588372</t>
+          <t>2024-07-04 00:07:15.757127</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiNGh0dHBzOi8vYXJjdGljc3RhcnR1cC5jb20va3ZhbnRpZnktcmFpc2VzLWUxMG0tc2VlZC_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMifGh0dHBzOi8vd3d3LmRlZmVuc2V3b3JsZC5uZXQvMjAyNC8wNy8wNC9maXJzdC1xdWFudHVtLW1pbmVyYWxzLXRzZWZtLWdpdmVuLW5ldy1jMjAtMDAtcHJpY2UtdGFyZ2V0LWF0LWpwbW9yZ2FuLWNoYXNlLWNvLmh0bWzSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>UK builds world's coldest quantum detectors to hunt dark matter</t>
+          <t>Quantum computing to boost airport handling</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2024-07-04 14:36:30.588372</t>
+          <t>2024-07-04 13:10:37.426358</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiTWh0dHBzOi8vaW50ZXJlc3RpbmdlbmdpbmVlcmluZy5jb20vc2NpZW5jZS93b3JsZHMtY29sZGVzdC1xdWFudHVtLWRldGVjdG9yLXVr0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiXGh0dHBzOi8vaGFtYnVyZy1idXNpbmVzcy5jb20vZW4vbmV3cy9xdWFudHVtLWNvbXB1dGluZy1vcHRpbWlzZWQtYWlycG9ydC1oYW5kbGluZy1pbi1oYW1idXJn0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>📐 Quantum physics "accidentally" unveils a new representation of π (Pi)</t>
+          <t>Quantum Threat Prompts Rethink of Enterprise Cryptography Management</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2024-07-04 14:36:30.588372</t>
+          <t>2024-07-04 13:10:37.434564</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMicGh0dHBzOi8vd3d3LnRlY2huby1zY2llbmNlLm5ldC9lbi9uZXdzL3F1YW50dW0tcGh5c2ljcy1hY2NpZGVudGFsbHktdW52ZWlscy1uZXctcmVwcmVzZW50YXRpb24tb2YtcGktTjI1MjI4Lmh0bWzSAW5odHRwczovL20udGVjaG5vLXNjaWVuY2UubmV0L2VuL25ld3MvcXVhbnR1bS1waHlzaWNzLWFjY2lkZW50YWxseS11bnZlaWxzLW5ldy1yZXByZXNlbnRhdGlvbi1vZi1waS1OMjUyMjguaHRtbA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMibmh0dHBzOi8vdGhlcXVhbnR1bWluc2lkZXIuY29tLzIwMjQvMDcvMDQvcXVhbnR1bS10aHJlYXQtcHJvbXB0cy1yZXRoaW5rLW9mLWVudGVycHJpc2UtY3J5cHRvZ3JhcGh5LW1hbmFnZW1lbnQv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>SKT Wins National Quantum Cryptography Project to Enhance Future Wireless and Satellite Network Security</t>
+          <t>Emergence of quantum Griffiths singularity in disordered TiN thin films</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2024-07-04 14:36:30.588372</t>
+          <t>2024-07-04 13:10:37.439828</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMinwFodHRwczovL3d3dy50aGVmYXN0bW9kZS5jb20vdGVjaG5vbG9neS1zb2x1dGlvbnMvMzYyNzktc2t0LXdpbnMtbmF0aW9uYWwtcXVhbnR1bS1jcnlwdG9ncmFwaHktcHJvamVjdC10by1lbmhhbmNlLWZ1dHVyZS13aXJlbGVzcy1hbmQtc2F0ZWxsaXRlLW5ldHdvcmstc2VjdXJpdHnSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiMmh0dHBzOi8vd3d3Lm5hdHVyZS5jb20vYXJ0aWNsZXMvczQyMDA1LTAyNC0wMTcwOS0z0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Quantum communication: How will 'quantum-secure' communication technologies develop in future?</t>
+          <t>Quantum computing to boost airport handling | News | Hamburg Business</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2024-07-04 14:36:30.588372</t>
+          <t>2024-07-04 13:17:59.583994</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiUmh0dHBzOi8vdGVjaHhwbG9yZS5jb20vbmV3cy8yMDI0LTA3LXF1YW50dW0tY29tbXVuaWNhdGlvbi10ZWNobm9sb2dpZXMtZnV0dXJlLmh0bWzSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiXGh0dHBzOi8vaGFtYnVyZy1idXNpbmVzcy5jb20vZW4vbmV3cy9xdWFudHVtLWNvbXB1dGluZy1vcHRpbWlzZWQtYWlycG9ydC1oYW5kbGluZy1pbi1oYW1idXJn0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Novel Method Enhances Size-controlled Production of Luminescent Quantum Dots</t>
+          <t>Orla files for arbitration against Panama and First Quantum could be next</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>2024-07-04 15:33:48.779059</t>
+          <t>2024-07-04 13:17:59.599167</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMibGh0dHBzOi8vc3RhdG5hbm8uY29tL25ld3MvNzM4NzYvTm92ZWwtTWV0aG9kLUVuaGFuY2VzLVNpemUtY29udHJvbGxlZC1Qcm9kdWN0aW9uLW9mLUx1bWluZXNjZW50LVF1YW50dW0tRG90c9IBcGh0dHBzOi8vc3RhdG5hbm8uY29tL2FtcC9uZXdzLzczODc2L05vdmVsLU1ldGhvZC1FbmhhbmNlcy1TaXplLWNvbnRyb2xsZWQtUHJvZHVjdGlvbi1vZi1MdW1pbmVzY2VudC1RdWFudHVtLURvdHM?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMieGh0dHBzOi8vd3d3Lm5vcnRoZXJubWluZXIuY29tL25ld3Mvb3JsYS1maWxlcy1mb3ItYXJiaXRyYXRpb24tYWdhaW5zdC1wYW5hbWEtYW5kLWZpcnN0LXF1YW50dW0tY291bGQtYmUtbmV4dC8xMDAzODY5MjI4L9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Photos: Pet Alliance, Quantum Leap Winery kicks off Orlando's cutest pet photo contest</t>
+          <t>Quantum computers may work better when they ignore causality</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2024-07-04 15:33:48.784190</t>
+          <t>2024-07-04 13:17:59.602395</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiSWh0dHBzOi8vd3d3LndmdHYuY29tL25ld3MvcGhvdG9zLXBldC1hbGxpYW5jZS80VTVYWkFYRDZaQzJQSE5HN0I2WDVTTU5ZTS_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiamh0dHBzOi8vd3d3Lm5ld3NjaWVudGlzdC5jb20vYXJ0aWNsZS8yNDM4MTUyLXF1YW50dW0tY29tcHV0ZXJzLW1heS13b3JrLWJldHRlci13aGVuLXRoZXktaWdub3JlLWNhdXNhbGl0eS_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Post- Quantum Cryptography Industry Research Study |AMD evolutionQ, ARM, Blackberry OnBoard Security ...</t>
+          <t>Sensor and quantum hubs win US government grants</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>2024-07-04 15:33:48.784190</t>
+          <t>2024-07-04 13:17:59.622300</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMigQFodHRwczovL2Vjb25vbWljYS5tYS9uZXdzL3Bvc3QtcXVhbnR1bS1jcnlwdG9ncmFwaHktaW5kdXN0cnktcmVzZWFyY2gtc3R1ZHktYW1kLWV2b2x1dGlvbnEtYXJtLWJsYWNrYmVycnktb25ib2FyZC1zZWN1cml0eS80NDg1OS_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiHmh0dHBzOi8vb3B0aWNzLm9yZy9uZXdzLzE1LzcvOdIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
@@ -2515,352 +2515,3310 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>2024-07-04 15:36:30.585015</t>
+          <t>2024-07-04 13:17:59.622300</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMikgFodHRwczovL3d3dy5tYXJrZXR3YXRjaC5jb20vZGF0YS1uZXdzL2ZpcnN0LXF1YW50dW0tbWluZXJhbHMtbHRkLXN0b2NrLWZhbGxzLXRodXJzZGF5LXVuZGVycGVyZm9ybXMtbWFya2V0LTVhZDg5YzNjLWI5OGRmYmVjYjkxZD9tb2Q9bXdfcXVvdGVfbmV3c9IBgAFodHRwczovL3d3dy5tYXJrZXR3YXRjaC5jb20vYW1wL3N0b3J5L2ZpcnN0LXF1YW50dW0tbWluZXJhbHMtbHRkLXN0b2NrLWZhbGxzLXRodXJzZGF5LXVuZGVycGVyZm9ybXMtbWFya2V0LTVhZDg5YzNjLWI5OGRmYmVjYjkxZA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMigAFodHRwczovL3d3dy5tYXJrZXR3YXRjaC5jb20vZGF0YS1uZXdzL2ZpcnN0LXF1YW50dW0tbWluZXJhbHMtbHRkLXN0b2NrLWZhbGxzLXRodXJzZGF5LXVuZGVycGVyZm9ybXMtbWFya2V0LTVhZDg5YzNjLWI5OGRmYmVjYjkxZNIBgAFodHRwczovL3d3dy5tYXJrZXR3YXRjaC5jb20vYW1wL3N0b3J5L2ZpcnN0LXF1YW50dW0tbWluZXJhbHMtbHRkLXN0b2NrLWZhbGxzLXRodXJzZGF5LXVuZGVycGVyZm9ybXMtbWFya2V0LTVhZDg5YzNjLWI5OGRmYmVjYjkxZA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Pet Alliance, Quantum Leap Winery kicks off Orlando’s cutest pet photo contest</t>
+          <t>The quantum physics behind fireworks displays</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>2024-07-04 16:33:48.779059</t>
+          <t>2024-07-04 13:17:59.622300</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiiAFodHRwczovL3d3dy53ZnR2LmNvbS9uZXdzL2xvY2FsL3BldC1hbGxpYW5jZS1xdWFudHVtLWxlYXAtd2luZXJ5LWtpY2tzLW9mZi1vcmxhbmRvcy1jdXRlc3QtcGV0LXBob3RvLWNvbnRlc3QvTzJaRldJT0Y0RkNaWktFQ1dRQVZVT0NWTU0v0gGXAWh0dHBzOi8vd3d3LndmdHYuY29tL25ld3MvbG9jYWwvcGV0LWFsbGlhbmNlLXF1YW50dW0tbGVhcC13aW5lcnkta2lja3Mtb2ZmLW9ybGFuZG9zLWN1dGVzdC1wZXQtcGhvdG8tY29udGVzdC9PMlpGV0lPRjRGQ1paS0VDV1FBVlVPQ1ZNTS8_b3V0cHV0VHlwZT1hbXA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiQmh0dHBzOi8vYmlndGhpbmsuY29tL3N0YXJ0cy13aXRoLWEtYmFuZy9xdWFudHVtLXBoeXNpY3MtZmlyZXdvcmtzL9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Top 10 Ways Advance Quantum Computing Will Have Amazing Benefits In The Evolution Of Blockchain</t>
+          <t>SKT Wins National Quantum Cryptography Project to Enhance Future Wireless and Satellite Network Security</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>2024-07-04 16:36:30.588372</t>
+          <t>2024-07-04 13:17:59.628326</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiSmh0dHBzOi8vYmxvY2tjaGFpbm1hZ2F6aW5lLm5ldC9jb21wdXRpbmctYmVuZWZpdC10aGUtZXZvbHV0aW9uLWJsb2NrY2hhaW4v0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMinwFodHRwczovL3d3dy50aGVmYXN0bW9kZS5jb20vdGVjaG5vbG9neS1zb2x1dGlvbnMvMzYyNzktc2t0LXdpbnMtbmF0aW9uYWwtcXVhbnR1bS1jcnlwdG9ncmFwaHktcHJvamVjdC10by1lbmhhbmNlLWZ1dHVyZS13aXJlbGVzcy1hbmQtc2F0ZWxsaXRlLW5ldHdvcmstc2VjdXJpdHnSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>HP launches world's first business PC designed to protect firmware against quantum hacking</t>
+          <t>Quantum communication: How will 'quantum-secure' communication technologies develop in future?</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>2024-07-04 17:33:48.779059</t>
+          <t>2024-07-04 13:17:59.628457</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMigwJodHRwOi8vd3d3Lm1zbi5jb20vZW4tdXMvbGlmZXN0eWxlL3Nob3BwaW5nL2hwLWxhdW5jaGVzLXdvcmxkLXMtZmlyc3QtYnVzaW5lc3MtcGMtZGVzaWduZWQtdG8tcHJvdGVjdC1maXJtd2FyZS1hZ2FpbnN0LXF1YW50dW0taGFja2luZy9hci1CQjFqSVVLcz9hcGl2ZXJzaW9uPXYyJm5vc2VydmVyY2FjaGU9MSZkb21zaGltPTEmcmVuZGVyd2ViY29tcG9uZW50cz0xJndjc2VvPTEmYmF0Y2hzZXJ2ZXJ0ZWxlbWV0cnk9MSZub3NlcnZlcnRlbGVtZXRyeT0x0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiUmh0dHBzOi8vdGVjaHhwbG9yZS5jb20vbmV3cy8yMDI0LTA3LXF1YW50dW0tY29tbXVuaWNhdGlvbi10ZWNobm9sb2dpZXMtZnV0dXJlLmh0bWzSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Quantum Maxair Review 2024: Scam or Legit Trading Platform? – Experts Reports!</t>
+          <t>Author Correction: Planarized THz quantum cascade lasers for broadband coherent photonics | Light: Science ...</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>2024-07-04 17:33:48.784190</t>
+          <t>2024-07-04 13:17:59.637278</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiamh0dHBzOi8vcmVnaXN0cm9wb3AuY29tLzIwMjQvMDcvcXVhbnR1bS1tYXhhaXItcmV2aWV3LTIwMjQtc2NhbS1vci1sZWdpdC10cmFkaW5nLXBsYXRmb3JtLWV4cGVydHMtcmVwb3J0cy_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiMmh0dHBzOi8vd3d3Lm5hdHVyZS5jb20vYXJ0aWNsZXMvczQxMzc3LTAyNC0wMTQ2Ny010gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Orla files for arbitration against Panama and First Quantum could be next</t>
+          <t>Emergence of quantum Griffiths singularity in disordered TiN thin films | Communications Physics</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>2024-07-04 17:36:30.578506</t>
+          <t>2024-07-04 13:17:59.637278</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMieGh0dHBzOi8vd3d3Lm5vcnRoZXJubWluZXIuY29tL25ld3Mvb3JsYS1maWxlcy1mb3ItYXJiaXRyYXRpb24tYWdhaW5zdC1wYW5hbWEtYW5kLWZpcnN0LXF1YW50dW0tY291bGQtYmUtbmV4dC8xMDAzODY5MjI4L9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiMmh0dHBzOi8vd3d3Lm5hdHVyZS5jb20vYXJ0aWNsZXMvczQyMDA1LTAyNC0wMTcwOS0z0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Quantum Speed Limits: Enhancing Temporal Resolution in Sensing</t>
+          <t>📐 Quantum physics "accidentally" unveils a new representation of π (Pi)</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>2024-07-04 17:36:30.588372</t>
+          <t>2024-07-04 13:17:59.637278</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiMWh0dHBzOi8vd3d3LmF6b3F1YW50dW0uY29tL05ld3MuYXNweD9uZXdzSUQ9MTAzNTfSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMicGh0dHBzOi8vd3d3LnRlY2huby1zY2llbmNlLm5ldC9lbi9uZXdzL3F1YW50dW0tcGh5c2ljcy1hY2NpZGVudGFsbHktdW52ZWlscy1uZXctcmVwcmVzZW50YXRpb24tb2YtcGktTjI1MjI4Lmh0bWzSAW5odHRwczovL20udGVjaG5vLXNjaWVuY2UubmV0L2VuL25ld3MvcXVhbnR1bS1waHlzaWNzLWFjY2lkZW50YWxseS11bnZlaWxzLW5ldy1yZXByZXNlbnRhdGlvbi1vZi1waS1OMjUyMjguaHRtbA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Could quantum physics be the key that unlocks the secrets of human behavior?</t>
+          <t>Danish startup secures €10M seed to advance quantum computing in life sciences</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>2024-07-04 18:33:48.779059</t>
+          <t>2024-07-04 13:17:59.637278</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiwwFodHRwczovL3d3dy5tc24uY29tL2VuLXVzL25ld3MvdGVjaG5vbG9neS9jb3VsZC1xdWFudHVtLXBoeXNpY3MtYmUtdGhlLWtleS10aGF0LXVubG9ja3MtdGhlLXNlY3JldHMtb2YtaHVtYW4tYmVoYXZpb3IvYXItQkIxZ1h6eW8_b2NpZD1tc2VkZ250cCZwYz1IQ1RTJmN2aWQ9NzAyN2M0NDc4NTNlNDg2MTkxYzA3YmI2NWY3ZjJlMTcmZWk9MjbSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiNGh0dHBzOi8vYXJjdGljc3RhcnR1cC5jb20va3ZhbnRpZnktcmFpc2VzLWUxMG0tc2VlZC_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Tinashe Announces 'Quantum Baby' Release Date, Shares New Song 'Getting No Sleep'</t>
+          <t>Supremacy Surprise: Speedy Supercomputer Surpasses Sycamore</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>2024-07-04 18:33:48.779059</t>
+          <t>2024-07-04 13:17:59.642534</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMimAJodHRwOi8vd3d3Lm1zbi5jb20vZW4tdXMvbW9uZXkvb3RoZXIvdGluYXNoZS1hbm5vdW5jZXMtcXVhbnR1bS1iYWJ5LXJlbGVhc2UtZGF0ZS1zaGFyZXMtbmV3LXNvbmctZ2V0dGluZy1uby1zbGVlcC9hci1CQjFwNGs4Rz9pdGVtPXRoZW1lZF9mZWF0dXJlZGFwcHNfZW5hYmxlZCUzRmxvYWRpbiZhcGl2ZXJzaW9uPXYyJm5vc2VydmVyY2FjaGU9MSZkb21zaGltPTEmcmVuZGVyd2ViY29tcG9uZW50cz0xJndjc2VvPTEmYmF0Y2hzZXJ2ZXJ0ZWxlbWV0cnk9MSZub3NlcnZlcnRlbGVtZXRyeT0x0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiZGh0dHBzOi8vdGhlcXVhbnR1bWluc2lkZXIuY29tLzIwMjQvMDcvMDQvc3VwcmVtYWN5LXN1cnByaXNlLXNwZWVkeS1zdXBlcmNvbXB1dGVyLXN1cnBhc3Nlcy1zeWNhbW9yZS_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Quantum physics "accidentally" unveils a new representation of π (Pi)</t>
+          <t>Quantum Speed Limits: Enhancing Temporal Resolution in Sensing</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2024-07-04 18:36:30.588372</t>
+          <t>2024-07-04 13:17:59.649115</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMizQFodHRwczovL3d3dy5tc24uY29tL2VuLXVzL21vbmV5L2NhcmVlcnNhbmRlZHVjYXRpb24vcXVhbnR1bS1waHlzaWNzLWFjY2lkZW50YWxseS11bnZlaWxzLWEtbmV3LXJlcHJlc2VudGF0aW9uLW9mLSVDRiU4MC1waS9hci1CQjFwbk1sVj9pdGVtPWZsaWdodHNwcmctdGlwc3Vic2MtdjFhP3NlYXNvbjg5YzI2ZDFjZTE5NjQ5YWI4YzZiMWVhNjkwNGRlNDE5VGh10gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiMWh0dHBzOi8vd3d3LmF6b3F1YW50dW0uY29tL05ld3MuYXNweD9uZXdzSUQ9MTAzNTfSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Researchers achieve high quantum yield in photocatalytic water splitting</t>
+          <t>Quantum Graphite Announces New Share Issue - TipRanks.com</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>2024-07-04 18:36:30.588372</t>
+          <t>2024-07-04 13:17:59.650245</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMimgJodHRwczovL3d3dy5tc24uY29tL2VuLXVzL25ld3MvdGVjaG5vbG9neS9yZXNlYXJjaGVycy1hY2hpZXZlLWhpZ2gtcXVhbnR1bS15aWVsZC1pbi1waG90b2NhdGFseXRpYy13YXRlci1zcGxpdHRpbmcvYXItQkIxcDR1MHc_aXRlbT1mbGlnaHRzJTNDaW1nJTIwc3JjPSZpdGVtPWZsaWdodHMlM0NpbWclMjBzcmM9Jml0ZW09ZmxpZ2h0cyUzQ2ltZyUyMHNyYz0maXRlbT1mbGlnaHRzJTNDaW1nJTIwc3JjPSZpdGVtPWZsaWdodHMlM0NpbWclMjBzcmM9Jml0ZW09ZmxpZ2h0cyUzQ2ltZyUyMHNyYz3SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiXmh0dHBzOi8vd3d3LnRpcHJhbmtzLmNvbS9uZXdzL2NvbXBhbnktYW5ub3VuY2VtZW50cy9xdWFudHVtLWdyYXBoaXRlLWFubm91bmNlcy1uZXctc2hhcmUtaXNzdWXSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>ASICS Gel-Quantum 360 VIII Paris - 1203A569-750 Raffles and Release Date</t>
+          <t>Colorado Leaders Embrace the 'Quantum Revolution'</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>2024-07-04 21:33:48.779059</t>
+          <t>2024-07-04 13:17:59.650245</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMibWh0dHBzOi8vd3d3LnNvbGVyZXRyaWV2ZXIuY29tL3NuZWFrZXItcmVsZWFzZS1kYXRlcy9hc2ljcy9vdGhlci9hc2ljcy1nZWwtcXVhbnR1bS0zNjAtdmlpaS1wYXJpcy0xMjAzYTU2OS03NTDSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiV2h0dHBzOi8vcGFnb3NhZGFpbHlwb3N0LmNvbS8yMDI0LzA3LzA0L2NvbG9yYWRvLWxlYWRlcnMtZW1icmFjZS10aGUtcXVhbnR1bS1yZXZvbHV0aW9uL9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Quantum computing to boost airport handling | News | Hamburg Business</t>
+          <t>World's coldest quantum detectors to search for most sensitive dark matter</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>2024-07-04 21:36:30.578506</t>
+          <t>2024-07-04 13:17:59.654961</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiXGh0dHBzOi8vaGFtYnVyZy1idXNpbmVzcy5jb20vZW4vbmV3cy9xdWFudHVtLWNvbXB1dGluZy1vcHRpbWlzZWQtYWlycG9ydC1oYW5kbGluZy1pbi1oYW1idXJn0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiZ2h0dHBzOi8vd3d3LnRlY2hleHBsb3Jpc3QuY29tL3dvcmxkcy1jb2xkZXN0LXF1YW50dW0tZGV0ZWN0b3JzLXNlYXJjaC1tb3N0LXNlbnNpdGl2ZS1kYXJrLW1hdHRlci84NTg2MS_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Quantum Graphite Announces New Share Issue - TipRanks.com</t>
+          <t>Post-Quantum Cryptography: Migrating to Quantum Resistant Cryptography - Security News</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>2024-07-04 21:36:30.585622</t>
+          <t>2024-07-04 14:33:48.779059</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiXmh0dHBzOi8vd3d3LnRpcHJhbmtzLmNvbS9uZXdzL2NvbXBhbnktYW5ub3VuY2VtZW50cy9xdWFudHVtLWdyYXBoaXRlLWFubm91bmNlcy1uZXctc2hhcmUtaXNzdWXSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMiiwFodHRwczovL3d3dy50cmVuZG1pY3JvLmNvbS92aW5mby9hdS9zZWN1cml0eS9uZXdzL3NlY3VyaXR5LXRlY2hub2xvZ3kvcG9zdC1xdWFudHVtLWNyeXB0b2dyYXBoeS1taWdyYXRpbmctdG8tcXVhbnR1bS1yZXNpc3RhbnQtY3J5cHRvZ3JhcGh50gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>‘This isn’t a strip club’: Private members’ club addresses ‘constant disruption’ fears</t>
+          <t>How Quantum Generative Adversarial Networks are Beneficial for Generative Chemistry</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>2024-07-04 23:33:48.784190</t>
+          <t>2024-07-04 14:33:48.779059</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMicGh0dHBzOi8vd3d3LmtlbnRvbmxpbmUuY28udWsvdHVuYnJpZGdlLXdlbGxzL25ld3MvdGhpcy1pc24tdC1hLXN0cmlwLWNsdWItcHJpdmF0ZS1tZW1iZXJzLWNsdWItYWRkcmVzc2VzLTMwOTMwNS_SAXRodHRwczovL3d3dy5rZW50b25saW5lLmNvLnVrL3R1bmJyaWRnZS13ZWxscy9uZXdzL2FtcC90aGlzLWlzbi10LWEtc3RyaXAtY2x1Yi1wcml2YXRlLW1lbWJlcnMtY2x1Yi1hZGRyZXNzZXMtMzA5MzA1Lw?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMimAFodHRwczovL3d3dy5tc24uY29tL2VuLXVzL2hlYWx0aC9vdGhlci9ob3ctcXVhbnR1bS1nZW5lcmF0aXZlLWFkdmVyc2FyaWFsLW5ldHdvcmtzLWFyZS1iZW5lZmljaWFsLWZvci1nZW5lcmF0aXZlLWNoZW1pc3RyeS9hci1CQjFocUtSbz9vY2lkPUJpbmdOZXdzVmVycNIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>(PDF) Graphene oxide quantum dots-loaded sinomenine hydrochloride nanocomplexes for effective treatment of ...</t>
+          <t>UK builds world's coldest quantum detectors to unveil dark matter mysteries</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>2024-07-04 23:36:30.588372</t>
+          <t>2024-07-04 14:33:48.779059</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMi-wFodHRwczovL3d3dy5yZXNlYXJjaGdhdGUubmV0L3B1YmxpY2F0aW9uLzM4MTkxNDgxOV9HcmFwaGVuZV9veGlkZV9xdWFudHVtX2RvdHMtbG9hZGVkX3Npbm9tZW5pbmVfaHlkcm9jaGxvcmlkZV9uYW5vY29tcGxleGVzX2Zvcl9lZmZlY3RpdmVfdHJlYXRtZW50X29mX3JoZXVtYXRvaWRfYXJ0aHJpdGlzX3ZpYV9pbmR1Y2luZ19tYWNyb3BoYWdlX3JlcG9sYXJpemF0aW9uX2FuZF9hcnJlc3RpbmdfYWJub3JtYWxfcHJvbGlmZXJhdGlvbl9vZtIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMigQFodHRwczovL3d3dy5tc24uY29tL2VuLXVzL25ld3MvdGVjaG5vbG9neS91ay1idWlsZHMtd29ybGQtcy1jb2xkZXN0LXF1YW50dW0tZGV0ZWN0b3JzLXRvLXVudmVpbC1kYXJrLW1hdHRlci1teXN0ZXJpZXMvYXItQkIxcG5PWFPSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Scientists develop quantum tech to hunt for elusive dark matter</t>
+          <t>Post- Quantum Cryptography Industry Research Study |AMD evolutionQ, ARM, Blackberry OnBoard Security</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>2024-07-05 00:33:48.779059</t>
+          <t>2024-07-04 14:33:48.779059</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiYmh0dHBzOi8vd3d3Lm5ld3NieXRlc2FwcC5jb20vbmV3cy9zY2llbmNlL3F1YW50dW0tdGVjaG5vbG9neS10by1haWQtaW4tZGFyay1tYXR0ZXItZGV0ZWN0aW9uL3N0b3J50gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMikAFodHRwczovL3d3dy5wb3J0c21vdXRoLWRhaWx5dGltZXMuY29tL2NhbGVuZGFyL3Bvc3QtcXVhbnR1bS1jcnlwdG9ncmFwaHktaW5kdXN0cnktcmVzZWFyY2gtc3R1ZHktYW1kLWV2b2x1dGlvbnEtYXJtLWJsYWNrYmVycnktb25ib2FyZC1zZWN1cml0eS_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Imec consortium realises QKD links for quantum cryptography</t>
+          <t>Scientists show that there is indeed an 'entropy' of quantum entanglement</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>2024-07-05 00:36:30.588372</t>
+          <t>2024-07-04 14:33:48.779059</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMidGh0dHBzOi8vd3d3LmVsZWN0cm9uaWNzd2Vla2x5LmNvbS91bmNhdGVnb3Jpc2VkL2ltZWMtY29uc29ydGl1bS1yZWFsaXNlcy1xa2QtbGlua3MtZm9yLXF1YW50dW0tY3J5cHRvZ3JhcGh5LTIwMjQtMDcv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMisAFodHRwczovL3d3dy5tc24uY29tL2VuLXVzL25ld3MvdGVjaG5vbG9neS9zY2llbnRpc3RzLXNob3ctdGhhdC10aGVyZS1pcy1pbmRlZWQtYW4tZW50cm9weS1vZi1xdWFudHVtLWVudGFuZ2xlbWVudC9hci1BQTFuWjFyaz9pdGVtPWZsaWdodHNwcmctdGlwc3Vic2MtdjFhP3V0bV9zb3VyY2U9bWlsZWkubmV3c9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>2D Device For Quantum Cooling</t>
+          <t>UK universities developing quantum technologies to solve dark matter mystery</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>2024-07-05 01:36:30.585622</t>
+          <t>2024-07-04 14:33:48.779059</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMiQWh0dHBzOi8vd3d3Lm1pcmFnZW5ld3MuY29tLzJkLWRldmljZS1mb3ItcXVhbnR1bS1jb29saW5nLTEyNzAwNTMv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMib2h0dHBzOi8vd3d3Lmlubm92YXRpb25uZXdzbmV0d29yay5jb20vdWstdW5pdmVyc2l0aWVzLWRldmVsb3AtcXVhbnR1bS10ZWNobm9sb2dpZXMtdG8tZGV0ZWN0LWRhcmstbWF0dGVyLzQ4OTQ2L9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>What Is Quantum Computing And Why Is It So Hard To Explain?</t>
+          <t>Is quantum computing the next technological frontier?</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>2024-07-05 01:36:30.588372</t>
+          <t>2024-07-04 14:33:48.779059</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>news.google.com/articles/CBMihgFodHRwczovL3d3dy5tc24uY29tL2VuLWluL25ld3MvdGVjaGFuZHNjaWVuY2Uvd2hhdC1pcy1xdWFudHVtLWNvbXB1dGluZy1hbmQtd2h5LWlzLWl0LXNvLWhhcmQtdG8tZXhwbGFpbi9hci1CQjFvR0tHeT9vY2lkPUJpbmdOZXdzVmVycNIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+          <t>news.google.com/articles/CBMimQFodHRwczovL3d3dy5tc24uY29tL2VuLXVzL25ld3MvdGVjaG5vbG9neS9pcy1xdWFudHVtLWNvbXB1dGluZy10aGUtbmV4dC10ZWNobm9sb2dpY2FsLWZyb250aWVyL2FyLUJCMW5sRFBtP2l0ZW09ZmxpZ2h0cyUzQXByZy10aXBzdWJzYy12MWEmb2NpZD13aW5kaXJlY3TSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
+          <t>MIT's Diamond Qubits Redefine Future of Quantum Computing</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>2024-07-04 14:33:48.784190</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiXWh0dHBzOi8vYW5hLmlyL2VuL25ld3MvNjM4NS9taXQlRTIlODAlOTlzLWRpYW1vbmQtcXViaXRzLXJlZGVmaW5lLWZ1dHVyZS1vZi1xdWFudHVtLWNvbXB1dGluZ9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Portable Biological Feedback Instrument for Pelvic Floor Treatment Market See Huge Growth for New Normal | Thought ...</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>2024-07-04 14:33:48.784190</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMizAFodHRwczovL3d3dy50aGVpbmRpYW5tb3ZpZWNoYW5uZWwuY29tL21lZGlhL3BvcnRhYmxlLWJpb2xvZ2ljYWwtZmVlZGJhY2staW5zdHJ1bWVudC1mb3ItcGVsdmljLWZsb29yLXRyZWF0bWVudC1tYXJrZXQtc2VlLWh1Z2UtZ3Jvd3RoLWZvci1uZXctbm9ybWFsLXRob3VnaHQtdGVjaG5vbG9neS1sYWJvcmllLXF1YW50dW0td29ybGQtdmlzaW9uLzI2NzUzOS_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>The Future of AI Scaling: Quantum Computing and Deductive Reasoning</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>2024-07-04 14:33:48.784190</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMia2h0dHBzOi8vd3d3Lmdsb2JhbHZpbGxhZ2VzcGFjZS5jb20vdGVjaC90aGUtZnV0dXJlLW9mLWFpLXNjYWxpbmctcXVhbnR1bS1jb21wdXRpbmctYW5kLWRlZHVjdGl2ZS1yZWFzb25pbmcv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>quantum roulette: O site de apostas que vai te conquistar!</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>2024-07-04 14:33:48.784190</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiZ2h0dHBzOi8vZWplZi50am1nLmp1cy5ici8_ZG93bmxvYWQ9MjAyNDA3MDVyZXN1bHRhZG8lMjBkbyUyMGpvZ28lMjBkbyUyMGJpY2hvJTIwcGFyYSUyMHRvZGElMjBiYWhpYS5odG3SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>TII to convene the world’s leading quantum researchers at the TII Quantum Technology Symposium</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>2024-07-04 14:33:48.784190</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMipAFodHRwczovL3d3dy56YXd5YS5jb20vZW4vcHJlc3MtcmVsZWFzZS9ldmVudHMtYW5kLWNvbmZlcmVuY2VzL3RpaS10by1jb252ZW5lLXRoZS13b3JsZHMtbGVhZGluZy1xdWFudHVtLXJlc2VhcmNoZXJzLWF0LXRoZS10aWktcXVhbnR1bS10ZWNobm9sb2d5LXN5bXBvc2l1bS1pdmg3bWp1ddIBqgFodHRwczovL3d3dy56YXd5YS5jb20vZW4vcHJlc3MtcmVsZWFzZS9ldmVudHMtYW5kLWNvbmZlcmVuY2VzL3RpaS10by1jb252ZW5lLXRoZS13b3JsZHMtbGVhZGluZy1xdWFudHVtLXJlc2VhcmNoZXJzLWF0LXRoZS10aWktcXVhbnR1bS10ZWNobm9sb2d5LXN5bXBvc2l1bS1pdmg3bWp1dT9hbXA9MQ?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Revolutionary Quantum Computing Breakthrough Promises to Redefine Tech Industry – XDigitalNews</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>2024-07-04 14:33:48.784190</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiaWh0dHBzOi8veGRpZ2l0YWxuZXdzLmNvbS9yZXZvbHV0aW9uYXJ5LXF1YW50dW0tY29tcHV0aW5nLWJyZWFrdGhyb3VnaC1wcm9taXNlcy10by1yZWRlZmluZS10ZWNoLWluZHVzdHJ5L9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Global Quantum Dots Market Consumer Protection: Ensuring Quality and Safety – KnowCasino</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>2024-07-04 14:33:48.784190</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMifmh0dHBzOi8vd3d3Lmtub3djYXNpbm8uY28ubnovdGVjaG5vbG9neS1uZXdzL2dsb2JhbC1xdWFudHVtLWRvdHMtbWFya2V0LWNvbnN1bWVyLXByb3RlY3Rpb24tZW5zdXJpbmctcXVhbGl0eS1hbmQtc2FmZXR5LzQzMjU4L9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Quantum Corp's results are impressive – US Post News</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>2024-07-04 14:33:48.784190</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiS2h0dHBzOi8vd3d3LnVzcG9zdG5ld3MuY29tLzIwMjQvMDcvMDQvcXVhbnR1bS1jb3Jwcy1yZXN1bHRzLWFyZS1pbXByZXNzaXZlL9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Quantum Computing and Cryptography Industry Research Study |IBM Corporation, LLC, Intel Corporation</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>2024-07-04 14:33:48.784190</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMikAFodHRwczovL3d3dy5wb3J0c21vdXRoLWRhaWx5dGltZXMuY29tL2NhbGVuZGFyL3F1YW50dW0tY29tcHV0aW5nLWFuZC1jcnlwdG9ncmFwaHktaW5kdXN0cnktcmVzZWFyY2gtc3R1ZHktaWJtLWNvcnBvcmF0aW9uLWxsYy1pbnRlbC1jb3Jwb3JhdGlvbi_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Asia Biofuels &amp; Feedstocks: Indo UCO firms as bids rise, palm oil weighs on China</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>2024-07-04 14:33:48.784190</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMigQFodHRwczovL3d3dy5xY2ludGVsLmNvbS9iaW9mdWVscy9hcnRpY2xlL2FzaWEtYmlvZnVlbHMtZmVlZHN0b2Nrcy1pbmRvLXVjby1maXJtcy1hcy1iaWRzLXJpc2UtcGFsbS1vaWwtd2VpZ2hzLW9uLWNoaW5hLTI2NTUxLmh0bWzSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Biological Stimulation Feedback Instrument for Pelvic Floor Treatment Market Analysis, Research Study With Thought ...</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>2024-07-04 14:33:48.784190</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMizQFodHRwczovL3d3dy50aGVpbmRpYW5tb3ZpZWNoYW5uZWwuY29tL21lZGlhL2Jpb2xvZ2ljYWwtc3RpbXVsYXRpb24tZmVlZGJhY2staW5zdHJ1bWVudC1mb3ItcGVsdmljLWZsb29yLXRyZWF0bWVudC1tYXJrZXQtYW5hbHlzaXMtcmVzZWFyY2gtc3R1ZHktd2l0aC10aG91Z2h0LXRlY2hub2xvZ3ktbGFib3JpZS1xdWFudHVtLXdvcmxkLXZpc2lvbi8yNjc1Mzgv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Scientists have created a five-lane quantum superhighway for electrons</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>2024-07-04 14:33:48.784190</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiZGh0dHBzOi8vbmV3c3lvdS5pbmZvL2VuLzIwMjQvMDcvdmNoZW5pLXN0dm9yaWxpLXB5YXRpc211Z292dS1rdmFudG92dS1zdXBlcm1hZ2lzdHJhbC1kbHlhLWVsZWt0cm9uaXbSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Quantum Cryptography and Encryption Market Emerging Trends | participants KETS Quantum Security, PQShield ...</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>2024-07-04 14:33:48.784190</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMikgFodHRwczovL2Vjb25vbWljYS5tYS93b3JsZHdpZGUvcXVhbnR1bS1jcnlwdG9ncmFwaHktYW5kLWVuY3J5cHRpb24tbWFya2V0LWVtZXJnaW5nLXRyZW5kcy1wYXJ0aWNpcGFudHMta2V0cy1xdWFudHVtLXNlY3VyaXR5LXBxc2hpZWxkLXFyeXB0LzQ0ODQxL9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Time Crystals Could Be the Circuit Boards of Future Quantum Computers</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>2024-07-04 14:33:48.784190</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMibWh0dHBzOi8vd3d3LmNvYXN0dG9jb2FzdGFtLmNvbS9hcnRpY2xlL3RpbWUtY3J5c3RhbHMtY291bGQtYmUtdGhlLWNpcmN1aXQtYm9hcmRzLW9mLWZ1dHVyZS1xdWFudHVtLWNvbXB1dGVycy_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>What is Arqit Quantum Inc (ARQQ) Stock Return on Shareholders' Capital? – Sete News</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>2024-07-04 14:33:48.784190</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiaGh0dHBzOi8vd3d3LnNldGVuZXdzLmNvbS8yMDI0LzA3LzA0L3doYXQtaXMtYXJxaXQtcXVhbnR1bS1pbmMtYXJxcS1zdG9jay1yZXR1cm4tb24tc2hhcmVob2xkZXJzLWNhcGl0YWwv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Financial Snapshot: Analyzing Arqit Quantum Inc (ARQQ)'s Key Ratio Metrics – DWinneX</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>2024-07-04 14:33:48.784190</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiW2h0dHBzOi8vZHdpbm5leC5jb20vZmluYW5jaWFsLXNuYXBzaG90LWFuYWx5emluZy1hcnFpdC1xdWFudHVtLWluYy1hcnFxcy1rZXktcmF0aW8tbWV0cmljcy_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Investor's Toolkit: Key Ratios for Assessing Quantum Corp (QMCO)'s Performance – DWinneX</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>2024-07-04 14:33:48.784190</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiXmh0dHBzOi8vZHdpbm5leC5jb20vaW52ZXN0b3JzLXRvb2xraXQta2V5LXJhdGlvcy1mb3ItYXNzZXNzaW5nLXF1YW50dW0tY29ycC1xbWNvcy1wZXJmb3JtYW5jZS_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Scientists Tap Into 2 New Quantum Techniques To Capture Darkish Issue Suspects</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>2024-07-04 14:33:48.787794</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMicGh0dHBzOi8vZW4ubmV3czRzb2NpYWwuY29tL3NwYWNlL3NjaWVudGlzdHMtdGFwLWludG8tMi1uZXctcXVhbnR1bS10ZWNobmlxdWVzLXRvLWNhcHR1cmUtZGFya2lzaC1pc3N1ZS1zdXNwZWN0cy_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Hunt to launch 'moonshot' quantum supercomputing programme in Autumn Statement</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>2024-07-04 14:51:36.701996</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiVmh0dHBzOi8vY2EubW92aWVzLnlhaG9vLmNvbS9odW50LWxhdW5jaC1tb29uc2hvdC1xdWFudHVtLXN1cGVyY29tcHV0aW5nLTA2MDAwMDg3OS5odG1s0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Photos: Pet Alliance, Quantum Leap Winery kicks off Orlando's cutest pet photo contest</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>2024-07-04 15:33:48.784190</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiSWh0dHBzOi8vd3d3LndmdHYuY29tL25ld3MvcGhvdG9zLXBldC1hbGxpYW5jZS80VTVYWkFYRDZaQzJQSE5HN0I2WDVTTU5ZTS_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Post- Quantum Cryptography Industry Research Study |AMD evolutionQ, ARM, Blackberry OnBoard Security ...</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>2024-07-04 15:33:48.784190</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMigQFodHRwczovL2Vjb25vbWljYS5tYS9uZXdzL3Bvc3QtcXVhbnR1bS1jcnlwdG9ncmFwaHktaW5kdXN0cnktcmVzZWFyY2gtc3R1ZHktYW1kLWV2b2x1dGlvbnEtYXJtLWJsYWNrYmVycnktb25ib2FyZC1zZWN1cml0eS80NDg1OS_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Quantum-inspired modeling of distributed intelligence systems with artificial intelligent agents self-organization ...</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>2024-07-04 15:39:41.649563</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiMmh0dHBzOi8vd3d3Lm5hdHVyZS5jb20vYXJ0aWNsZXMvczQxNTk4LTAyNC02NTY4NC160gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Quantum Computing is Becoming More Accessible as Costs Drop &amp; Cloud Access Expands — Dr. Mark Jackson</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>2024-07-04 15:39:41.661059</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiigFodHRwczovL3RoZXF1YW50dW1pbnNpZGVyLmNvbS8yMDI0LzA3LzA0L3F1YW50dW0tY29tcHV0aW5nLWlzLWJlY29taW5nLW1vcmUtYWNjZXNzaWJsZS1hcy1jb3N0cy1kcm9wLWNsb3VkLWFjY2Vzcy1leHBhbmRzLWRyLW1hcmstamFja3Nvbi_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Pet Alliance, Quantum Leap Winery kicks off Orlando’s cutest pet photo contest</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>2024-07-04 16:33:48.779059</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiiAFodHRwczovL3d3dy53ZnR2LmNvbS9uZXdzL2xvY2FsL3BldC1hbGxpYW5jZS1xdWFudHVtLWxlYXAtd2luZXJ5LWtpY2tzLW9mZi1vcmxhbmRvcy1jdXRlc3QtcGV0LXBob3RvLWNvbnRlc3QvTzJaRldJT0Y0RkNaWktFQ1dRQVZVT0NWTU0v0gGXAWh0dHBzOi8vd3d3LndmdHYuY29tL25ld3MvbG9jYWwvcGV0LWFsbGlhbmNlLXF1YW50dW0tbGVhcC13aW5lcnkta2lja3Mtb2ZmLW9ybGFuZG9zLWN1dGVzdC1wZXQtcGhvdG8tY29udGVzdC9PMlpGV0lPRjRGQ1paS0VDV1FBVlVPQ1ZNTS8_b3V0cHV0VHlwZT1hbXA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Top 10 Ways Advance Quantum Computing Will Have Amazing Benefits In The Evolution Of Blockchain</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>2024-07-04 16:36:30.588372</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiSmh0dHBzOi8vYmxvY2tjaGFpbm1hZ2F6aW5lLm5ldC9jb21wdXRpbmctYmVuZWZpdC10aGUtZXZvbHV0aW9uLWJsb2NrY2hhaW4v0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>HP launches world's first business PC designed to protect firmware against quantum hacking</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>2024-07-04 17:33:48.779059</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMigwJodHRwOi8vd3d3Lm1zbi5jb20vZW4tdXMvbGlmZXN0eWxlL3Nob3BwaW5nL2hwLWxhdW5jaGVzLXdvcmxkLXMtZmlyc3QtYnVzaW5lc3MtcGMtZGVzaWduZWQtdG8tcHJvdGVjdC1maXJtd2FyZS1hZ2FpbnN0LXF1YW50dW0taGFja2luZy9hci1CQjFqSVVLcz9hcGl2ZXJzaW9uPXYyJm5vc2VydmVyY2FjaGU9MSZkb21zaGltPTEmcmVuZGVyd2ViY29tcG9uZW50cz0xJndjc2VvPTEmYmF0Y2hzZXJ2ZXJ0ZWxlbWV0cnk9MSZub3NlcnZlcnRlbGVtZXRyeT0x0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Quantum Maxair Review 2024: Scam or Legit Trading Platform? – Experts Reports!</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>2024-07-04 17:33:48.784190</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiamh0dHBzOi8vcmVnaXN0cm9wb3AuY29tLzIwMjQvMDcvcXVhbnR1bS1tYXhhaXItcmV2aWV3LTIwMjQtc2NhbS1vci1sZWdpdC10cmFkaW5nLXBsYXRmb3JtLWV4cGVydHMtcmVwb3J0cy_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Could quantum physics be the key that unlocks the secrets of human behavior?</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>2024-07-04 18:33:48.779059</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiwwFodHRwczovL3d3dy5tc24uY29tL2VuLXVzL25ld3MvdGVjaG5vbG9neS9jb3VsZC1xdWFudHVtLXBoeXNpY3MtYmUtdGhlLWtleS10aGF0LXVubG9ja3MtdGhlLXNlY3JldHMtb2YtaHVtYW4tYmVoYXZpb3IvYXItQkIxZ1h6eW8_b2NpZD1tc2VkZ250cCZwYz1IQ1RTJmN2aWQ9NzAyN2M0NDc4NTNlNDg2MTkxYzA3YmI2NWY3ZjJlMTcmZWk9MjbSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>ASICS Gel-Quantum 360 VIII Paris - 1203A569-750 Raffles and Release Date</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>2024-07-04 21:33:48.779059</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMibWh0dHBzOi8vd3d3LnNvbGVyZXRyaWV2ZXIuY29tL3NuZWFrZXItcmVsZWFzZS1kYXRlcy9hc2ljcy9vdGhlci9hc2ljcy1nZWwtcXVhbnR1bS0zNjAtdmlpaS1wYXJpcy0xMjAzYTU2OS03NTDSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>‘This isn’t a strip club’: Private members’ club addresses ‘constant disruption’ fears</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>2024-07-04 23:33:48.784190</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMicGh0dHBzOi8vd3d3LmtlbnRvbmxpbmUuY28udWsvdHVuYnJpZGdlLXdlbGxzL25ld3MvdGhpcy1pc24tdC1hLXN0cmlwLWNsdWItcHJpdmF0ZS1tZW1iZXJzLWNsdWItYWRkcmVzc2VzLTMwOTMwNS_SAXRodHRwczovL3d3dy5rZW50b25saW5lLmNvLnVrL3R1bmJyaWRnZS13ZWxscy9uZXdzL2FtcC90aGlzLWlzbi10LWEtc3RyaXAtY2x1Yi1wcml2YXRlLW1lbWJlcnMtY2x1Yi1hZGRyZXNzZXMtMzA5MzA1Lw?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>(PDF) Graphene oxide quantum dots-loaded sinomenine hydrochloride nanocomplexes for effective treatment of ...</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>2024-07-04 23:36:30.588372</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMi-wFodHRwczovL3d3dy5yZXNlYXJjaGdhdGUubmV0L3B1YmxpY2F0aW9uLzM4MTkxNDgxOV9HcmFwaGVuZV9veGlkZV9xdWFudHVtX2RvdHMtbG9hZGVkX3Npbm9tZW5pbmVfaHlkcm9jaGxvcmlkZV9uYW5vY29tcGxleGVzX2Zvcl9lZmZlY3RpdmVfdHJlYXRtZW50X29mX3JoZXVtYXRvaWRfYXJ0aHJpdGlzX3ZpYV9pbmR1Y2luZ19tYWNyb3BoYWdlX3JlcG9sYXJpemF0aW9uX2FuZF9hcnJlc3RpbmdfYWJub3JtYWxfcHJvbGlmZXJhdGlvbl9vZtIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>First Quantum Minerals Ltd. stock falls Friday, underperforms market</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>2024-07-05 00:07:15.710076</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMifmh0dHBzOi8vd3d3Lm1hcmtldHdhdGNoLmNvbS9hbXAvc3RvcnkvZmlyc3QtcXVhbnR1bS1taW5lcmFscy1sdGQtc3RvY2stZmFsbHMtZnJpZGF5LXVuZGVycGVyZm9ybXMtbWFya2V0LTJkZGZhY2FhLTJjMzRkMTc5NjhlZNIBfmh0dHBzOi8vd3d3Lm1hcmtldHdhdGNoLmNvbS9hbXAvc3RvcnkvZmlyc3QtcXVhbnR1bS1taW5lcmFscy1sdGQtc3RvY2stZmFsbHMtZnJpZGF5LXVuZGVycGVyZm9ybXMtbWFya2V0LTJkZGZhY2FhLTJjMzRkMTc5NjhlZA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Germany Unveils Pioneering Ion-Trap Quantum Computing Demonstrator</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>2024-07-05 00:07:15.725688</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMibGh0dHBzOi8vdGhlcXVhbnR1bWluc2lkZXIuY29tLzIwMjQvMDcvMDUvZ2VybWFueS11bnZlaWxzLXBpb25lZXJpbmctaW9uLXRyYXAtcXVhbnR1bS1jb21wdXRpbmctZGVtb25zdHJhdG9yL9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Colorado Rep. Yadira Caraveo Visits CU Boulder to Talk Quantum</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>2024-07-05 00:07:15.757127</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiZ2h0dHBzOi8vdGhlcXVhbnR1bWluc2lkZXIuY29tLzIwMjQvMDcvMDUvY29sb3JhZG8tcmVwLXlhZGlyYS1jYXJhdmVvLXZpc2l0cy1jdS1ib3VsZGVyLXRvLXRhbGstcXVhbnR1bS_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Study Reveals Insights into Electron-on-Solid-Neon Qubits for Quantum Computing</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>2024-07-05 00:07:15.757127</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMirwFodHRwczovL3d3dy5tc24uY29tL2VuLWllL25ld3MvdGVjaGFuZHNjaWVuY2Uvc3R1ZHktcmV2ZWFscy1pbnNpZ2h0cy1pbnRvLWVsZWN0cm9uLW9uLXNvbGlkLW5lb24tcXViaXRzLWZvci1xdWFudHVtLWNvbXB1dGluZy9hci1CQjFwMGVKNj9pdGVtPWZsaWdodHNwcmctdGlwc3Vic2MtdjFhP3NlYXNvbi8v0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Scientists invent tiny device that creates ice-cold electricity for quantum computers</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>2024-07-05 00:07:15.757127</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiOmh0dHBzOi8vc3R1ZHlmaW5kcy5vcmcvY29sZC1lbGVjdHJpY2l0eS1xdWFudHVtLWNvbXB1dGVycy_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Scientists develop quantum tech to hunt for elusive dark matter</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>2024-07-05 00:33:48.779059</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiYmh0dHBzOi8vd3d3Lm5ld3NieXRlc2FwcC5jb20vbmV3cy9zY2llbmNlL3F1YW50dW0tdGVjaG5vbG9neS10by1haWQtaW4tZGFyay1tYXR0ZXItZGV0ZWN0aW9uL3N0b3J50gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Imec consortium realises QKD links for quantum cryptography</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>2024-07-05 00:36:30.588372</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMidGh0dHBzOi8vd3d3LmVsZWN0cm9uaWNzd2Vla2x5LmNvbS91bmNhdGVnb3Jpc2VkL2ltZWMtY29uc29ydGl1bS1yZWFsaXNlcy1xa2QtbGlua3MtZm9yLXF1YW50dW0tY3J5cHRvZ3JhcGh5LTIwMjQtMDcv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>2D Device For Quantum Cooling</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>2024-07-05 01:36:30.585622</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiQWh0dHBzOi8vd3d3Lm1pcmFnZW5ld3MuY29tLzJkLWRldmljZS1mb3ItcXVhbnR1bS1jb29saW5nLTEyNzAwNTMv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>What Is Quantum Computing And Why Is It So Hard To Explain?</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>2024-07-05 01:36:30.588372</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMihgFodHRwczovL3d3dy5tc24uY29tL2VuLWluL25ld3MvdGVjaGFuZHNjaWVuY2Uvd2hhdC1pcy1xdWFudHVtLWNvbXB1dGluZy1hbmQtd2h5LWlzLWl0LXNvLWhhcmQtdG8tZXhwbGFpbi9hci1CQjFvR0tHeT9vY2lkPUJpbmdOZXdzVmVycNIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
           <t>India must build human resources in quantum technology: Principal scientific advisor</t>
         </is>
       </c>
-      <c r="B143" t="inlineStr">
+      <c r="B183" t="inlineStr">
         <is>
           <t>2024-07-05 02:36:30.588372</t>
         </is>
       </c>
-      <c r="C143" t="inlineStr">
+      <c r="C183" t="inlineStr">
         <is>
           <t>news.google.com/articles/CBMilgFodHRwczovL3d3dy5tc24uY29tL2VuLXVzL25ld3MvSW5kaWEvaW5kaWEtbXVzdC1idWlsZC1odW1hbi1yZXNvdXJjZXMtaW4tcXVhbnR1bS10ZWNobm9sb2d5LXByaW5jaXBhbC1zY2llbnRpZmljLWFkdmlzb3IvYXItQkIxcG9rMHM_b2NpZD1CaW5nTmV3c1ZlcnDSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Canmore grad makes quantum leap, bags $100K scholarship</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>2024-07-05 11:48:24.395949</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiiwFodHRwczovL3d3dy50aGVzcGVjLmNvbS9uZXdzL2NhbmFkYS9jYW5tb3JlLWdyYWQtbWFrZXMtcXVhbnR1bS1sZWFwLWJhZ3MtMTAway1zY2hvbGFyc2hpcC9hcnRpY2xlX2M2MTkyMWQxLTA5ZTYtNTNmZi04MDJlLTNhYjNjZjFjYzE3YS5odG1s0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Closing Bell: First Quantum Minerals Ltd down on Friday (FM)</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>2024-07-05 12:46:44.556339</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMijwFodHRwczovL3d3dy50aGVnbG9iZWFuZG1haWwuY29tL2ludmVzdGluZy9tYXJrZXRzL3N0b2Nrcy9GTS1UL3ByZXNzcmVsZWFzZXMvMjcyMzQ0MzkvY2xvc2luZy1iZWxsLWZpcnN0LXF1YW50dW0tbWluZXJhbHMtbHRkLWRvd24tb24tZnJpZGF5LWZtL9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Researchers a 2D device for quantum cooling</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>2024-07-05 12:46:44.566847</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiQ2h0dHBzOi8vd3d3LmdyYXBoZW5lLWluZm8uY29tL3Jlc2VhcmNoZXJzLTJkLWRldmljZS1xdWFudHVtLWNvb2xpbmfSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Enhancing the expressivity of quantum neural networks with residual connections</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>2024-07-05 13:10:37.429449</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiMmh0dHBzOi8vd3d3Lm5hdHVyZS5jb20vYXJ0aWNsZXMvczQyMDA1LTAyNC0wMTcxOS0x0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Thoughts from Haiqu Co-founder Mykola Maksymenko On Quantum Computing’s Future Trajectory</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>2024-07-05 13:10:37.429449</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiggFodHRwczovL3RoZXF1YW50dW1pbnNpZGVyLmNvbS8yMDI0LzA3LzA1L3Rob3VnaHRzLWZyb20taGFpcXUtY28tZm91bmRlci1teWtvbGEtbWFrc3ltZW5rby1vbi1xdWFudHVtLWNvbXB1dGluZ3MtZnV0dXJlLXRyYWplY3Rvcnkv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Topic: Defence Innovation Accelerator for the North Atlantic (DIANA)</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>2024-07-05 13:10:37.434564</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiNGh0dHBzOi8vd3d3Lm5hdG8uaW50L2Nwcy9lbi9uYXRvaHEvdG9waWNzXzIxNjE5OS5odG3SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Novel 2D device for quantum cooling converts heat to voltage at ultra-low temperatures</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>2024-07-05 13:11:25.852337</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiRGh0dHBzOi8vcGh5cy5vcmcvbmV3cy8yMDI0LTA3LTJkLWRldmljZS1xdWFudHVtLWNvb2xpbmctdm9sdGFnZS5odG1s0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>UNBC assistant professor makes groundbreaking discovery in the field of quantum physics</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>2024-07-05 13:17:59.583994</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMieGh0dHBzOi8vY2twZ3RvZGF5LmNhLzIwMjQvMDcvMDUvdW5iYy1hc3Npc3RhbnQtcHJvZmVzc29yLW1ha2VzLWdyb3VuZGJyZWFraW5nLWRpc2NvdmVyeS1pbi10aGUtZmllbGQtb2YtcXVhbnR1bS1waHlzaWNzL9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Quantum Rise grabs $15M seed for its AI-driven ‘Consulting 2.0’ startup</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>2024-07-05 13:17:59.592145</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiZ2h0dHBzOi8vdGVjaGNydW5jaC5jb20vMjAyNC8wNy8wNS9xdWFudHVtLXJpc2UtZ3JhYnMtMTVtLXNlZWQtZm9yLWl0cy1haS1kcml2ZW4tY29uc3VsdGluZy0yLTAtc3RhcnR1cC_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Enhancing the expressivity of quantum neural networks with residual connections | Communications Physics</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>2024-07-05 13:17:59.597156</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiMmh0dHBzOi8vd3d3Lm5hdHVyZS5jb20vYXJ0aWNsZXMvczQyMDA1LTAyNC0wMTcxOS0x0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Thoughts from Haiqu Co-founder Mykola Maksymenko On Quantum Computing's Future Trajectory</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>2024-07-05 13:17:59.602395</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiggFodHRwczovL3RoZXF1YW50dW1pbnNpZGVyLmNvbS8yMDI0LzA3LzA1L3Rob3VnaHRzLWZyb20taGFpcXUtY28tZm91bmRlci1teWtvbGEtbWFrc3ltZW5rby1vbi1xdWFudHVtLWNvbXB1dGluZ3MtZnV0dXJlLXRyYWplY3Rvcnkv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Fujitsu and ANU Collaborate to Establish World-Leading Quantum Computing Research Center in Australia</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>2024-07-05 13:17:59.602395</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiiQFodHRwczovL3F1YW50dW1jb21wdXRpbmdyZXBvcnQuY29tL2Z1aml0c3UtYW5kLWFudS1jb2xsYWJvcmF0ZS10by1lc3RhYmxpc2gtd29ybGQtbGVhZGluZy1xdWFudHVtLWNvbXB1dGluZy1yZXNlYXJjaC1jZW50ZXItaW4tYXVzdHJhbGlhL9IBjQFodHRwczovL3F1YW50dW1jb21wdXRpbmdyZXBvcnQuY29tL2Z1aml0c3UtYW5kLWFudS1jb2xsYWJvcmF0ZS10by1lc3RhYmxpc2gtd29ybGQtbGVhZGluZy1xdWFudHVtLWNvbXB1dGluZy1yZXNlYXJjaC1jZW50ZXItaW4tYXVzdHJhbGlhL2FtcC8?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Defence Innovation Accelerator for the North Atlantic (DIANA)</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>2024-07-05 13:17:59.612138</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiNGh0dHBzOi8vd3d3Lm5hdG8uaW50L2Nwcy9lbi9uYXRvaHEvdG9waWNzXzIxNjE5OS5odG3SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>TSX adds to monthly decline as First Quantum slides</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>2024-07-05 13:17:59.612138</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiR2h0dHBzOi8vY2EubmV3cy55YWhvby5jb20vdHN4LWZ1dHVyZXMtcmlzZS1haGVhZC1jcnVjaWFsLTExMjUwNDEzMi5odG1s0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Mining chamber urges officials to resume dialogue with First Quantum on Cobre Panamá</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>2024-07-05 13:17:59.612138</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMifGh0dHBzOi8vd3d3LmJuYW1lcmljYXMuY29tL2VuL25ld3MvbWluaW5nLWNoYW1iZXItdXJnZXMtb2ZmaWNpYWxzLXRvLXJlc3VtZS1kaWFsb2d1ZS13aXRoLWZpcnN0LXF1YW50dW0tb24tY29icmUtcGFuYW1hLW1pbmXSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Ultra-Cold Quantum Cooling Breakthrough: New 2D Device Could Revolutionize Quantum Computing</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>2024-07-05 13:17:59.628457</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMie2h0dHBzOi8vc2NpZW5jZWJsb2cuY29tLzU0NTc3My91bHRyYS1jb2xkLXF1YW50dW0tY29vbGluZy1icmVha3Rocm91Z2gtbmV3LTJkLWRldmljZS1jb3VsZC1yZXZvbHV0aW9uaXplLXF1YW50dW0tY29tcHV0aW5nL9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Governments agree on top-secret controls on quantum computers</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>2024-07-05 13:17:59.632532</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiXWh0dHBzOi8vZnVkemlsbGEuY29tL25ld3MvNTkyOTgtZ292ZXJubWVudHMtYWdyZWUtb24tdG9wLXNlY3JldC1jb250cm9scy1vbi1xdWFudHVtLWNvbXB1dGVyc9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Quantum Leap has future revealed after two seasons</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>2024-07-05 13:17:59.632718</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiSWh0dHBzOi8vdWsubmV3cy55YWhvby5jb20vcXVhbnR1bS1sZWFwLWZ1dHVyZS1yZXZlYWxlZC10d28tMTYyNTAwODc0Lmh0bWzSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Is mathematical rigour key for scientific certainty? | Timothy Nguyen</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>2024-07-05 13:17:59.632718</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiVWh0dHBzOi8vaWFpLnR2L2FydGljbGVzL2lzLW1hdGhlbWF0aWNhbC1yaWdvdXIta2V5LWZvci1zY2llbnRpZmljLWNlcnRhaW50eS1hdWlkLTI4ODTSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>The Art of Quantum Forces - Nautilus</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>2024-07-05 13:17:59.632718</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiM2h0dHBzOi8vbmF1dGlsLnVzL3RoZS1hcnQtb2YtcXVhbnR1bS1mb3JjZXMtNjk4NDk1L9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>World's coldest quantum detectors enlisted in dark matter hunt</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>2024-07-05 13:17:59.637278</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiZWh0dHBzOi8vd3d3LmVhcnRoLmNvbS9uZXdzL2NvbGRlc3QtcXVhbnR1bS1kZXRlY3RvcnMtaW4tdGhlLXdvcmxkLWVubGlzdGVkLXRvLXNlYXJjaC1mb3ItZGFyay1tYXR0ZXIv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>AI, quantum computing and tokenisation set to transform finance – Menon</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>2024-07-05 13:17:59.637278</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMic2h0dHBzOi8vd3d3LmNlbnRyYWxiYW5raW5nLmNvbS9maW50ZWNoLzc5NjE1ODkvYWktcXVhbnR1bS1jb21wdXRpbmctYW5kLXRva2VuaXNhdGlvbi1zZXQtdG8tdHJhbnNmb3JtLWZpbmFuY2UtbWVub27SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>2D cooling for quantum processors ...</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>2024-07-05 13:17:59.642534</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiQmh0dHBzOi8vd3d3LmVlbmV3c2V1cm9wZS5jb20vZW4vMmQtY29vbGluZy1mb3ItcXVhbnR1bS1wcm9jZXNzb3JzL9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Quantum-Si (NASDAQ:QSI) Trading Down 2.8%</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>2024-07-06 01:07:15.741317</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiUmh0dHBzOi8vd3d3LmRlZmVuc2V3b3JsZC5uZXQvMjAyNC8wNy8wNi9xdWFudHVtLXNpLW5hc2RhcXFzaS10cmFkaW5nLWRvd24tMi04Lmh0bWzSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Press Release: A 2D device for quantum cooling:EPFL engineers have created a device that can efficiently convert ...</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>2024-07-06 02:07:15.748973</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiNGh0dHBzOi8vd3d3Lm5hbm90ZWNoLW5vdy5jb20vbmV3cy5jZ2k_c3RvcnlfaWQ9NTc0OTfSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Quantum Information Processing Market Is in Huge Demand:1QB Information Technologies, Airbus, Anyon Systems ...</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>2024-07-06 08:34:24.577709</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMitwFodHRwczovL3d3dy5rbm93Y2FzaW5vLmNvLm56L3VuY2F0ZWdvcmlzZWQvcXVhbnR1bS1pbmZvcm1hdGlvbi1wcm9jZXNzaW5nLW1hcmtldC1pcy1pbi1odWdlLWRlbWFuZDFxYi1pbmZvcm1hdGlvbi10ZWNobm9sb2dpZXMtYWlyYnVzLWFueW9uLXN5c3RlbXMtY2FtYnJpZGdlLXF1YW50dW0tY29tcHV0aW4tMi85MDM5Mi_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Superposition Guy's Podcast -- Nardo Manoloto, managing partner of Qubits Ventures The Superposition Guy's ...</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>2024-07-06 09:34:24.577709</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMid2h0dHBzOi8vdGhlcXVhbnR1bWluc2lkZXIuY29tLzIwMjQvMDcvMDYvc3VwZXJwb3NpdGlvbi1ndXlzLXBvZGNhc3QtbmFyZG8tbWFub2xvdG8tbWFuYWdpbmctcGFydG5lci1vZi1xdWJpdHMtdmVudHVyZXMv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Quantum Control Software Market See Huge Growth for New Normal | Classiq, Keysight, M-Labs, Qblox – TIMC</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>2024-07-06 10:34:24.577709</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMikAFodHRwczovL3d3dy50aGVpbmRpYW5tb3ZpZWNoYW5uZWwuY29tL21lZGlhL3F1YW50dW0tY29udHJvbC1zb2Z0d2FyZS1tYXJrZXQtc2VlLWh1Z2UtZ3Jvd3RoLWZvci1uZXctbm9ybWFsLWNsYXNzaXEta2V5c2lnaHQtbS1sYWJzLXFibG94LzI4MTQ1MC_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Digital Printing for Advertising Market Growth Report |DuPont, Eastman Kodak, HP, Mondi Group, Quad Graphics ...</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>2024-07-06 11:34:24.577709</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMipAFodHRwczovL3d3dy5rbm93Y2FzaW5vLmNvLm56L3VuY2F0ZWdvcmlzZWQvZGlnaXRhbC1wcmludGluZy1mb3ItYWR2ZXJ0aXNpbmctbWFya2V0LWdyb3d0aC1yZXBvcnQtZHVwb250LWVhc3RtYW4ta29kYWstaHAtbW9uZGktZ3JvdXAtcXVhZC1ncmFwaGljcy1xdWFudHVtLXByLzkxOTcwL9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Researchers achieve high quantum yield in photocatalytic water splitting</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>2024-07-06 13:17:38.521458</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiyQFodHRwczovL3d3dy5tc24uY29tL2VuLXVzL25ld3MvdGVjaG5vbG9neS9yZXNlYXJjaGVycy1hY2hpZXZlLWhpZ2gtcXVhbnR1bS15aWVsZC1pbi1waG90b2NhdGFseXRpYy13YXRlci1zcGxpdHRpbmcvYXItQkIxcDR1MHc_aXRlbT1mbGlnaHRzJTNDaW1nJTIwc3JjJml0ZW09ZmxpZ2h0cyUzQ2ltZyUyMHNyYyZpdGVtPWZsaWdodHMlM0NpbWclMjBzcmPSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Kovack Advisors Inc. Has $157000 Stock Position in Quantum Co. (NASDAQ:QMCO)</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>2024-07-06 13:17:38.521458</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMic2h0dHBzOi8vd3d3LmRlZmVuc2V3b3JsZC5uZXQvMjAyNC8wNy8wNi9rb3ZhY2stYWR2aXNvcnMtaW5jLWhhcy0xNTcwMDAtc3RvY2stcG9zaXRpb24taW4tcXVhbnR1bS1jby1uYXNkYXFxbWNvLmh0bWzSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Look out, Michelle Simmons is about to make AI go even faster</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>2024-07-06 13:17:38.521458</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiWWh0dHBzOi8vd3d3LmZvcmJlcy5jb20uYXUvY292ZXJzL2lubm92YXRpb24vbG9vay1vdXQtaGVyZS1jb21lcy1hLXF1YW50dW0tYWktYWNjZWxlcmF0b3Iv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Quantum Computing: Insights From a Senior Research Scientist - BBJ</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>2024-07-06 13:17:38.521458</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiYGh0dHBzOi8vYmJqLmh1L2J1c2luZXNzL3RlY2gvc2NpZW5jZS9xdWFudHVtLWNvbXB1dGluZy1pbnNpZ2h0cy1mcm9tLWEtc2VuaW9yLXJlc2VhcmNoLXNjaWVudGlzdNIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Quantum entanglement measures Earth's spin with never-before-seen accuracy</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>2024-07-06 13:17:38.521458</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMi6AFodHRwczovL3d3dy5tc24uY29tL2VuLXVzL25ld3MvdGVjaG5vbG9neS9xdWFudHVtLWVudGFuZ2xlbWVudC1tZWFzdXJlcy1lYXJ0aC1zLXNwaW4td2l0aC1uZXZlci1iZWZvcmUtc2Vlbi1hY2N1cmFjeS9hci1CQjFvZjZWZj9pdGVtPWZsaWdodHMlM0NpbWclMjBzcmM9Jml0ZW09ZmxpZ2h0cyUzQ2ltZyUyMHNyYz0maXRlbT1mbGlnaHRzJTNDaW1nJTIwc3JjPSZpdGVtPWZsaWdodHMlM0NpbWclMjBzcmM90gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Are we prepped for Quantum computing? - Dhaka</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>2024-07-06 13:17:38.531298</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiKWh0dHBzOi8vb2JzZXJ2ZXJiZC5jb20vbmV3cy5waHA_aWQ9NDgwMDk50gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Quantum Machine Learning and the Future of AI</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>2024-07-06 13:17:38.531298</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiaGh0dHBzOi8vd3d3LmFuYWx5dGljc2luc2lnaHQubmV0L2FydGlmaWNpYWwtaW50ZWxsaWdlbmNlL3F1YW50dW0tbWFjaGluZS1sZWFybmluZy1hbmQtdGhlLWZ1dHVyZS1vZi1haS0y0gFyaHR0cHM6Ly93d3cuYW5hbHl0aWNzaW5zaWdodC5uZXQvYW1wL3N0b3J5L2FydGlmaWNpYWwtaW50ZWxsaWdlbmNlL3F1YW50dW0tbWFjaGluZS1sZWFybmluZy1hbmQtdGhlLWZ1dHVyZS1vZi1haS0y?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>University of Copenhagen and MIT Partner for Transatlantic Quantum Computing Research</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>2024-07-06 13:17:38.531298</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMidWh0dHBzOi8vaW5kaWFlZHVjYXRpb25kaWFyeS5pbi91bml2ZXJzaXR5LW9mLWNvcGVuaGFnZW4tYW5kLW1pdC1wYXJ0bmVyLWZvci10cmFuc2F0bGFudGljLXF1YW50dW0tY29tcHV0aW5nLXJlc2VhcmNoL9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Vibrating atoms are seen 'tuning' the energy of a single electron</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>2024-07-06 13:17:38.531298</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiigFodHRwczovL3d3dy5tc24uY29tL2VuLXVzL25ld3MvdGVjaG5vbG9neS92aWJyYXRpbmctYXRvbXMtYXJlLXNlZW4tdHVuaW5nLXRoZS1lbmVyZ3ktb2YtYS1zaW5nbGUtZWxlY3Ryb24vYXItQkIxazc0Qk4_b2NpZD1mZWVkc2Fuc2FydGljbGXSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Tinashe Announces 'Quantum Baby' Release Date, Shares New Song 'Getting No Sleep'</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>2024-07-06 13:17:38.531298</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMimwFodHRwczovL3d3dy5tc24uY29tL2VuLXVzL21vbmV5L290aGVyL3RpbmFzaGUtYW5ub3VuY2VzLXF1YW50dW0tYmFieS1yZWxlYXNlLWRhdGUtc2hhcmVzLW5ldy1zb25nLWdldHRpbmctbm8tc2xlZXAvYXItQkIxcDRrOEc_aXRlbT1mbGlnaHRzcHJnLXRpcHN1YnNjLXYxYdIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>'It's ultimately about predicting everything'—theory could be a map in the hunt for quantum materials</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>2024-07-06 13:17:38.541347</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMivwFodHRwczovL3d3dy5tc24uY29tL2VuLXVzL25ld3MvdGVjaG5vbG9neS9pdC1zLXVsdGltYXRlbHktYWJvdXQtcHJlZGljdGluZy1ldmVyeXRoaW5nLXRoZW9yeS1jb3VsZC1iZS1hLW1hcC1pbi10aGUtaHVudC1mb3ItcXVhbnR1bS1tYXRlcmlhbHMvYXItQkIxbDRQbGQ_aXRlbT1mbGlnaHRzcHJnLXRpcHN1YnNjLXYxYT9zZWFzb24vL9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>'Capital of quantum': Colorado receiving $40.5M to grow tech hub</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>2024-07-06 13:17:38.541347</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMigQFodHRwczovL3d3dy5tc24uY29tL2VuLXVzL25ld3MvcG9saXRpY3MvY2FwaXRhbC1vZi1xdWFudHVtLWNvbG9yYWRvLXJlY2VpdmluZy00MDVtLXRvLWdyb3ctdGVjaC1odWIvYXItQkIxcGljSFg_b2NpZD1CaW5nTmV3c1ZlcnDSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>How to Choose the Right TV: Quantum Dots, HDR, and More in 2024</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>2024-07-06 13:17:59.583994</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiNGh0dHBzOi8vd3d3LndpcmVkLmNvbS9zdG9yeS9ob3ctdG8tYnV5LXRoZS1yaWdodC10di_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>A 2D Device May Help Quantum Computers Stay Cool</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>2024-07-06 13:17:59.592145</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiWmh0dHBzOi8vdGhlcXVhbnR1bWluc2lkZXIuY29tLzIwMjQvMDcvMDYvYS0yZC1kZXZpY2UtbWF5LWhlbHAtcXVhbnR1bS1jb21wdXRlcnMtc3RheS1jb29sL9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Beyond Local: Alberta grad makes quantum leap, bags $100K scholarship</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>2024-07-06 13:17:59.592145</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiZmh0dHBzOi8vd3d3LnRoZWFsYmVydGFuLmNvbS9iZXlvbmQtbG9jYWwvYWxiZXJ0YS1ncmFkLW1ha2VzLXF1YW50dW0tbGVhcC1iYWdzLTEwMGstc2Nob2xhcnNoaXAtOTE4NTgwM9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>University of Hamburg, Lufthansa Say Quantum Algorithms for Airport Operations Ready For Takeoff</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>2024-07-06 13:17:59.602395</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiiQFodHRwczovL3RoZXF1YW50dW1pbnNpZGVyLmNvbS8yMDI0LzA3LzA2L3VuaXZlcnNpdHktb2YtaGFtYnVyZy1sdWZ0aGFuc2Etc2F5LXF1YW50dW0tYWxnb3JpdGhtcy1mb3ItYWlycG9ydC1vcGVyYXRpb25zLXJlYWR5LWZvci10YWtlb2ZmL9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>New bill would nix blood quantum rule for St. Regis Mohawk Tribal members at border crossings</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>2024-07-06 13:17:59.602395</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMingFodHRwczovL3d3dy5ub3J0aGNvdW50cnlwdWJsaWNyYWRpby5vcmcvbmV3cy9zdG9yeS81MDExMy8yMDI0MDcwNi9uZXctYmlsbC13b3VsZC1uaXgtYmxvb2QtcXVhbnR1bS1ydWxlLWZvci1zdC1yZWdpcy1tb2hhd2stdHJpYmFsLW1lbWJlcnMtYXQtYm9yZGVyLWNyb3NzaW5nc9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>'Artificial atoms' help achieve secure real-world quantum communication</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>2024-07-06 13:17:59.612138</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiTGh0dHBzOi8vaW50ZXJlc3RpbmdlbmdpbmVlcmluZy5jb20vc2NpZW5jZS9zZWN1cmUtY29tbXVuaWNhdGlvbi1xdWFudHVtLWRvdHPSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>2D device turns heat into electricity, can keep quantum ops cool</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>2024-07-06 13:17:59.622300</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiU2h0dHBzOi8vaW50ZXJlc3RpbmdlbmdpbmVlcmluZy5jb20vaW5ub3ZhdGlvbi8yZC1kZXZpY2Uta2VlcC1xdWFudHVtLWNvbXB1dGVycy1jb29s0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>IBM Stock: Quantum Computing, Growth And Dividends (NYSE:IBM)</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>2024-07-06 13:17:59.622300</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiU2h0dHBzOi8vc2Vla2luZ2FscGhhLmNvbS9hcnRpY2xlLzQ3MDI2OTQtaWJtLXF1YW50dW0tY29tcHV0aW5nLWdyb3d0aC1hbmQtZGl2aWRlbmRz0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Mysterious quantum computing restrictions spread across multiple nations — UK cites national security risks and ...</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>2024-07-06 13:17:59.632718</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMivwFodHRwczovL3d3dy50b21zaGFyZHdhcmUuY29tL3RlY2gtaW5kdXN0cnkvcXVhbnR1bS1jb21wdXRpbmcvbXlzdGVyaW91cy1xdWFudHVtLWNvbXB1dGluZy1yZXN0cmljdGlvbnMtc3ByZWFkLWFjcm9zcy1tdWx0aXBsZS1uYXRpb25zLXVrLWNpdGVzLW5hdGlvbmFsLXNlY3VyaXR5LXJpc2tzLWFuZC1yZWZ1c2VzLXRvLWVsYWJvcmF0ZdIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Quantum-Si (NASDAQ:QSI) Shares Down 2.8%</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>2024-07-06 13:17:59.646853</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiUGh0dHBzOi8vd3d3Lm1hcmtldGJlYXQuY29tL2luc3RhbnQtYWxlcnRzL25hc2RhcS1xc2ktcGVyY2VudC1kZWNsaW5lLTIwMjQtMDctMDYv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>'Artificial atoms' help achieve ultra-secure real-world quantum communication</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>2024-07-06 13:17:59.649189</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiyAFodHRwczovL3d3dy5tc24uY29tL2VuLXVzL25ld3MvdGVjaG5vbG9neS9hcnRpZmljaWFsLWF0b21zLWhlbHAtYWNoaWV2ZS11bHRyYS1zZWN1cmUtcmVhbC13b3JsZC1xdWFudHVtLWNvbW11bmljYXRpb24vYXItQkIxcHdsSWU_aXRlbT1mbGlnaHRzcHJnLXRpcHN1YnNjLXYxYT9zZWFzb244OWMyNmQxY2UxOTY0OWFiOGM2YjFlYTY5MDRkZTQxOXRoddIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Brice Turang has taken a quantum leap for the Brewers</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>2024-07-06 13:17:59.653961</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMif2h0dHBzOi8vd3d3Lmpzb25saW5lLmNvbS9zdG9yeS9zcG9ydHMvbWxiL2JyZXdlcnMvMjAyNC8wNy8wNi9icmljZS10dXJhbmctaGFzLXRha2VuLWEtcXVhbnR1bS1sZWFwLWZvci10aGUtYnJld2Vycy83NDMwMDQ4NjAwNy_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>I'll Bet You Missed the 'Animal House' Easter Egg in This MCU Movie</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>2024-07-06 17:34:24.577709</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiTmh0dHBzOi8vY29sbGlkZXIuY29tL2FudC1tYW4tYW5kLXRoZS13YXNwLXF1YW50dW1hbmlhLWFuaW1hbC1ob3VzZS1lYXN0ZXItZWdnL9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>How to Watch Guardians vs. Giants on TV or Streaming Live - Sunday, July 7</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>2024-07-06 18:34:24.577709</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiXGh0dHBzOi8vY29tbXVuaXR5LnRyaWJsaXZlLmNvbS9jL3BsdW0tYWR2YW5jZS1sZWFkZXIvc3BvcnRzLzcxMmI4MzBjMWM3YjYyYmIwYTBiYWRjN2QyNDRkMzdk0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Russia won't send wrestlers to Paris Olympics as neutrals</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>2024-07-06 18:34:24.577709</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiXGh0dHBzOi8vY29tbXVuaXR5LnRyaWJsaXZlLmNvbS9jL3BsdW0tYWR2YW5jZS1sZWFkZXIvc3BvcnRzLzNiYmFjNWQ2ZjhkODcxZmY2YjlmNDVjOGQ4YTExMmFj0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Unlocking the Quantum Potential: Exploring Defects in Hexagonal Boron Nitride</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>2024-07-06 21:34:24.577709</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMia2h0dHBzOi8vZXZyaW1hZ2FjaS5vcmcvdHBnL3VubG9ja2luZy10aGUtcXVhbnR1bS1wb3RlbnRpYWwtZXhwbG9yaW5nLWRlZmVjdHMtaW4taGV4YWdvbmFsLWJvcm9uLW5pdHJpZGUtMjAz0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>quantum-dot light-emitting diodes with strong quantum confinement</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>2024-07-07 13:05:41.736697</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiMmh0dHBzOi8vd3d3Lm5hdHVyZS5jb20vYXJ0aWNsZXMvczQxNDY3LTAyNC01MDAyMi040gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Turning Heat into Electricity to Keep Quantum Computers Cool</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>2024-07-07 13:05:41.740696</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiIWh0dHBzOi8vaS1obHMuY29tL2FyY2hpdmVzLzEyNDUzMNIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Quantum Annealing Equipment Market Growing Massively by-D-Wave, NTT, Rigetti, Hitachi, NEC Corporation, Fujitsu</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>2024-07-07 13:05:41.743834</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMingFodHRwczovL3d3dy5rbm93Y2FzaW5vLmNvLm56L3VuY2F0ZWdvcmlzZWQvcXVhbnR1bS1hbm5lYWxpbmctZXF1aXBtZW50LW1hcmtldC1ncm93aW5nLW1hc3NpdmVseS1ieS1kLXdhdmUtbnR0LXJpZ2V0dGktaGl0YWNoaS1uZWMtY29ycG9yYXRpb24tZnVqaXRzdS0yLzk2OTMwL9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>She-says/He-says Battle of the Movies: Lucy says 1+1 never equals 2, Terrence says 1x1=2</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>2024-07-07 13:17:38.507238</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMid2h0dHBzOi8vd3d3LnJlc2VhcmNoZ2F0ZS5uZXQvcG9zdC9TaGUtc2F5c19IZS1zYXlzX0JhdHRsZV9vZl90aGVfTW92aWVzX0x1Y3lfc2F5c18xXzFfbmV2ZXJfZXF1YWxzXzJfVGVycmVuY2Vfc2F5c18xeDEy0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Ships in port for the week of July 6</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>2024-07-07 13:17:38.521458</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiR2h0dHBzOi8vd3d3Lmp1bmVhdWVtcGlyZS5jb20vbmV3cy9zaGlwcy1pbi1wb3J0LWZvci10aGUtd2Vlay1vZi1qdWx5LTYv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>James Bond: Gemma Arterton wants a 'young actor of colour' as the next 007</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>2024-07-07 13:17:38.521458</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiW2h0dHBzOi8vdWsubW92aWVzLnlhaG9vLmNvbS9qYW1lcy1ib25kLWdlbW1hLWFydGVydG9uLXlvdW5nLWFjdG9yLWNvbG91ci0wMDctMTY0NTEzODcxLmh0bWzSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Colorado scores win in race to become global hub for quantum technology</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>2024-07-07 13:17:38.521458</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMi_wFodHRwOi8vd3d3Lm1zbi5jb20vZW4tdXMvbmV3cy90ZWNobm9sb2d5L2NvbG9yYWRvLXNjb3Jlcy13aW4taW4tcmFjZS10by1iZWNvbWUtZ2xvYmFsLWh1Yi1mb3ItcXVhbnR1bS10ZWNobm9sb2d5L2FyLUJCMXBtTTd3P29jaWQ9QmluZ05ld3NWZXJwJmFwaXZlcnNpb249djImbm9zZXJ2ZXJjYWNoZT0xJmRvbXNoaW09MSZyZW5kZXJ3ZWJjb21wb25lbnRzPTEmd2NzZW89MSZiYXRjaHNlcnZlcnRlbGVtZXRyeT0xJm5vc2VydmVydGVsZW1ldHJ5PTHSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Quantum physics "accidentally" unveils a new representation of π (Pi)</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>2024-07-07 13:17:38.521458</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMivQFodHRwczovL3d3dy5tc24uY29tL2VuLXVzL21vbmV5L2NhcmVlcnNhbmRlZHVjYXRpb24vcXVhbnR1bS1waHlzaWNzLWFjY2lkZW50YWxseS11bnZlaWxzLWEtbmV3LXJlcHJlc2VudGF0aW9uLW9mLSVDRiU4MC1waS9hci1CQjFwbk1sVj9pdGVtPXRoZW1lZF9mZWF0dXJlZGFwcHNfZW5hYmxlRD9sb2FkSW49ZGVmYXVsdEJyb3dzZXLSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>A route to scalable Majorana qubits</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>2024-07-07 13:17:38.521458</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMijAFodHRwczovL3d3dy5tc24uY29tL2VuLXVzL25ld3MvdGVjaG5vbG9neS9hLXJvdXRlLXRvLXNjYWxhYmxlLW1ham9yYW5hLXF1Yml0cy9hci1CQjFvNkhQaj9pdGVtPWZsaWdodHNwcmctdGlwc3Vic2MtdjFhP2xvYWRJbj1kZWZhdWx0QnJvd3NlctIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>The promise of quantum computing: revolutionizing data processing</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>2024-07-07 13:17:38.531298</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMikQFodHRwczovL3d3dy5pbmRlcGVuZGVudC5jb20ubXQvYXJ0aWNsZXMvMjAyNC0wNy0wNy9uZXdzcGFwZXItb3BpbmlvbnMvVGhlLXByb21pc2Utb2YtcXVhbnR1bS1jb21wdXRpbmctcmV2b2x1dGlvbml6aW5nLWRhdGEtcHJvY2Vzc2luZy02NzM2MjYyNDkx0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Telecom dept invites proposals on 'Quantum Standardisation, Testing Labs'</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>2024-07-07 13:17:38.531298</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiigFodHRwczovL3d3dy5idXNpbmVzcy1zdGFuZGFyZC5jb20vaW5kdXN0cnkvbmV3cy90ZWxlY29tLWRlcHQtaW52aXRlcy1wcm9wb3NhbHMtb24tcXVhbnR1bS1zdGFuZGFyZGlzYXRpb24tdGVzdGluZy1sYWJzLTEyNDA3MDcwMDI3N18xLmh0bWzSAY4BaHR0cHM6Ly93d3cuYnVzaW5lc3Mtc3RhbmRhcmQuY29tL2FtcC9pbmR1c3RyeS9uZXdzL3RlbGVjb20tZGVwdC1pbnZpdGVzLXByb3Bvc2Fscy1vbi1xdWFudHVtLXN0YW5kYXJkaXNhdGlvbi10ZXN0aW5nLWxhYnMtMTI0MDcwNzAwMjc3XzEuaHRtbA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>India's DoT Calls For Quantum Tech Proposals To Propel Innovation And Enhance Citizens' Lives</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>2024-07-07 13:17:38.531298</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMigAFodHRwczovL3d3dy5uZXdzeC5jb20vdGVjaC1hbmQtYXV0by9pbmRpYXMtZG90LWNhbGxzLWZvci1xdWFudHVtLXRlY2gtcHJvcG9zYWxzLXRvLXByb3BlbC1pbm5vdmF0aW9uLWFuZC1lbmhhbmNlLWNpdGl6ZW5zLWxpdmVzL9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>DoT announces call for proposals for quantum standardisation and testing labs</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>2024-07-07 13:17:38.531298</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMifmh0dHBzOi8vd3d3Lm1zbi5jb20vZW4taW4vbmV3cy9JbmRpYS9kb3QtYW5ub3VuY2VzLWNhbGwtZm9yLXByb3Bvc2Fscy1mb3ItcXVhbnR1bS1zdGFuZGFyZGlzYXRpb24tYW5kLXRlc3RpbmctbGFicy9hci1CQjFweEltatIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Turning Heat into Electricity to Keep Quantum Computers Cool - iHLS</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>2024-07-07 13:17:38.531298</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiIWh0dHBzOi8vaS1obHMuY29tL2FyY2hpdmVzLzEyNDUzMNIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>DoT invites proposals on Quantum Standardisation and Testing Labs</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>2024-07-07 13:17:38.531298</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMifmh0dHBzOi8vd3d3LmRlY2NhbmNocm9uaWNsZS5jb20vbmF0aW9uL2luLW90aGVyLW5ld3MvZG90LWludml0ZXMtcHJvcG9zYWxzLW9uLXF1YW50dW0tc3RhbmRhcmRpc2F0aW9uLWFuZC10ZXN0aW5nLWxhYnMtMTgwODk4N9IBggFodHRwczovL3d3dy5kZWNjYW5jaHJvbmljbGUuY29tL2FtcC9uYXRpb24vaW4tb3RoZXItbmV3cy9kb3QtaW52aXRlcy1wcm9wb3NhbHMtb24tcXVhbnR1bS1zdGFuZGFyZGlzYXRpb24tYW5kLXRlc3RpbmctbGFicy0xODA4OTg3?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>DoT announces Call for Proposals: Quantum Standardization and Testing Labs</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>2024-07-07 13:17:38.541347</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiaWh0dHBzOi8vaWJnbmV3cy5jb20vMjAyNC8wNy8wNy9kb3QtYW5ub3VuY2VzLWNhbGwtZm9yLXByb3Bvc2Fscy1xdWFudHVtLXN0YW5kYXJkaXphdGlvbi1hbmQtdGVzdGluZy1sYWJzL9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Centre calls for Quantum Lab proposals to boost local R&amp;D, benefit all citizens</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>2024-07-07 13:17:38.541347</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiZ2h0dHBzOi8vbW9ydW5nZXhwcmVzcy5jb20vY2VudHJlLWNhbGxzLWZvci1xdWFudHVtLWxhYi1wcm9wb3NhbHMtdG8tYm9vc3QtbG9jYWwtcmQtYmVuZWZpdC1hbGwtY2l0aXplbnPSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Misplaced hope and the quantum</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>2024-07-07 13:17:38.541347</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiPGh0dHBzOi8vYW1hbmRhbGEuY29tLmJ6L25ld3MvbWlzcGxhY2VkLWhvcGUtYW5kLXRoZS1xdWFudHVtL9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Business News | DoT Invites Proposals for Quantum Technology Development to Enhance Citizens' Lives</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>2024-07-07 13:17:38.547280</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMikgFodHRwczovL3d3dy5sYXRlc3RseS5jb20vYWdlbmN5LW5ld3MvYnVzaW5lc3MtbmV3cy1kb3QtaW52aXRlcy1wcm9wb3NhbHMtZm9yLXF1YW50dW0tdGVjaG5vbG9neS1kZXZlbG9wbWVudC10by1lbmhhbmNlLWNpdGl6ZW5zLWxpdmVzLTYwOTI0MDEuaHRtbNIBlgFodHRwczovL3d3dy5sYXRlc3RseS5jb20vYWdlbmN5LW5ld3MvYnVzaW5lc3MtbmV3cy1kb3QtaW52aXRlcy1wcm9wb3NhbHMtZm9yLXF1YW50dW0tdGVjaG5vbG9neS1kZXZlbG9wbWVudC10by1lbmhhbmNlLWNpdGl6ZW5zLWxpdmVzLTYwOTI0MDEuaHRtbC9hbXA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>DoT invites proposals for quantum technology development to enhance citizens’ lives</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>2024-07-07 13:17:38.547280</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMid2h0dHBzOi8vdGhlcHJpbnQuaW4vZWNvbm9teS9kb3QtaW52aXRlcy1wcm9wb3NhbHMtZm9yLXF1YW50dW0tdGVjaG5vbG9neS1kZXZlbG9wbWVudC10by1lbmhhbmNlLWNpdGl6ZW5zLWxpdmVzLzIxNjQxNTAv0gF7aHR0cHM6Ly90aGVwcmludC5pbi9lY29ub215L2RvdC1pbnZpdGVzLXByb3Bvc2Fscy1mb3ItcXVhbnR1bS10ZWNobm9sb2d5LWRldmVsb3BtZW50LXRvLWVuaGFuY2UtY2l0aXplbnMtbGl2ZXMvMjE2NDE1MC8_YW1w?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Quantum Annealing Equipment Market Growing Massively by-D-Wave, NTT, Rigetti, Hitachi, NEC Corporation, Fujitsu ...</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>2024-07-07 13:17:38.551579</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMingFodHRwczovL3d3dy5rbm93Y2FzaW5vLmNvLm56L3VuY2F0ZWdvcmlzZWQvcXVhbnR1bS1hbm5lYWxpbmctZXF1aXBtZW50LW1hcmtldC1ncm93aW5nLW1hc3NpdmVseS1ieS1kLXdhdmUtbnR0LXJpZ2V0dGktaGl0YWNoaS1uZWMtY29ycG9yYXRpb24tZnVqaXRzdS0yLzk2OTMwL9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>India Invites Research Proposals for Quantum Labs</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>2024-07-07 13:17:38.551579</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiaWh0dHBzOi8vd3d3LmRldmRpc2NvdXJzZS5jb20vYXJ0aWNsZS90ZWNobm9sb2d5LzMwMDg0NTItaW5kaWEtaW52aXRlcy1yZXNlYXJjaC1wcm9wb3NhbHMtZm9yLXF1YW50dW0tbGFic9IBbWh0dHBzOi8vd3d3LmRldmRpc2NvdXJzZS5jb20vYXJ0aWNsZS90ZWNobm9sb2d5LzMwMDg0NTItaW5kaWEtaW52aXRlcy1yZXNlYXJjaC1wcm9wb3NhbHMtZm9yLXF1YW50dW0tbGFicz9hbXA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Quantum AI Australia Review 2024 – What Do the Experts Say?</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>2024-07-07 13:17:38.551579</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiUWh0dHBzOi8vdGVjaGJ1bGxpb24uY29tL3F1YW50dW0tYWktYXVzdHJhbGlhLXJldmlldy0yMDI0LXdoYXQtZG8tdGhlLWV4cGVydHMtc2F5L9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>First Quantum Minerals Ltd. (OTCMKTS:FQVLF) Receives Average Recommendation of “Hold” from Analysts</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>2024-07-07 13:17:59.599167</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiigFodHRwczovL3d3dy5kZWZlbnNld29ybGQubmV0LzIwMjQvMDcvMDcvZmlyc3QtcXVhbnR1bS1taW5lcmFscy1sdGQtb3RjbWt0c2ZxdmxmLXJlY2VpdmVzLWF2ZXJhZ2UtcmVjb21tZW5kYXRpb24tb2YtaG9sZC1mcm9tLWFuYWx5c3RzLmh0bWzSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>First Quantum Minerals Ltd. (OTCMKTS:FQVLF) Given Average Recommendation of “Hold” by Brokerages</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>2024-07-07 13:17:59.599167</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMihwFodHRwczovL3d3dy5kZWZlbnNld29ybGQubmV0LzIwMjQvMDcvMDcvZmlyc3QtcXVhbnR1bS1taW5lcmFscy1sdGQtb3RjbWt0c2ZxdmxmLWdpdmVuLWF2ZXJhZ2UtcmVjb21tZW5kYXRpb24tb2YtaG9sZC1ieS1icm9rZXJhZ2VzLmh0bWzSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Stable and efficient CsPbI3 quantum-dot light-emitting diodes with strong quantum confinement</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>2024-07-07 13:17:59.602395</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiMmh0dHBzOi8vd3d3Lm5hdHVyZS5jb20vYXJ0aWNsZXMvczQxNDY3LTAyNC01MDAyMi040gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Marco Bitran Examines How Quantum Computing Could Revolutionize Investment Strategies</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>2024-07-07 13:17:59.622300</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMigwFodHRwczovL2dvb2RtZW5wcm9qZWN0LmNvbS9idXNpbmVzcy1ldGhpY3MtMi9tYXJjby1iaXRyYW4tZXhhbWluZXMtaG93LXF1YW50dW0tY29tcHV0aW5nLWNvdWxkLXJldm9sdXRpb25pemUtaW52ZXN0bWVudC1zdHJhdGVnaWVzL9IBhwFodHRwczovL2dvb2RtZW5wcm9qZWN0LmNvbS9idXNpbmVzcy1ldGhpY3MtMi9tYXJjby1iaXRyYW4tZXhhbWluZXMtaG93LXF1YW50dW0tY29tcHV0aW5nLWNvdWxkLXJldm9sdXRpb25pemUtaW52ZXN0bWVudC1zdHJhdGVnaWVzL2FtcC8?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Scientists tap into 2 new quantum methods to catch dark matter suspects</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>2024-07-07 13:17:59.642534</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMixAFodHRwczovL3d3dy5tc24uY29tL2VuLXVzL25ld3MvdGVjaG5vbG9neS9zY2llbnRpc3RzLXRhcC1pbnRvLTItbmV3LXF1YW50dW0tbWV0aG9kcy10by1jYXRjaC1kYXJrLW1hdHRlci1zdXNwZWN0cy9hci1CQjFwcWl4WD9pdGVtPWZsaWdodHNwcmctdGlwc3Vic2MtdjFhP3NlYXNvbjg5YzI2ZDFjZTE5NjQ5YWI4YzZiMWVhNjkwNGRlNDE5VGh10gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Searching for dark matter with the coldest quantum detectors in the world</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>2024-07-07 13:17:59.650245</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMixgFodHRwczovL3d3dy5tc24uY29tL2VuLXVzL25ld3MvdGVjaG5vbG9neS9zZWFyY2hpbmctZm9yLWRhcmstbWF0dGVyLXdpdGgtdGhlLWNvbGRlc3QtcXVhbnR1bS1kZXRlY3RvcnMtaW4tdGhlLXdvcmxkL2FyLUJCMXBuR0VCP2l0ZW09ZmxpZ2h0c3ByZy10aXBzdWJzYy12MWE_c2Vhc29uODljMjZkMWNlMTk2NDlhYjhjNmIxZWE2OTA0ZGU0MTl0aHXSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>DoT invites views on ‘Testing Labs, Quantum Standardisation’</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>2024-07-07 14:17:38.541347</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiZ2h0dHBzOi8vd3d3Lm1pbGxlbm5pdW1wb3N0LmluL2J1c2luZXNzL2RvdC1pbnZpdGVzLXZpZXdzLW9uLXRlc3RpbmctbGFicy1xdWFudHVtLXN0YW5kYXJkaXNhdGlvbi01NzA5NDXSAWtodHRwczovL3d3dy5taWxsZW5uaXVtcG9zdC5pbi9hbXAvYnVzaW5lc3MvZG90LWludml0ZXMtdmlld3Mtb24tdGVzdGluZy1sYWJzLXF1YW50dW0tc3RhbmRhcmRpc2F0aW9uLTU3MDk0NQ?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>2D quantum cooling system reaches temperatures colder than outer space by converting heat into electrical voltage</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>2024-07-07 14:17:59.602395</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMirgFodHRwczovL3d3dy50b21zaGFyZHdhcmUuY29tL3RlY2gtaW5kdXN0cnkvcXVhbnR1bS1jb21wdXRpbmcvMmQtcXVhbnR1bS1jb29saW5nLXN5c3RlbS1yZWFjaGVzLXRlbXBlcmF0dXJlcy1jb2xkZXItdGhhbi1vdXRlci1zcGFjZS1ieS1jb252ZXJ0aW5nLWhlYXQtaW50by1lbGVjdHJpY2FsLXZvbHRhZ2XSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>2D quantum cooling system reaches temperatures colder…</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>2024-07-07 14:17:59.646853</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiiwFodHRwczovL3d3dy5pbmtsLmNvbS9uZXdzLzJkLXF1YW50dW0tY29vbGluZy1zeXN0ZW0tcmVhY2hlcy10ZW1wZXJhdHVyZXMtY29sZGVyLXRoYW4tb3V0ZXItc3BhY2UtYnktY29udmVydGluZy1oZWF0LWludG8tZWxlY3RyaWNhbC12b2x0YWdl0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Scientists develop innovative method to validate quantum photonics circuits performance</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>2024-07-07 16:17:38.506426</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMi1AFodHRwczovL3d3dy5tc24uY29tL2VuLXVzL25ld3MvdGVjaG5vbG9neS9zY2llbnRpc3RzLWRldmVsb3AtaW5ub3ZhdGl2ZS1tZXRob2QtdG8tdmFsaWRhdGUtcXVhbnR1bS1waG90b25pY3MtY2lyY3VpdHMtcGVyZm9ybWFuY2UvYXItQkIxb0VPYU8_aXRlbT1mbGlnaHRzcHJnLXRpcHN1YnNjLXYxYT9zZWFzb244OWMyNmQxY2UxOTY0OWFiOGM2YjFlYTY5MDRkZTQxOVRoddIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Quantum Block Share Chat. Chat About QBT Shares - Stock Quote, Charts, Trade History, Share Chat, Financial Terms ...</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>2024-07-07 16:17:38.531298</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMidGh0dHBzOi8vd3d3LmxzZS5jby51ay9TaGFyZUNoYXQuaHRtbD9TaGFyZVRpY2tlcj1RQlQmc2hhcmU9UXVhbnR1bS1CbG9jayZ0aHJlYWQ9RjU5QkFGMkItNDY4Qi00M0Q5LUI3MjAtNjc3NzdFODQxMjYz0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Quantum Block Share Chat (QBT)</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>2024-07-07 17:05:41.740696</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMidGh0dHBzOi8vd3d3LmxzZS5jby51ay9TaGFyZUNoYXQuaHRtbD9TaGFyZVRpY2tlcj1RQlQmc2hhcmU9UXVhbnR1bS1CbG9jayZ0aHJlYWQ9RjU5QkFGMkItNDY4Qi00M0Q5LUI3MjAtNjc3NzdFODQxMjYz0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Quantum computer researchers have achieved a cooling system that's colder than space</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>2024-07-07 17:17:59.592145</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiV2h0dHBzOi8vd3d3LnhkYS1kZXZlbG9wZXJzLmNvbS9xdWFudHVtLWNvbXB1dGVyLXJlc2VhcmNoZXItY29vbGluZy1zeXN0ZW0tY29sZGVyLXNwYWNlL9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>2D device turns heat into electricity, promises to keep quantum ops cool</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>2024-07-07 17:17:59.602395</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMimQJodHRwczovL3d3dy5tc24uY29tL2VuLXVzL25ld3MvdGVjaG5vbG9neS8yZC1kZXZpY2UtdHVybnMtaGVhdC1pbnRvLWVsZWN0cmljaXR5LXByb21pc2VzLXRvLWtlZXAtcXVhbnR1bS1vcHMtY29vbC9hci1CQjFwdzJLRz9pdGVtPWZsaWdodHMlM0NpbWclMjBzcmM9Jml0ZW09ZmxpZ2h0cyUzQ2ltZyUyMHNyYz0maXRlbT1mbGlnaHRzJTNDaW1nJTIwc3JjPSZpdGVtPWZsaWdodHMlM0NpbWclMjBzcmM9Jml0ZW09ZmxpZ2h0cyUzQ2ltZyUyMHNyYz0maXRlbT1mbGlnaHRzJTNDaW1nJTIwc3JjPdIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Quantum Leap: Breakthrough For Secure Communication With ‘Artificial Atoms’</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>2024-07-07 18:05:41.735698</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMicGh0dHBzOi8vd3d3LmV1cmFzaWFyZXZpZXcuY29tLzA4MDcyMDI0LXF1YW50dW0tbGVhcC1icmVha3Rocm91Z2gtZm9yLXNlY3VyZS1jb21tdW5pY2F0aW9uLXdpdGgtYXJ0aWZpY2lhbC1hdG9tcy_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Prestige to set up center of excellence for Quantum Computing</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>2024-07-07 18:05:41.742383</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiaWh0dHBzOi8vd3d3Lm55b29vei5jb20vbmV3cy9iaG9wYWwvMTcyMzI4MC9wcmVzdGlnZS10by1zZXQtdXAtY2VudGVyLW9mLWV4Y2VsbGVuY2UtZm9yLXF1YW50dW0tY29tcHV0aW5nL9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Quantum Leap: Breakthrough For Secure Communication With 'Artificial Atoms'</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>2024-07-07 18:17:38.501806</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMicGh0dHBzOi8vd3d3LmV1cmFzaWFyZXZpZXcuY29tLzA4MDcyMDI0LXF1YW50dW0tbGVhcC1icmVha3Rocm91Z2gtZm9yLXNlY3VyZS1jb21tdW5pY2F0aW9uLXdpdGgtYXJ0aWZpY2lhbC1hdG9tcy_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>DoT invites application for R&amp;D in Quantum Communications</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>2024-07-07 18:17:38.531298</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMi7AFodHRwOi8vd3d3Lm1zbi5jb20vZW4taW4vbmV3cy9pbmRpYS9kb3QtaW52aXRlcy1hcHBsaWNhdGlvbi1mb3Itci1kLWluLXF1YW50dW0tY29tbXVuaWNhdGlvbnMvYXItQkIxcHhSdHU_b2NpZD1CaW5nTmV3c1ZlcnAmYXBpdmVyc2lvbj12MiZub3NlcnZlcmNhY2hlPTEmZG9tc2hpbT0xJnJlbmRlcndlYmNvbXBvbmVudHM9MSZ3Y3Nlbz0xJmJhdGNoc2VydmVydGVsZW1ldHJ5PTEmbm9zZXJ2ZXJ0ZWxlbWV0cnk9MdIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Prestige to set up center of excellence for Quantum Computing | Bhopal NYOOOZ</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>2024-07-07 18:17:38.541347</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiaWh0dHBzOi8vd3d3Lm55b29vei5jb20vbmV3cy9iaG9wYWwvMTcyMzI4MC9wcmVzdGlnZS10by1zZXQtdXAtY2VudGVyLW9mLWV4Y2VsbGVuY2UtZm9yLXF1YW50dW0tY29tcHV0aW5nL9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>QUANTUM COMPUTING STARTUP PLANQC RAISES 50 MILLION EURO</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>2024-07-07 18:51:11.085267</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMieGh0dHBzOi8vcHJlc3NhdC5jby51ay9yZWxlYXNlcy9xdWFudHVtLWNvbXB1dGluZy1zdGFydHVwLXBsYW5xYy1yYWlzZXMtNTAtbWlsbGlvbi1ldXJvLTZmNzZhYmFiZDU4MzQ1N2VlYjBhZDdlYTM1NDhlZjllL9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>New method integrates quantum dots with metasurfaces for enhanced luminescence</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>2024-07-07 19:17:38.507238</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiywFodHRwczovL3d3dy5tc24uY29tL2VuLXVzL25ld3MvdGVjaG5vbG9neS9uZXctbWV0aG9kLWludGVncmF0ZXMtcXVhbnR1bS1kb3RzLXdpdGgtbWV0YXN1cmZhY2VzLWZvci1lbmhhbmNlZC1sdW1pbmVzY2VuY2UvYXItQkIxbzZhSmQ_aXRlbT1mbGlnaHRzcHJnLXRpcHN1YnNjLXYxYT9zZWFzb244OWMyNmQxY2UxOTY0OWFiOGM2YjFlYTY5MDRkZTQxOXRoddIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>How Machine Learning is Supercharging Quantum Computing: Visualizing Charge State Predictions in Quantum Dots</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>2024-07-07 19:17:38.515156</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiiwFodHRwczovL2V2cmltYWdhY2kub3JnL3RwZy9ob3ctbWFjaGluZS1sZWFybmluZy1pcy1zdXBlcmNoYXJnaW5nLXF1YW50dW0tY29tcHV0aW5nLXZpc3VhbGl6aW5nLWNoYXJnZS1zdGF0ZS1wcmVkaWN0aW9ucy1pbi1xdWFudHVtLWRvdHMtMjMx0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Can Neutrons Defy Classical Physics? Recent Experiments Say Yes!</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>2024-07-07 19:17:38.521458</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiXWh0dHBzOi8vZXZyaW1hZ2FjaS5vcmcvdHBnL2Nhbi1uZXV0cm9ucy1kZWZ5LWNsYXNzaWNhbC1waHlzaWNzLXJlY2VudC1leHBlcmltZW50cy1zYXkteWVzLTIzMtIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>How Quantum Computing Is Already Changing the World</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>2024-07-07 19:17:59.602395</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMifmh0dHBzOi8vaW52ZXN0b3JwbGFjZS5jb20vaHlwZXJncm93dGhpbnZlc3RpbmcvMjAyNC8wNy9xdWFudHVtLWNvbXB1dGluZy1jb3VsZC1zYXZlLXRoZS13b3JsZC1oZXJlcy1ob3ctaXRzLWFscmVhZHktaGFwcGVuaW5nL9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>DoT invites proposals for quantum technology development to enhance citizens' lives</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>2024-07-07 19:17:59.642534</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMijQJodHRwOi8vd3d3Lm1zbi5jb20vZW4teGwvbmV3cy9vdGhlci9kb3QtaW52aXRlcy1wcm9wb3NhbHMtZm9yLXF1YW50dW0tdGVjaG5vbG9neS1kZXZlbG9wbWVudC10by1lbmhhbmNlLWNpdGl6ZW5zLWxpdmVzL2FyLUJCMXB5N1ZyP29jaWQ9ZmluYW5jZS12ZXJ0aHAtZmVlZHMmYXBpdmVyc2lvbj12MiZub3NlcnZlcmNhY2hlPTEmZG9tc2hpbT0xJnJlbmRlcndlYmNvbXBvbmVudHM9MSZ3Y3Nlbz0xJmJhdGNoc2VydmVydGVsZW1ldHJ5PTEmbm9zZXJ2ZXJ0ZWxlbWV0cnk9MdIBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>The mysterious phenomenon known as "Quads" during the quantum communications: From the "Positions" to the "Findings" is a book by Jay Shields called "Finding Qudits", published on July 2 2009, explains how flying qudits bring new ideas and phenomena</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>2024-07-07 20:17:38.547280</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMigAFodHRwczovL2xpc3QyMy5jb20vMzgxNDkxNS10aGUtbXlzdGVyaW91cy1waGVub21lbm9uLWtub3duLWFzLXF1YWRzLWR1cmluZy10aGUtcXVhbnR1bS1jb21tdW5pY2F0aW9ucy1mcm9tLXRoZS1wb3NpdGlvbnMtdG8tdGhlL9IBhAFodHRwczovL2xpc3QyMy5jb20vMzgxNDkxNS10aGUtbXlzdGVyaW91cy1waGVub21lbm9uLWtub3duLWFzLXF1YWRzLWR1cmluZy10aGUtcXVhbnR1bS1jb21tdW5pY2F0aW9ucy1mcm9tLXRoZS1wb3NpdGlvbnMtdG8tdGhlL2FtcC8?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Flying Qudits: Unlocking New Dimensions of Quantum Communication</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>2024-07-07 20:17:59.583994</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiWWh0dHBzOi8vc2NpdGVjaGRhaWx5LmNvbS9mbHlpbmctcXVkaXRzLXVubG9ja2luZy1uZXctZGltZW5zaW9ucy1vZi1xdWFudHVtLWNvbW11bmljYXRpb24v0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>BENNETT UNIVERSITY: Engineering Physics has emerged as the bridge between Quantum Technology and Artificial Intelligence</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>2024-07-07 21:05:41.738599</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiwAFodHRwczovL3d3dy5lZHVjYXRpb250aW1lcy5jb20vYXJ0aWNsZS9jYW1wdXMtYmVhdC1jb2xsZWdlLWxpZmUvOTk3MzU5ODgvYmVubmV0dC11bml2ZXJzaXR5LWVuZ2luZWVyaW5nLXBoeXNpY3MtaGFzLWVtZXJnZWQtYXMtdGhlLWJyaWRnZS1iZXR3ZWVuLXF1YW50dW0tdGVjaG5vbG9neS1hbmQtYXJ0aWZpY2lhbC1pbnRlbGxpZ2VuY2XSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>What is the ‘responsible quantum technologies’ movement? | Explained</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>2024-07-07 21:17:59.592145</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMifWh0dHBzOi8vd3d3LnRoZWhpbmR1LmNvbS9zY2ktdGVjaC9zY2llbmNlL3doYXQtaXMtdGhlLXJlc3BvbnNpYmxlLXF1YW50dW0tdGVjaG5vbG9naWVzLW1vdmVtZW50LWV4cGxhaW5lZC9hcnRpY2xlNjgzNzc5NTQuZWNl0gGCAWh0dHBzOi8vd3d3LnRoZWhpbmR1LmNvbS9zY2ktdGVjaC9zY2llbmNlL3doYXQtaXMtdGhlLXJlc3BvbnNpYmxlLXF1YW50dW0tdGVjaG5vbG9naWVzLW1vdmVtZW50LWV4cGxhaW5lZC9hcnRpY2xlNjgzNzc5NTQuZWNlL2FtcC8?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>BENNETT UNIVERSITY: Engineering Physics has emerged as the bridge between Quantum Technology and Artificial ...</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>2024-07-07 21:17:59.630972</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiwAFodHRwczovL3d3dy5lZHVjYXRpb250aW1lcy5jb20vYXJ0aWNsZS9jYW1wdXMtYmVhdC1jb2xsZWdlLWxpZmUvOTk3MzU5ODgvYmVubmV0dC11bml2ZXJzaXR5LWVuZ2luZWVyaW5nLXBoeXNpY3MtaGFzLWVtZXJnZWQtYXMtdGhlLWJyaWRnZS1iZXR3ZWVuLXF1YW50dW0tdGVjaG5vbG9neS1hbmQtYXJ0aWZpY2lhbC1pbnRlbGxpZ2VuY2XSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Photonic Integrated Circuit &amp; Quantum Computing Market is Expected to Progress at a CAGR of 20.1% by 2033 | FMI</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>2024-07-07 22:17:38.547280</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMijgFodHRwczovL3d3dy5mbWlibG9nLmNvbS8yMDI0LzA3LzA4L3Bob3RvbmljLWludGVncmF0ZWQtY2lyY3VpdC1xdWFudHVtLWNvbXB1dGluZy1tYXJrZXQtaXMtZXhwZWN0ZWQtdG8tcHJvZ3Jlc3MtYXQtYS1jYWdyLW9mLTIwLTEtYnktMjAzMy1mbWkv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>2D quantum cooling system: temps colder than outer space, converts heat into electrical voltage</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>2024-07-07 22:17:59.583994</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMijQFodHRwczovL3d3dy50d2Vha3Rvd24uY29tL25ld3MvOTkyMTMvMmQtcXVhbnR1bS1jb29saW5nLXN5c3RlbS10ZW1wcy1jb2xkZXItdGhhbi1vdXRlci1zcGFjZS1jb252ZXJ0cy1oZWF0LWludG8tZWxlY3RyaWNhbC12b2x0YWdlL2luZGV4Lmh0bWzSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Telecom Department Calls For Proposals On Quantum Tech Standardisation, Testing</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>2024-07-07 23:17:38.521265</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMidmh0dHBzOi8vYnVzaW5lc3N3b3JsZC5pbi9hcnRpY2xlL3RlbGVjb20tZGVwYXJ0bWVudC1jYWxscy1mb3ItcHJvcG9zYWxzLW9uLXF1YW50dW0tdGVjaC1zdGFuZGFyZGlzYXRpb24tdGVzdGluZy01MjUzOTjSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Singapore Fintech Festival 2024 Sets Stage for Responsible AI, Quantum Tech - Fintech Singapore</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>2024-07-07 23:17:38.541347</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMia2h0dHBzOi8vZmludGVjaG5ld3Muc2cvOTgxMjMvYWkvc2luZ2Fwb3JlLWZpbnRlY2gtZmVzdGl2YWwtMjAyNC1zZXRzLXN0YWdlLWZvci1yZXNwb25zaWJsZS1haS1xdWFudHVtLXRlY2gv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>German quantum computing startup planqc raises €50m Series A</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>2024-07-07 23:17:59.583994</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiOmh0dHBzOi8vc2lmdGVkLmV1L2FydGljbGVzL3BsYW5xYy1yYWlzZXMtNTBtLXNlcmllcy1hLW5ld3PSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>2D UltraLow Temperatures, High Performance Quantum</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>2024-07-07 23:17:59.592145</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiTmh0dHBzOi8vc2VtaWVuZ2luZWVyaW5nLmNvbS8yZC11bHRyYWxvdy10ZW1wZXJhdHVyZXMtaGlnaC1wZXJmb3JtYW5jZS1xdWFudHVtL9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>JP Morgan sails through DFAST with 200% AOCI reversal</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>2024-07-07 23:17:59.615154</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiXmh0dHBzOi8vd3d3LnJpc2submV0L3Jpc2stcXVhbnR1bS83OTU5NjU2L2pwLW1vcmdhbi1zYWlscy10aHJvdWdoLWRmYXN0LXdpdGgtMjAwLWFvY2ktcmV2ZXJzYWzSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Singapore FinTech Festival 2024 to take place from 6-8 November, spotlight on artificial intelligence and quantum technology</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>2024-07-08 00:05:41.739714</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMinQFodHRwczovL3d3dy5jb25uZWN0ZWR0b2luZGlhLmNvbS9zaW5nYXBvcmUtZmludGVjaC1mZXN0aXZhbC0yMDI0LXRvLXRha2UtcGxhY2UtZnJvbS02LTgtbm92ZW1iZXItc3BvdGxpZ2h0LW9uLWFydGlmaWNpYWwtaW50ZWxsaWdlbmNlLWFuZC1xdWFudHVtLXRlY2hub2xvZ3kv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Singapore Fintech Festival 2024 Sets Stage for Responsible AI, Quantum Tech</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>2024-07-08 00:05:41.742383</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMia2h0dHBzOi8vZmludGVjaG5ld3Muc2cvOTgxMjMvYWkvc2luZ2Fwb3JlLWZpbnRlY2gtZmVzdGl2YWwtMjAyNC1zZXRzLXN0YWdlLWZvci1yZXNwb25zaWJsZS1haS1xdWFudHVtLXRlY2gv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>What is a quantum dot?</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>2024-07-08 00:17:38.491280</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMi2wFodHRwczovL3d3dy5tc24uY29tL2VuLXVzL25ld3MvdGVjaG5vbG9neS93aGF0LWlzLWEtcXVhbnR1bS1kb3QvYXItQUExaE5rTkU_aXRlbT1mbGlnaHRzJTNDaW1nJTIwc3JjJml0ZW09ZmxpZ2h0cyUzQ2ltZyUyMHNyYyZpdGVtPWZsaWdodHMlM0NpbWclMjAmaXRlbT1mbGlnaHRzJTNDaW1nJTIwc3JjJml0ZW09ZmxpZ2h0cyUzQ2ltZyUyMHNyYyZpdGVtPWZsaWdodHMlM0NpbWclMjDSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Singapore FinTech Festival 2024 to take place from 6-8 November, spotlight on artificial intelligence and quantum ...</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>2024-07-08 00:17:38.521458</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMinQFodHRwczovL3d3dy5jb25uZWN0ZWR0b2luZGlhLmNvbS9zaW5nYXBvcmUtZmludGVjaC1mZXN0aXZhbC0yMDI0LXRvLXRha2UtcGxhY2UtZnJvbS02LTgtbm92ZW1iZXItc3BvdGxpZ2h0LW9uLWFydGlmaWNpYWwtaW50ZWxsaWdlbmNlLWFuZC1xdWFudHVtLXRlY2hub2xvZ3kv0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Quantum Computing and AI: Partnering to Transform Tech</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>2024-07-08 00:17:59.602395</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiXWh0dHBzOi8vd3d3Lm9wZW5zb3VyY2Vmb3J1LmNvbS8yMDI0LzA3L3F1YW50dW0tY29tcHV0aW5nLWFuZC1haS1wYXJ0bmVyaW5nLXRvLXRyYW5zZm9ybS10ZWNoL9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Fujitsu and ANU to develop Canberra quantum computing facility</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>2024-07-08 00:17:59.627316</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiYWh0dHBzOi8vd3d3LmNybi5jb20uYXUvbmV3cy9mdWppdHN1LWFuZC1hbnUtdG8tZGV2ZWxvcC1jYW5iZXJyYS1xdWFudHVtLWNvbXB1dGluZy1mYWNpbGl0eS02MDk1NDPSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>DoT calls for Quantum Labs proposals to boost technology standards and security</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>2024-07-08 00:17:59.649189</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiPGh0dHBzOi8vbWVkaWFicmllZi5jb20vZG90LWNhbGxzLWZvci1xdWFudHVtLWxhYnMtcHJvcG9zYWxzL9IBAA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>India’s DoT to set up quantum communications test labs</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>2024-07-08 01:05:41.734708</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMihAFodHRwczovL2RldmVsb3Bpbmd0ZWxlY29tcy5jb20vdGVsZWNvbS1idXNpbmVzcy90ZWxlY29tLXJlZ3VsYXRpb24vMTY5NjctaW5kaWEtcy1kb3QtdG8tc2V0LXVwLXF1YW50dW0tY29tbXVuaWNhdGlvbnMtdGVzdC1sYWJzLmh0bWzSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Quantum Detectors Poised to Reveal Dark Matter Mysteries</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>2024-07-08 01:17:59.583994</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiZGh0dHBzOi8vd3d3LnNwYWNlZGFpbHkuY29tL3JlcG9ydHMvUXVhbnR1bV9EZXRlY3RvcnNfUG9pc2VkX3RvX1JldmVhbF9EYXJrX01hdHRlcl9NeXN0ZXJpZXNfOTk5Lmh0bWzSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>NIST Selects Post-Quantum for National Cybersecurity Center of Excellence Quantum Migration Project</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>2024-07-08 01:17:59.583994</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMimgFodHRwczovL3d3dy50aGVmYXN0bW9kZS5jb20vdGVjaG5vbG9neS1zb2x1dGlvbnMvMzYzMTUtbmlzdC1zZWxlY3RzLXBvc3QtcXVhbnR1bS1mb3ItbmF0aW9uYWwtY3liZXJzZWN1cml0eS1jZW50ZXItb2YtZXhjZWxsZW5jZS1xdWFudHVtLW1pZ3JhdGlvbi1wcm9qZWN00gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Quantum Computer Study Reaches New Galaxies With Cooler-Than-Space Cooling System</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>2024-07-08 01:17:59.583994</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMifmh0dHBzOi8vd3d3LnRlY2h0aW1lcy5jb20vYXJ0aWNsZXMvMzA2NDUwLzIwMjQwNzA4L3F1YW50dW0tY29tcHV0ZXItc3R1ZHktcmVhY2hlcy1uZXctZ2FsYXhpZXMtY29vbGVyLXNwYWNlLWNvb2xpbmctc3lzdGVtLmh0bdIBggFodHRwczovL3d3dy50ZWNodGltZXMuY29tL2FtcC9hcnRpY2xlcy8zMDY0NTAvMjAyNDA3MDgvcXVhbnR1bS1jb21wdXRlci1zdHVkeS1yZWFjaGVzLW5ldy1nYWxheGllcy1jb29sZXItc3BhY2UtY29vbGluZy1zeXN0ZW0uaHRt?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>India's DoT to set up quantum communications test labs</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>2024-07-08 01:17:59.592145</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMihAFodHRwczovL2RldmVsb3Bpbmd0ZWxlY29tcy5jb20vdGVsZWNvbS1idXNpbmVzcy90ZWxlY29tLXJlZ3VsYXRpb24vMTY5NjctaW5kaWEtcy1kb3QtdG8tc2V0LXVwLXF1YW50dW0tY29tbXVuaWNhdGlvbnMtdGVzdC1sYWJzLmh0bWzSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>DoT Launches Initiative for Quantum Communication Standardization</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>2024-07-08 01:17:59.652913</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiaGh0dHBzOi8vc21lc3RyZWV0LmluL2xpbWVsaWdodC9kb3QtbGF1bmNoZXMtaW5pdGlhdGl2ZS1mb3ItcXVhbnR1bS1jb21tdW5pY2F0aW9uLXN0YW5kYXJkaXphdGlvbi01NTQ5NDU10gFoaHR0cHM6Ly9zbWVzdHJlZXQuaW4vbGltZWxpZ2h0L2RvdC1sYXVuY2hlcy1pbml0aWF0aXZlLWZvci1xdWFudHVtLWNvbW11bmljYXRpb24tc3RhbmRhcmRpemF0aW9uLTU1NDk0NTU?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Extending the detection limit: innovations in infrared quantum dot photodetectors reaching up to 18 μm</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>2024-07-08 02:05:41.733704</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiMmh0dHBzOi8vd3d3Lm5hdHVyZS5jb20vYXJ0aWNsZXMvczQxMzc3LTAyNC0wMTUwNC0z0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Extending the detection limit: innovations in infrared quantum dot photodetectors reaching up to 18 μm | Light: Science ...</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>2024-07-08 02:17:59.583994</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMiMmh0dHBzOi8vd3d3Lm5hdHVyZS5jb20vYXJ0aWNsZXMvczQxMzc3LTAyNC0wMTUwNC0z0gEA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>New computer solves complex problems by physically mirroring the systems it's trying to solve</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>2024-07-08 02:17:59.602214</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMigQFodHRwczovL3d3dy5hZHZhbmNlZHNjaWVuY2VuZXdzLmNvbS9uZXctY29tcHV0ZXItc29sdmVzLWNvbXBsZXgtcHJvYmxlbXMtYnktcGh5c2ljYWxseS1taXJyb3JpbmctdGhlLXN5c3RlbXMtaXRzLXRyeWluZy10by1zb2x2ZS_SAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Neutrons on classically inexplicable paths: Quantum theory prevails in Leggett-Garg inequality test</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>2024-07-08 02:17:59.602395</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>news.google.com/articles/CBMi9gFodHRwczovL3d3dy5tc24uY29tL2VuLXVzL25ld3MvdGVjaG5vbG9neS9uZXV0cm9ucy1vbi1jbGFzc2ljYWxseS1pbmV4cGxpY2FibGUtcGF0aHMtcXVhbnR1bS10aGVvcnktcHJldmFpbHMtaW4tbGVnZ2V0dC1nYXJnLWluZXF1YWxpdHktdGVzdC9hci1CQjFwaHEyMD9pdGVtPWZsaWdodHMlM0NpbWclMjBzcmMmaXRlbT1mbGlnaHRzJTNDaW1nJTIwJml0ZW09ZmxpZ2h0cyUzQ2ltZyUyMHNyYyZpdGVtPWZsaWdodHMlM0NpbWclMjDSAQA?hl=en-CA&amp;gl=CA&amp;ceid=CA%3Aen</t>
         </is>
       </c>
     </row>
